--- a/Output/Restoration_Reach_Ranking_Scores_Output.xlsx
+++ b/Output/Restoration_Reach_Ranking_Scores_Output.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P189"/>
+  <dimension ref="A1:P185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6637,30 +6637,49 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Icicle Creek Lower 01</t>
+          <t>Johnson 16-1</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Lower Icicle Creek</t>
+          <t>Johnson Creek</t>
         </is>
       </c>
       <c r="D122">
-        <v>99.44705458636332</v>
+        <v>11.88660691792071</v>
+      </c>
+      <c r="E122">
+        <v>100</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>13.33333333333333</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Contaminants_Steelhead_Spawning and Incubation,Flow- Summer Base Flow_Steelhead_Spawning and Incubation</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness_Steelhead_Spawning and Incubation</t>
+        </is>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J122">
-        <v>0</v>
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="K122">
+        <v>125.219940251254</v>
+      </c>
+      <c r="L122">
+        <v>3</v>
       </c>
       <c r="M122">
         <v>0</v>
@@ -6668,37 +6687,59 @@
       <c r="N122">
         <v>0</v>
       </c>
+      <c r="O122">
+        <v>3</v>
+      </c>
       <c r="P122">
-        <v>180</v>
+        <v>138</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Icicle Creek Lower 02</t>
+          <t>Johnson 16-2</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Lower Icicle Creek</t>
+          <t>Johnson Creek</t>
         </is>
       </c>
       <c r="D123">
-        <v>95.99758030706276</v>
+        <v>11.88660691792071</v>
+      </c>
+      <c r="E123">
+        <v>100</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>13.33333333333333</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Contaminants_Steelhead_Spawning and Incubation,Flow- Summer Base Flow_Steelhead_Spawning and Incubation</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness_Steelhead_Spawning and Incubation</t>
+        </is>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J123">
-        <v>0</v>
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="K123">
+        <v>125.219940251254</v>
+      </c>
+      <c r="L123">
+        <v>3</v>
       </c>
       <c r="M123">
         <v>0</v>
@@ -6706,116 +6747,179 @@
       <c r="N123">
         <v>0</v>
       </c>
+      <c r="O123">
+        <v>5</v>
+      </c>
       <c r="P123">
-        <v>181</v>
+        <v>138</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Icicle Creek Lower 03</t>
+          <t>Johnson 16-3</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Lower Icicle Creek</t>
+          <t>Johnson Creek</t>
         </is>
       </c>
       <c r="D124">
+        <v>43.95840148014883</v>
+      </c>
+      <c r="E124">
         <v>100</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Contaminants_Steelhead_Spawning and Incubation,Flow- Summer Base Flow_Steelhead_Spawning and Incubation</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness_Steelhead_Spawning and Incubation</t>
+        </is>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J124">
-        <v>0</v>
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="K124">
+        <v>183.9584014801488</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
       </c>
       <c r="M124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N124">
         <v>0</v>
       </c>
+      <c r="O124">
+        <v>30</v>
+      </c>
       <c r="P124">
-        <v>182</v>
+        <v>74</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Icicle Creek Lower 04</t>
+          <t>Johnson 16-4</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Lower Icicle Creek</t>
+          <t>Johnson Creek</t>
         </is>
       </c>
       <c r="D125">
-        <v>53.5789863303935</v>
+        <v>76.0478848176009</v>
+      </c>
+      <c r="E125">
+        <v>100</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Contaminants_Steelhead_Spawning and Incubation,Flow- Summer Base Flow_Steelhead_Spawning and Incubation</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness_Steelhead_Spawning and Incubation</t>
+        </is>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J125">
-        <v>0</v>
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="K125">
+        <v>216.0478848176009</v>
       </c>
       <c r="L125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N125">
         <v>0</v>
       </c>
+      <c r="O125">
+        <v>9</v>
+      </c>
       <c r="P125">
-        <v>183</v>
+        <v>21</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Icicle Creek Lower 05</t>
+          <t>Johnson 16-5</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Lower Icicle Creek</t>
+          <t>Johnson Creek</t>
         </is>
       </c>
       <c r="D126">
-        <v>12.87359317513477</v>
+        <v>88.06274346224264</v>
+      </c>
+      <c r="E126">
+        <v>100</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Contaminants_Steelhead_Spawning and Incubation,Flow- Summer Base Flow_Steelhead_Spawning and Incubation</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness_Steelhead_Spawning and Incubation</t>
+        </is>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J126">
-        <v>0</v>
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="K126">
+        <v>228.0627434622426</v>
+      </c>
+      <c r="L126">
+        <v>1</v>
       </c>
       <c r="M126">
         <v>0</v>
@@ -6823,14 +6927,17 @@
       <c r="N126">
         <v>0</v>
       </c>
+      <c r="O126">
+        <v>13</v>
+      </c>
       <c r="P126">
-        <v>184</v>
+        <v>13</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Johnson 16-1</t>
+          <t>Johnson 16-6</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -6844,13 +6951,13 @@
         </is>
       </c>
       <c r="D127">
-        <v>11.88660691792071</v>
+        <v>100</v>
       </c>
       <c r="E127">
         <v>100</v>
       </c>
       <c r="F127">
-        <v>13.33333333333333</v>
+        <v>40</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6869,10 +6976,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="K127">
-        <v>125.219940251254</v>
+        <v>240</v>
       </c>
       <c r="L127">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M127">
         <v>0</v>
@@ -6881,16 +6988,16 @@
         <v>0</v>
       </c>
       <c r="O127">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="P127">
-        <v>138</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Johnson 16-2</t>
+          <t>Johnson 16-7</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -6904,7 +7011,7 @@
         </is>
       </c>
       <c r="D128">
-        <v>11.88660691792071</v>
+        <v>96.60193334674028</v>
       </c>
       <c r="E128">
         <v>100</v>
@@ -6929,10 +7036,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="K128">
-        <v>125.219940251254</v>
+        <v>209.9352666800736</v>
       </c>
       <c r="L128">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M128">
         <v>0</v>
@@ -6941,16 +7048,16 @@
         <v>0</v>
       </c>
       <c r="O128">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P128">
-        <v>138</v>
+        <v>35</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Johnson 16-3</t>
+          <t>Johnson 16-8</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -6964,7 +7071,7 @@
         </is>
       </c>
       <c r="D129">
-        <v>43.95840148014883</v>
+        <v>100</v>
       </c>
       <c r="E129">
         <v>100</v>
@@ -6989,7 +7096,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="K129">
-        <v>183.9584014801488</v>
+        <v>240</v>
       </c>
       <c r="L129">
         <v>1</v>
@@ -7001,16 +7108,16 @@
         <v>0</v>
       </c>
       <c r="O129">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="P129">
-        <v>74</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Johnson 16-4</t>
+          <t>Johnson 16-9</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -7024,7 +7131,7 @@
         </is>
       </c>
       <c r="D130">
-        <v>76.0478848176009</v>
+        <v>77.88038065355639</v>
       </c>
       <c r="E130">
         <v>100</v>
@@ -7049,10 +7156,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="K130">
-        <v>216.0478848176009</v>
+        <v>217.8803806535564</v>
       </c>
       <c r="L130">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M130">
         <v>0</v>
@@ -7061,16 +7168,16 @@
         <v>0</v>
       </c>
       <c r="O130">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="P130">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Johnson 16-5</t>
+          <t>Loup Loup 16-1</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -7080,39 +7187,39 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Johnson Creek</t>
+          <t>Loup Loup Creek-Lower DS</t>
         </is>
       </c>
       <c r="D131">
-        <v>88.06274346224264</v>
+        <v>100</v>
       </c>
       <c r="E131">
-        <v>100</v>
+        <v>58.61783873901255</v>
       </c>
       <c r="F131">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Contaminants_Steelhead_Spawning and Incubation,Flow- Summer Base Flow_Steelhead_Spawning and Incubation</t>
+          <t>Contaminants_Steelhead_Spawning and Incubation,Flow- Summer Base Flow_Steelhead_Spawning and Incubation,Contaminants_Steelhead_Summer Rearing,Flow- Summer Base Flow_Steelhead_Summer Rearing,Temperature- Rearing_Steelhead_Summer Rearing</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness_Steelhead_Spawning and Incubation</t>
+          <t>% Fines/Embeddedness_Steelhead_Spawning and Incubation,Coarse Substrate_Steelhead_Summer Rearing,Cover- Boulders_Steelhead_Summer Rearing,Off-Channel- Floodplain_Steelhead_Summer Rearing,Pool Quantity &amp; Quality_Steelhead_Summer Rearing</t>
         </is>
       </c>
       <c r="I131">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J131">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="K131">
-        <v>228.0627434622426</v>
+        <v>168.6178387390125</v>
       </c>
       <c r="L131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M131">
         <v>0</v>
@@ -7121,16 +7228,16 @@
         <v>0</v>
       </c>
       <c r="O131">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="P131">
-        <v>13</v>
+        <v>90</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Johnson 16-6</t>
+          <t>Loup Loup 16-2</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -7140,57 +7247,57 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Johnson Creek</t>
+          <t>Loup Loup Creek-Lower DS</t>
         </is>
       </c>
       <c r="D132">
-        <v>100</v>
+        <v>81.75055372087164</v>
       </c>
       <c r="E132">
-        <v>100</v>
+        <v>51.35954967170182</v>
       </c>
       <c r="F132">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Contaminants_Steelhead_Spawning and Incubation,Flow- Summer Base Flow_Steelhead_Spawning and Incubation</t>
+          <t>Contaminants_Steelhead_Spawning and Incubation,Flow- Summer Base Flow_Steelhead_Spawning and Incubation,Contaminants_Steelhead_Summer Rearing,Flow- Summer Base Flow_Steelhead_Summer Rearing,Temperature- Rearing_Steelhead_Summer Rearing</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness_Steelhead_Spawning and Incubation</t>
+          <t>% Fines/Embeddedness_Steelhead_Spawning and Incubation,Coarse Substrate_Steelhead_Summer Rearing,Cover- Boulders_Steelhead_Summer Rearing,Off-Channel- Floodplain_Steelhead_Summer Rearing,Pool Quantity &amp; Quality_Steelhead_Summer Rearing</t>
         </is>
       </c>
       <c r="I132">
+        <v>10</v>
+      </c>
+      <c r="J132">
+        <v>0.5</v>
+      </c>
+      <c r="K132">
+        <v>147.1101033925735</v>
+      </c>
+      <c r="L132">
+        <v>1</v>
+      </c>
+      <c r="M132">
+        <v>1</v>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+      <c r="O132">
         <v>3</v>
       </c>
-      <c r="J132">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="K132">
-        <v>240</v>
-      </c>
-      <c r="L132">
-        <v>2</v>
-      </c>
-      <c r="M132">
-        <v>0</v>
-      </c>
-      <c r="N132">
-        <v>0</v>
-      </c>
-      <c r="O132">
-        <v>12</v>
-      </c>
       <c r="P132">
-        <v>2</v>
+        <v>112</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Johnson 16-7</t>
+          <t>Loup Loup 16-3</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -7200,96 +7307,91 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Johnson Creek</t>
+          <t>Loup Loup Creek-Lower DS</t>
         </is>
       </c>
       <c r="D133">
-        <v>96.60193334674028</v>
+        <v>42.15656814548602</v>
       </c>
       <c r="E133">
-        <v>100</v>
+        <v>59.81652986031797</v>
       </c>
       <c r="F133">
-        <v>13.33333333333333</v>
+        <v>18</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Contaminants_Steelhead_Spawning and Incubation,Flow- Summer Base Flow_Steelhead_Spawning and Incubation</t>
+          <t>Contaminants_Steelhead_Spawning and Incubation,Flow- Summer Base Flow_Steelhead_Spawning and Incubation,Contaminants_Steelhead_Summer Rearing,Flow- Summer Base Flow_Steelhead_Summer Rearing,Temperature- Rearing_Steelhead_Summer Rearing</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness_Steelhead_Spawning and Incubation</t>
+          <t>% Fines/Embeddedness_Steelhead_Spawning and Incubation,Coarse Substrate_Steelhead_Summer Rearing,Cover- Boulders_Steelhead_Summer Rearing,Off-Channel- Floodplain_Steelhead_Summer Rearing,Pool Quantity &amp; Quality_Steelhead_Summer Rearing</t>
         </is>
       </c>
       <c r="I133">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J133">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="K133">
-        <v>209.9352666800736</v>
+        <v>119.973098005804</v>
       </c>
       <c r="L133">
+        <v>1</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+      <c r="O133">
         <v>2</v>
       </c>
-      <c r="M133">
-        <v>0</v>
-      </c>
-      <c r="N133">
-        <v>0</v>
-      </c>
-      <c r="O133">
-        <v>10</v>
-      </c>
       <c r="P133">
-        <v>35</v>
+        <v>147</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Johnson 16-8</t>
+          <t>Mad River Lower 01</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Johnson Creek</t>
+          <t>Lower Mad River</t>
         </is>
       </c>
       <c r="D134">
-        <v>100</v>
+        <v>63.6490481401099</v>
       </c>
       <c r="E134">
-        <v>100</v>
+        <v>62.22222222222222</v>
       </c>
       <c r="F134">
-        <v>40</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Contaminants_Steelhead_Spawning and Incubation,Flow- Summer Base Flow_Steelhead_Spawning and Incubation</t>
-        </is>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>% Fines/Embeddedness_Steelhead_Spawning and Incubation</t>
+          <t>Coarse Substrate_Steelhead_Summer Rearing,Contaminants_Steelhead_Summer Rearing,Cover- Boulders_Steelhead_Summer Rearing,Flow- Summer Base Flow_Steelhead_Summer Rearing,Off-Channel- Floodplain_Steelhead_Summer Rearing,Pool Quantity &amp; Quality_Steelhead_Summer Rearing,Temperature- Rearing_Steelhead_Summer Rearing,% Fines/Embeddedness_Steelhead_Winter Rearing,Cover- Boulders_Steelhead_Winter Rearing,Off-Channel- Side-Channels_Steelhead_Winter Rearing</t>
         </is>
       </c>
       <c r="I134">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J134">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K134">
-        <v>240</v>
+        <v>181.8712703623321</v>
       </c>
       <c r="L134">
         <v>1</v>
@@ -7300,56 +7402,43 @@
       <c r="N134">
         <v>0</v>
       </c>
-      <c r="O134">
-        <v>14</v>
-      </c>
       <c r="P134">
-        <v>2</v>
+        <v>77</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Johnson 16-9</t>
+          <t>Methow River Alta Coulee 02</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Johnson Creek</t>
+          <t>Methow River-Alta Coulee</t>
         </is>
       </c>
       <c r="D135">
-        <v>77.88038065355639</v>
+        <v>51.42337559756977</v>
       </c>
       <c r="E135">
-        <v>100</v>
+        <v>57.77777777777777</v>
       </c>
       <c r="F135">
-        <v>40</v>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>Contaminants_Steelhead_Spawning and Incubation,Flow- Summer Base Flow_Steelhead_Spawning and Incubation</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>% Fines/Embeddedness_Steelhead_Spawning and Incubation</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="I135">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J135">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="K135">
-        <v>217.8803806535564</v>
+        <v>109.2011533753475</v>
       </c>
       <c r="L135">
         <v>2</v>
@@ -7360,59 +7449,46 @@
       <c r="N135">
         <v>0</v>
       </c>
-      <c r="O135">
-        <v>11</v>
-      </c>
       <c r="P135">
-        <v>18</v>
+        <v>156</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Loup Loup 16-1</t>
+          <t>Methow River Alta Coulee 03</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Loup Loup Creek-Lower DS</t>
+          <t>Methow River-Alta Coulee</t>
         </is>
       </c>
       <c r="D136">
-        <v>100</v>
+        <v>68.37284735908258</v>
       </c>
       <c r="E136">
-        <v>58.61783873901255</v>
+        <v>66.66666666666667</v>
       </c>
       <c r="F136">
-        <v>10</v>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>Contaminants_Steelhead_Spawning and Incubation,Flow- Summer Base Flow_Steelhead_Spawning and Incubation,Contaminants_Steelhead_Summer Rearing,Flow- Summer Base Flow_Steelhead_Summer Rearing,Temperature- Rearing_Steelhead_Summer Rearing</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>% Fines/Embeddedness_Steelhead_Spawning and Incubation,Coarse Substrate_Steelhead_Summer Rearing,Cover- Boulders_Steelhead_Summer Rearing,Off-Channel- Floodplain_Steelhead_Summer Rearing,Pool Quantity &amp; Quality_Steelhead_Summer Rearing</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="I136">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J136">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K136">
-        <v>168.6178387390125</v>
+        <v>135.0395140257493</v>
       </c>
       <c r="L136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M136">
         <v>0</v>
@@ -7420,119 +7496,93 @@
       <c r="N136">
         <v>0</v>
       </c>
-      <c r="O136">
-        <v>1</v>
-      </c>
       <c r="P136">
-        <v>90</v>
+        <v>125</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Loup Loup 16-2</t>
+          <t>Methow River Alta Coulee 04</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Loup Loup Creek-Lower DS</t>
+          <t>Methow River-Alta Coulee</t>
         </is>
       </c>
       <c r="D137">
-        <v>81.75055372087164</v>
+        <v>68.32249906214474</v>
       </c>
       <c r="E137">
-        <v>51.35954967170182</v>
+        <v>62.22222222222222</v>
       </c>
       <c r="F137">
-        <v>14</v>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>Contaminants_Steelhead_Spawning and Incubation,Flow- Summer Base Flow_Steelhead_Spawning and Incubation,Contaminants_Steelhead_Summer Rearing,Flow- Summer Base Flow_Steelhead_Summer Rearing,Temperature- Rearing_Steelhead_Summer Rearing</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>% Fines/Embeddedness_Steelhead_Spawning and Incubation,Coarse Substrate_Steelhead_Summer Rearing,Cover- Boulders_Steelhead_Summer Rearing,Off-Channel- Floodplain_Steelhead_Summer Rearing,Pool Quantity &amp; Quality_Steelhead_Summer Rearing</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="I137">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J137">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K137">
-        <v>147.1101033925735</v>
+        <v>130.544721284367</v>
       </c>
       <c r="L137">
         <v>1</v>
       </c>
       <c r="M137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N137">
         <v>0</v>
       </c>
-      <c r="O137">
-        <v>3</v>
-      </c>
       <c r="P137">
-        <v>112</v>
+        <v>133</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Loup Loup 16-3</t>
+          <t>Methow River Alta Coulee 05</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Loup Loup Creek-Lower DS</t>
+          <t>Methow River-Alta Coulee</t>
         </is>
       </c>
       <c r="D138">
-        <v>42.15656814548602</v>
+        <v>46.6078443788486</v>
       </c>
       <c r="E138">
-        <v>59.81652986031797</v>
+        <v>57.77777777777777</v>
       </c>
       <c r="F138">
-        <v>18</v>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>Contaminants_Steelhead_Spawning and Incubation,Flow- Summer Base Flow_Steelhead_Spawning and Incubation,Contaminants_Steelhead_Summer Rearing,Flow- Summer Base Flow_Steelhead_Summer Rearing,Temperature- Rearing_Steelhead_Summer Rearing</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>% Fines/Embeddedness_Steelhead_Spawning and Incubation,Coarse Substrate_Steelhead_Summer Rearing,Cover- Boulders_Steelhead_Summer Rearing,Off-Channel- Floodplain_Steelhead_Summer Rearing,Pool Quantity &amp; Quality_Steelhead_Summer Rearing</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="I138">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J138">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K138">
-        <v>119.973098005804</v>
+        <v>104.3856221566264</v>
       </c>
       <c r="L138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M138">
         <v>0</v>
@@ -7540,54 +7590,46 @@
       <c r="N138">
         <v>0</v>
       </c>
-      <c r="O138">
-        <v>2</v>
-      </c>
       <c r="P138">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Mad River Lower 01</t>
+          <t>Methow River McFarland 01</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Lower Mad River</t>
+          <t>Methow River-McFarland Creek</t>
         </is>
       </c>
       <c r="D139">
-        <v>63.6490481401099</v>
+        <v>23.68682320455459</v>
       </c>
       <c r="E139">
-        <v>62.22222222222222</v>
+        <v>57.77777777777777</v>
       </c>
       <c r="F139">
-        <v>56.00000000000001</v>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>Coarse Substrate_Steelhead_Summer Rearing,Contaminants_Steelhead_Summer Rearing,Cover- Boulders_Steelhead_Summer Rearing,Flow- Summer Base Flow_Steelhead_Summer Rearing,Off-Channel- Floodplain_Steelhead_Summer Rearing,Pool Quantity &amp; Quality_Steelhead_Summer Rearing,Temperature- Rearing_Steelhead_Summer Rearing,% Fines/Embeddedness_Steelhead_Winter Rearing,Cover- Boulders_Steelhead_Winter Rearing,Off-Channel- Side-Channels_Steelhead_Winter Rearing</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="I139">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K139">
-        <v>181.8712703623321</v>
+        <v>81.46460098233236</v>
       </c>
       <c r="L139">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M139">
         <v>0</v>
@@ -7596,13 +7638,13 @@
         <v>0</v>
       </c>
       <c r="P139">
-        <v>77</v>
+        <v>165</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Methow River Alta Coulee 02</t>
+          <t>Methow River McFarland 02</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -7612,14 +7654,14 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Methow River-Alta Coulee</t>
+          <t>Methow River-McFarland Creek</t>
         </is>
       </c>
       <c r="D140">
-        <v>51.42337559756977</v>
+        <v>72.29928252527816</v>
       </c>
       <c r="E140">
-        <v>57.77777777777777</v>
+        <v>62.22222222222222</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -7631,10 +7673,10 @@
         <v>0</v>
       </c>
       <c r="K140">
-        <v>109.2011533753475</v>
+        <v>134.5215047475004</v>
       </c>
       <c r="L140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M140">
         <v>0</v>
@@ -7643,13 +7685,13 @@
         <v>0</v>
       </c>
       <c r="P140">
-        <v>156</v>
+        <v>126</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Methow River Alta Coulee 03</t>
+          <t>Methow River McFarland 03</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -7659,14 +7701,14 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Methow River-Alta Coulee</t>
+          <t>Methow River-McFarland Creek</t>
         </is>
       </c>
       <c r="D141">
-        <v>68.37284735908258</v>
+        <v>48.42218067606668</v>
       </c>
       <c r="E141">
-        <v>66.66666666666667</v>
+        <v>57.77777777777777</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -7678,10 +7720,10 @@
         <v>0</v>
       </c>
       <c r="K141">
-        <v>135.0395140257493</v>
+        <v>106.1999584538445</v>
       </c>
       <c r="L141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M141">
         <v>0</v>
@@ -7690,13 +7732,13 @@
         <v>0</v>
       </c>
       <c r="P141">
-        <v>125</v>
+        <v>157</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Methow River Alta Coulee 04</t>
+          <t>Methow River McFarland 04</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -7706,14 +7748,14 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Methow River-Alta Coulee</t>
+          <t>Methow River-McFarland Creek</t>
         </is>
       </c>
       <c r="D142">
-        <v>68.32249906214474</v>
+        <v>34.16262903542418</v>
       </c>
       <c r="E142">
-        <v>62.22222222222222</v>
+        <v>57.77777777777777</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -7725,10 +7767,10 @@
         <v>0</v>
       </c>
       <c r="K142">
-        <v>130.544721284367</v>
+        <v>91.94040681320195</v>
       </c>
       <c r="L142">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M142">
         <v>0</v>
@@ -7737,13 +7779,13 @@
         <v>0</v>
       </c>
       <c r="P142">
-        <v>133</v>
+        <v>163</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Methow River Alta Coulee 05</t>
+          <t>Methow River McFarland 05</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -7753,11 +7795,11 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Methow River-Alta Coulee</t>
+          <t>Methow River-McFarland Creek</t>
         </is>
       </c>
       <c r="D143">
-        <v>46.6078443788486</v>
+        <v>45.51457291640889</v>
       </c>
       <c r="E143">
         <v>57.77777777777777</v>
@@ -7772,10 +7814,10 @@
         <v>0</v>
       </c>
       <c r="K143">
-        <v>104.3856221566264</v>
+        <v>103.2923506941867</v>
       </c>
       <c r="L143">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M143">
         <v>0</v>
@@ -7784,13 +7826,13 @@
         <v>0</v>
       </c>
       <c r="P143">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Methow River McFarland 01</t>
+          <t>Methow River McFarland 06</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -7804,10 +7846,10 @@
         </is>
       </c>
       <c r="D144">
-        <v>23.68682320455459</v>
+        <v>62.11337716074016</v>
       </c>
       <c r="E144">
-        <v>57.77777777777777</v>
+        <v>48.88888888888889</v>
       </c>
       <c r="F144">
         <v>0</v>
@@ -7819,10 +7861,10 @@
         <v>0</v>
       </c>
       <c r="K144">
-        <v>81.46460098233236</v>
+        <v>111.002266049629</v>
       </c>
       <c r="L144">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M144">
         <v>0</v>
@@ -7831,45 +7873,52 @@
         <v>0</v>
       </c>
       <c r="P144">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Methow River McFarland 02</t>
+          <t>Omak 16-1</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Methow River-McFarland Creek</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D145">
-        <v>72.29928252527816</v>
+        <v>94.17482327351821</v>
       </c>
       <c r="E145">
-        <v>62.22222222222222</v>
+        <v>86.85472593467416</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>56.92307692307692</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness_Steelhead_Spawning and Incubation,Contaminants_Steelhead_Spawning and Incubation,Flow- Summer Base Flow_Steelhead_Spawning and Incubation,Coarse Substrate_Steelhead_Summer Rearing,Contaminants_Steelhead_Summer Rearing,Cover- Boulders_Steelhead_Summer Rearing,Flow- Summer Base Flow_Steelhead_Summer Rearing,Pool Quantity &amp; Quality_Steelhead_Summer Rearing,Temperature- Rearing_Steelhead_Summer Rearing,% Fines/Embeddedness_Steelhead_Winter Rearing,Cover- Boulders_Steelhead_Winter Rearing</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Off-Channel- Floodplain_Steelhead_Summer Rearing,Off-Channel- Side-Channels_Steelhead_Winter Rearing</t>
+        </is>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J145">
-        <v>0</v>
+        <v>0.8461538461538462</v>
       </c>
       <c r="K145">
-        <v>134.5215047475004</v>
-      </c>
-      <c r="L145">
-        <v>1</v>
+        <v>237.9526261312693</v>
       </c>
       <c r="M145">
         <v>0</v>
@@ -7878,45 +7927,52 @@
         <v>0</v>
       </c>
       <c r="P145">
-        <v>126</v>
+        <v>6</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Methow River McFarland 03</t>
+          <t>Omak 16-2</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Methow River-McFarland Creek</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D146">
-        <v>48.42218067606668</v>
+        <v>13.43201477698263</v>
       </c>
       <c r="E146">
-        <v>57.77777777777777</v>
+        <v>80.70442515505053</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>23.07692307692308</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Contaminants_Steelhead_Spawning and Incubation,Flow- Summer Base Flow_Steelhead_Spawning and Incubation,Contaminants_Steelhead_Summer Rearing,Flow- Summer Base Flow_Steelhead_Summer Rearing,Temperature- Rearing_Steelhead_Summer Rearing</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness_Steelhead_Spawning and Incubation,Coarse Substrate_Steelhead_Summer Rearing,Cover- Boulders_Steelhead_Summer Rearing,Off-Channel- Floodplain_Steelhead_Summer Rearing,Pool Quantity &amp; Quality_Steelhead_Summer Rearing,% Fines/Embeddedness_Steelhead_Winter Rearing,Cover- Boulders_Steelhead_Winter Rearing,Off-Channel- Side-Channels_Steelhead_Winter Rearing</t>
+        </is>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J146">
-        <v>0</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="K146">
-        <v>106.1999584538445</v>
-      </c>
-      <c r="L146">
-        <v>2</v>
+        <v>117.2133630089562</v>
       </c>
       <c r="M146">
         <v>0</v>
@@ -7925,45 +7981,52 @@
         <v>0</v>
       </c>
       <c r="P146">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Methow River McFarland 04</t>
+          <t>Omak 16-3</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Methow River-McFarland Creek</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D147">
-        <v>34.16262903542418</v>
+        <v>70.84015435609901</v>
       </c>
       <c r="E147">
-        <v>57.77777777777777</v>
+        <v>79.40907453322464</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>23.07692307692308</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Contaminants_Steelhead_Spawning and Incubation,Flow- Summer Base Flow_Steelhead_Spawning and Incubation,Contaminants_Steelhead_Summer Rearing,Flow- Summer Base Flow_Steelhead_Summer Rearing,Temperature- Rearing_Steelhead_Summer Rearing</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness_Steelhead_Spawning and Incubation,Coarse Substrate_Steelhead_Summer Rearing,Cover- Boulders_Steelhead_Summer Rearing,Off-Channel- Floodplain_Steelhead_Summer Rearing,Pool Quantity &amp; Quality_Steelhead_Summer Rearing,% Fines/Embeddedness_Steelhead_Winter Rearing,Cover- Boulders_Steelhead_Winter Rearing,Off-Channel- Side-Channels_Steelhead_Winter Rearing</t>
+        </is>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J147">
-        <v>0</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="K147">
-        <v>91.94040681320195</v>
-      </c>
-      <c r="L147">
-        <v>3</v>
+        <v>173.3261519662467</v>
       </c>
       <c r="M147">
         <v>0</v>
@@ -7972,45 +8035,52 @@
         <v>0</v>
       </c>
       <c r="P147">
-        <v>163</v>
+        <v>84</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Methow River McFarland 05</t>
+          <t>Omak 16-4</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Methow River-McFarland Creek</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D148">
-        <v>45.51457291640889</v>
+        <v>73.37991847600033</v>
       </c>
       <c r="E148">
-        <v>57.77777777777777</v>
+        <v>76.65569924104071</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>23.07692307692308</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Contaminants_Steelhead_Spawning and Incubation,Flow- Summer Base Flow_Steelhead_Spawning and Incubation,Contaminants_Steelhead_Summer Rearing,Flow- Summer Base Flow_Steelhead_Summer Rearing,Temperature- Rearing_Steelhead_Summer Rearing</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness_Steelhead_Spawning and Incubation,Coarse Substrate_Steelhead_Summer Rearing,Cover- Boulders_Steelhead_Summer Rearing,Off-Channel- Floodplain_Steelhead_Summer Rearing,Pool Quantity &amp; Quality_Steelhead_Summer Rearing,% Fines/Embeddedness_Steelhead_Winter Rearing,Cover- Boulders_Steelhead_Winter Rearing,Off-Channel- Side-Channels_Steelhead_Winter Rearing</t>
+        </is>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J148">
-        <v>0</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="K148">
-        <v>103.2923506941867</v>
-      </c>
-      <c r="L148">
-        <v>2</v>
+        <v>173.1125407939641</v>
       </c>
       <c r="M148">
         <v>0</v>
@@ -8019,42 +8089,52 @@
         <v>0</v>
       </c>
       <c r="P148">
-        <v>159</v>
+        <v>85</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Methow River McFarland 06</t>
+          <t>Omak 16-5</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Methow River-McFarland Creek</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D149">
-        <v>62.11337716074016</v>
+        <v>16.37848668882959</v>
       </c>
       <c r="E149">
-        <v>48.88888888888889</v>
+        <v>100</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>23.07692307692308</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Contaminants_Steelhead_Spawning and Incubation,Flow- Summer Base Flow_Steelhead_Spawning and Incubation,Contaminants_Steelhead_Summer Rearing,Flow- Summer Base Flow_Steelhead_Summer Rearing,Temperature- Rearing_Steelhead_Summer Rearing</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>% Fines/Embeddedness_Steelhead_Spawning and Incubation,Coarse Substrate_Steelhead_Summer Rearing,Cover- Boulders_Steelhead_Summer Rearing,Off-Channel- Floodplain_Steelhead_Summer Rearing,Pool Quantity &amp; Quality_Steelhead_Summer Rearing,% Fines/Embeddedness_Steelhead_Winter Rearing,Cover- Boulders_Steelhead_Winter Rearing,Off-Channel- Side-Channels_Steelhead_Winter Rearing</t>
+        </is>
       </c>
       <c r="I149">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J149">
-        <v>0</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="K149">
-        <v>111.002266049629</v>
+        <v>139.4554097657527</v>
       </c>
       <c r="L149">
         <v>1</v>
@@ -8065,14 +8145,17 @@
       <c r="N149">
         <v>0</v>
       </c>
+      <c r="O149">
+        <v>8</v>
+      </c>
       <c r="P149">
-        <v>154</v>
+        <v>119</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Omak 16-1</t>
+          <t>Omak 16-6</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -8086,32 +8169,35 @@
         </is>
       </c>
       <c r="D150">
-        <v>94.17482327351821</v>
+        <v>5.200579157604852</v>
       </c>
       <c r="E150">
-        <v>86.85472593467416</v>
+        <v>100</v>
       </c>
       <c r="F150">
-        <v>56.92307692307692</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness_Steelhead_Spawning and Incubation,Contaminants_Steelhead_Spawning and Incubation,Flow- Summer Base Flow_Steelhead_Spawning and Incubation,Coarse Substrate_Steelhead_Summer Rearing,Contaminants_Steelhead_Summer Rearing,Cover- Boulders_Steelhead_Summer Rearing,Flow- Summer Base Flow_Steelhead_Summer Rearing,Pool Quantity &amp; Quality_Steelhead_Summer Rearing,Temperature- Rearing_Steelhead_Summer Rearing,% Fines/Embeddedness_Steelhead_Winter Rearing,Cover- Boulders_Steelhead_Winter Rearing</t>
+          <t>Contaminants_Steelhead_Spawning and Incubation,Flow- Summer Base Flow_Steelhead_Spawning and Incubation,Contaminants_Steelhead_Summer Rearing,Flow- Summer Base Flow_Steelhead_Summer Rearing,Temperature- Rearing_Steelhead_Summer Rearing</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Off-Channel- Floodplain_Steelhead_Summer Rearing,Off-Channel- Side-Channels_Steelhead_Winter Rearing</t>
+          <t>% Fines/Embeddedness_Steelhead_Spawning and Incubation,Coarse Substrate_Steelhead_Summer Rearing,Cover- Boulders_Steelhead_Summer Rearing,Off-Channel- Floodplain_Steelhead_Summer Rearing,Pool Quantity &amp; Quality_Steelhead_Summer Rearing,% Fines/Embeddedness_Steelhead_Winter Rearing,Cover- Boulders_Steelhead_Winter Rearing,Off-Channel- Side-Channels_Steelhead_Winter Rearing</t>
         </is>
       </c>
       <c r="I150">
         <v>13</v>
       </c>
       <c r="J150">
-        <v>0.8461538461538462</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="K150">
-        <v>237.9526261312693</v>
+        <v>128.2775022345279</v>
+      </c>
+      <c r="L150">
+        <v>3</v>
       </c>
       <c r="M150">
         <v>0</v>
@@ -8119,14 +8205,17 @@
       <c r="N150">
         <v>0</v>
       </c>
+      <c r="O150">
+        <v>2</v>
+      </c>
       <c r="P150">
-        <v>6</v>
+        <v>136</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Omak 16-2</t>
+          <t>Omak 16-7</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -8140,10 +8229,10 @@
         </is>
       </c>
       <c r="D151">
-        <v>13.43201477698263</v>
+        <v>29.18204219003546</v>
       </c>
       <c r="E151">
-        <v>80.70442515505053</v>
+        <v>100</v>
       </c>
       <c r="F151">
         <v>23.07692307692308</v>
@@ -8165,7 +8254,10 @@
         <v>0.3846153846153846</v>
       </c>
       <c r="K151">
-        <v>117.2133630089562</v>
+        <v>152.2589652669585</v>
+      </c>
+      <c r="L151">
+        <v>2</v>
       </c>
       <c r="M151">
         <v>0</v>
@@ -8173,14 +8265,17 @@
       <c r="N151">
         <v>0</v>
       </c>
+      <c r="O151">
+        <v>5</v>
+      </c>
       <c r="P151">
-        <v>150</v>
+        <v>106</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Omak 16-3</t>
+          <t>Omak 16-8</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -8194,10 +8289,10 @@
         </is>
       </c>
       <c r="D152">
-        <v>70.84015435609901</v>
+        <v>57.39958642383489</v>
       </c>
       <c r="E152">
-        <v>79.40907453322464</v>
+        <v>100</v>
       </c>
       <c r="F152">
         <v>23.07692307692308</v>
@@ -8219,7 +8314,10 @@
         <v>0.3846153846153846</v>
       </c>
       <c r="K152">
-        <v>173.3261519662467</v>
+        <v>180.476509500758</v>
+      </c>
+      <c r="L152">
+        <v>1</v>
       </c>
       <c r="M152">
         <v>0</v>
@@ -8227,14 +8325,17 @@
       <c r="N152">
         <v>0</v>
       </c>
+      <c r="O152">
+        <v>6</v>
+      </c>
       <c r="P152">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Omak 16-4</t>
+          <t>Omak 16-9</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -8248,13 +8349,13 @@
         </is>
       </c>
       <c r="D153">
-        <v>73.37991847600033</v>
+        <v>18.59366890069403</v>
       </c>
       <c r="E153">
-        <v>76.65569924104071</v>
+        <v>100</v>
       </c>
       <c r="F153">
-        <v>23.07692307692308</v>
+        <v>26.15384615384616</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -8273,7 +8374,10 @@
         <v>0.3846153846153846</v>
       </c>
       <c r="K153">
-        <v>173.1125407939641</v>
+        <v>144.7475150545402</v>
+      </c>
+      <c r="L153">
+        <v>2</v>
       </c>
       <c r="M153">
         <v>0</v>
@@ -8281,14 +8385,17 @@
       <c r="N153">
         <v>0</v>
       </c>
+      <c r="O153">
+        <v>3</v>
+      </c>
       <c r="P153">
-        <v>85</v>
+        <v>117</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Omak 16-5</t>
+          <t>Salmon 16-1</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -8298,21 +8405,21 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower US</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D154">
-        <v>16.37848668882959</v>
+        <v>49.91330716910571</v>
       </c>
       <c r="E154">
-        <v>100</v>
+        <v>94.18430220496438</v>
       </c>
       <c r="F154">
-        <v>23.07692307692308</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Contaminants_Steelhead_Spawning and Incubation,Flow- Summer Base Flow_Steelhead_Spawning and Incubation,Contaminants_Steelhead_Summer Rearing,Flow- Summer Base Flow_Steelhead_Summer Rearing,Temperature- Rearing_Steelhead_Summer Rearing</t>
+          <t>Predators- Juveniles_Steelhead_Smolt Outmigration,Contaminants_Steelhead_Spawning and Incubation,Flow- Summer Base Flow_Steelhead_Spawning and Incubation,Contaminants_Steelhead_Summer Rearing,Flow- Summer Base Flow_Steelhead_Summer Rearing,Temperature- Rearing_Steelhead_Summer Rearing</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -8321,16 +8428,16 @@
         </is>
       </c>
       <c r="I154">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J154">
-        <v>0.3846153846153846</v>
+        <v>0.4285714285714286</v>
       </c>
       <c r="K154">
-        <v>139.4554097657527</v>
+        <v>172.6690379454986</v>
       </c>
       <c r="L154">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M154">
         <v>0</v>
@@ -8339,16 +8446,16 @@
         <v>0</v>
       </c>
       <c r="O154">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="P154">
-        <v>119</v>
+        <v>87</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Omak 16-6</t>
+          <t>Salmon 16-11</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -8358,21 +8465,21 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower US</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D155">
-        <v>5.200579157604852</v>
+        <v>39.11139432932308</v>
       </c>
       <c r="E155">
-        <v>100</v>
+        <v>12.7697279929931</v>
       </c>
       <c r="F155">
-        <v>23.07692307692308</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Contaminants_Steelhead_Spawning and Incubation,Flow- Summer Base Flow_Steelhead_Spawning and Incubation,Contaminants_Steelhead_Summer Rearing,Flow- Summer Base Flow_Steelhead_Summer Rearing,Temperature- Rearing_Steelhead_Summer Rearing</t>
+          <t>Predators- Juveniles_Steelhead_Smolt Outmigration,Contaminants_Steelhead_Spawning and Incubation,Flow- Summer Base Flow_Steelhead_Spawning and Incubation,Contaminants_Steelhead_Summer Rearing,Flow- Summer Base Flow_Steelhead_Summer Rearing,Temperature- Rearing_Steelhead_Summer Rearing</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -8381,16 +8488,16 @@
         </is>
       </c>
       <c r="I155">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J155">
-        <v>0.3846153846153846</v>
+        <v>0.4285714285714286</v>
       </c>
       <c r="K155">
-        <v>128.2775022345279</v>
+        <v>80.45255089374474</v>
       </c>
       <c r="L155">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M155">
         <v>0</v>
@@ -8399,16 +8506,16 @@
         <v>0</v>
       </c>
       <c r="O155">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P155">
-        <v>136</v>
+        <v>166</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Omak 16-7</t>
+          <t>Salmon 16-13</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -8418,17 +8525,17 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower US</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D156">
-        <v>29.18204219003546</v>
+        <v>50.19589933065281</v>
       </c>
       <c r="E156">
-        <v>100</v>
+        <v>34.57196229431558</v>
       </c>
       <c r="F156">
-        <v>23.07692307692308</v>
+        <v>32.30769230769231</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -8447,10 +8554,10 @@
         <v>0.3846153846153846</v>
       </c>
       <c r="K156">
-        <v>152.2589652669585</v>
+        <v>117.0755539326607</v>
       </c>
       <c r="L156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M156">
         <v>0</v>
@@ -8459,16 +8566,16 @@
         <v>0</v>
       </c>
       <c r="O156">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="P156">
-        <v>106</v>
+        <v>152</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Omak 16-8</t>
+          <t>Salmon 16-3</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -8478,21 +8585,21 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower US</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D157">
-        <v>57.39958642383489</v>
+        <v>42.29866038169604</v>
       </c>
       <c r="E157">
-        <v>100</v>
+        <v>95.40017120304125</v>
       </c>
       <c r="F157">
-        <v>23.07692307692308</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Contaminants_Steelhead_Spawning and Incubation,Flow- Summer Base Flow_Steelhead_Spawning and Incubation,Contaminants_Steelhead_Summer Rearing,Flow- Summer Base Flow_Steelhead_Summer Rearing,Temperature- Rearing_Steelhead_Summer Rearing</t>
+          <t>Predators- Juveniles_Steelhead_Smolt Outmigration,Contaminants_Steelhead_Spawning and Incubation,Flow- Summer Base Flow_Steelhead_Spawning and Incubation,Contaminants_Steelhead_Summer Rearing,Flow- Summer Base Flow_Steelhead_Summer Rearing,Temperature- Rearing_Steelhead_Summer Rearing</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -8501,16 +8608,16 @@
         </is>
       </c>
       <c r="I157">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J157">
-        <v>0.3846153846153846</v>
+        <v>0.4285714285714286</v>
       </c>
       <c r="K157">
-        <v>180.476509500758</v>
+        <v>166.2702601561659</v>
       </c>
       <c r="L157">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M157">
         <v>0</v>
@@ -8519,16 +8626,16 @@
         <v>0</v>
       </c>
       <c r="O157">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P157">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Omak 16-9</t>
+          <t>Salmon 16-4</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -8538,21 +8645,21 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower US</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D158">
-        <v>18.59366890069403</v>
+        <v>61.21972936706004</v>
       </c>
       <c r="E158">
-        <v>100</v>
+        <v>32.11591577283121</v>
       </c>
       <c r="F158">
-        <v>26.15384615384616</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Contaminants_Steelhead_Spawning and Incubation,Flow- Summer Base Flow_Steelhead_Spawning and Incubation,Contaminants_Steelhead_Summer Rearing,Flow- Summer Base Flow_Steelhead_Summer Rearing,Temperature- Rearing_Steelhead_Summer Rearing</t>
+          <t>Predators- Juveniles_Steelhead_Smolt Outmigration,Contaminants_Steelhead_Spawning and Incubation,Flow- Summer Base Flow_Steelhead_Spawning and Incubation,Contaminants_Steelhead_Summer Rearing,Flow- Summer Base Flow_Steelhead_Summer Rearing,Temperature- Rearing_Steelhead_Summer Rearing</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -8561,34 +8668,34 @@
         </is>
       </c>
       <c r="I158">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J158">
-        <v>0.3846153846153846</v>
+        <v>0.4285714285714286</v>
       </c>
       <c r="K158">
-        <v>144.7475150545402</v>
+        <v>121.9070737113198</v>
       </c>
       <c r="L158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N158">
         <v>0</v>
       </c>
       <c r="O158">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="P158">
-        <v>117</v>
+        <v>145</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Salmon 16-1</t>
+          <t>Salmon 16-5</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -8602,10 +8709,10 @@
         </is>
       </c>
       <c r="D159">
-        <v>49.91330716910571</v>
+        <v>38.57403949197322</v>
       </c>
       <c r="E159">
-        <v>94.18430220496438</v>
+        <v>31.8991423793819</v>
       </c>
       <c r="F159">
         <v>28.57142857142857</v>
@@ -8627,10 +8734,10 @@
         <v>0.4285714285714286</v>
       </c>
       <c r="K159">
-        <v>172.6690379454986</v>
+        <v>99.04461044278369</v>
       </c>
       <c r="L159">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M159">
         <v>0</v>
@@ -8639,16 +8746,16 @@
         <v>0</v>
       </c>
       <c r="O159">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P159">
-        <v>87</v>
+        <v>161</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Salmon 16-11</t>
+          <t>Salmon 16-6</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -8662,10 +8769,10 @@
         </is>
       </c>
       <c r="D160">
-        <v>39.11139432932308</v>
+        <v>86.71407722197918</v>
       </c>
       <c r="E160">
-        <v>12.7697279929931</v>
+        <v>21.69835359836432</v>
       </c>
       <c r="F160">
         <v>28.57142857142857</v>
@@ -8687,10 +8794,10 @@
         <v>0.4285714285714286</v>
       </c>
       <c r="K160">
-        <v>80.45255089374474</v>
+        <v>136.9838593917721</v>
       </c>
       <c r="L160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M160">
         <v>0</v>
@@ -8699,16 +8806,16 @@
         <v>0</v>
       </c>
       <c r="O160">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="P160">
-        <v>166</v>
+        <v>121</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Salmon 16-13</t>
+          <t>Salmon 16-7</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -8722,17 +8829,17 @@
         </is>
       </c>
       <c r="D161">
-        <v>50.19589933065281</v>
+        <v>9.40098230509123</v>
       </c>
       <c r="E161">
-        <v>34.57196229431558</v>
+        <v>47.19670622139288</v>
       </c>
       <c r="F161">
-        <v>32.30769230769231</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Contaminants_Steelhead_Spawning and Incubation,Flow- Summer Base Flow_Steelhead_Spawning and Incubation,Contaminants_Steelhead_Summer Rearing,Flow- Summer Base Flow_Steelhead_Summer Rearing,Temperature- Rearing_Steelhead_Summer Rearing</t>
+          <t>Predators- Juveniles_Steelhead_Smolt Outmigration,Contaminants_Steelhead_Spawning and Incubation,Flow- Summer Base Flow_Steelhead_Spawning and Incubation,Contaminants_Steelhead_Summer Rearing,Flow- Summer Base Flow_Steelhead_Summer Rearing,Temperature- Rearing_Steelhead_Summer Rearing</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8741,13 +8848,13 @@
         </is>
       </c>
       <c r="I161">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J161">
-        <v>0.3846153846153846</v>
+        <v>0.4285714285714286</v>
       </c>
       <c r="K161">
-        <v>117.0755539326607</v>
+        <v>85.16911709791268</v>
       </c>
       <c r="L161">
         <v>1</v>
@@ -8759,16 +8866,16 @@
         <v>0</v>
       </c>
       <c r="O161">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P161">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Salmon 16-3</t>
+          <t>Salmon 16-8</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -8782,13 +8889,13 @@
         </is>
       </c>
       <c r="D162">
-        <v>42.29866038169604</v>
+        <v>17.98763439738011</v>
       </c>
       <c r="E162">
-        <v>95.40017120304125</v>
+        <v>30.11749791566473</v>
       </c>
       <c r="F162">
-        <v>28.57142857142857</v>
+        <v>31.42857142857143</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8807,10 +8914,10 @@
         <v>0.4285714285714286</v>
       </c>
       <c r="K162">
-        <v>166.2702601561659</v>
+        <v>79.53370374161626</v>
       </c>
       <c r="L162">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M162">
         <v>0</v>
@@ -8819,16 +8926,16 @@
         <v>0</v>
       </c>
       <c r="O162">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P162">
-        <v>93</v>
+        <v>167</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Salmon 16-4</t>
+          <t>Salmon 16-9</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -8842,10 +8949,10 @@
         </is>
       </c>
       <c r="D163">
-        <v>61.21972936706004</v>
+        <v>68.77662469825343</v>
       </c>
       <c r="E163">
-        <v>32.11591577283121</v>
+        <v>21.07082064919569</v>
       </c>
       <c r="F163">
         <v>28.57142857142857</v>
@@ -8867,10 +8974,10 @@
         <v>0.4285714285714286</v>
       </c>
       <c r="K163">
-        <v>121.9070737113198</v>
+        <v>118.4188739188777</v>
       </c>
       <c r="L163">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M163">
         <v>0</v>
@@ -8879,16 +8986,16 @@
         <v>0</v>
       </c>
       <c r="O163">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="P163">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Salmon 16-5</t>
+          <t>Similkameen 16-1</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -8898,57 +9005,57 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Similkameen River</t>
         </is>
       </c>
       <c r="D164">
-        <v>38.57403949197322</v>
+        <v>89.54765767840669</v>
       </c>
       <c r="E164">
-        <v>31.8991423793819</v>
+        <v>71.00621701555278</v>
       </c>
       <c r="F164">
-        <v>28.57142857142857</v>
+        <v>25.71428571428571</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Predators- Juveniles_Steelhead_Smolt Outmigration,Contaminants_Steelhead_Spawning and Incubation,Flow- Summer Base Flow_Steelhead_Spawning and Incubation,Contaminants_Steelhead_Summer Rearing,Flow- Summer Base Flow_Steelhead_Summer Rearing,Temperature- Rearing_Steelhead_Summer Rearing</t>
+          <t>Contaminants_Steelhead_Summer Rearing,Flow- Summer Base Flow_Steelhead_Summer Rearing,Temperature- Rearing_Steelhead_Summer Rearing</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness_Steelhead_Spawning and Incubation,Coarse Substrate_Steelhead_Summer Rearing,Cover- Boulders_Steelhead_Summer Rearing,Off-Channel- Floodplain_Steelhead_Summer Rearing,Pool Quantity &amp; Quality_Steelhead_Summer Rearing,% Fines/Embeddedness_Steelhead_Winter Rearing,Cover- Boulders_Steelhead_Winter Rearing,Off-Channel- Side-Channels_Steelhead_Winter Rearing</t>
+          <t>Coarse Substrate_Steelhead_Summer Rearing,Cover- Boulders_Steelhead_Summer Rearing,Off-Channel- Floodplain_Steelhead_Summer Rearing,Pool Quantity &amp; Quality_Steelhead_Summer Rearing</t>
         </is>
       </c>
       <c r="I164">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J164">
         <v>0.4285714285714286</v>
       </c>
       <c r="K164">
-        <v>99.04461044278369</v>
+        <v>186.2681604082452</v>
       </c>
       <c r="L164">
+        <v>3</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <v>0</v>
+      </c>
+      <c r="O164">
         <v>2</v>
       </c>
-      <c r="M164">
-        <v>0</v>
-      </c>
-      <c r="N164">
-        <v>0</v>
-      </c>
-      <c r="O164">
-        <v>10</v>
-      </c>
       <c r="P164">
-        <v>161</v>
+        <v>71</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Salmon 16-6</t>
+          <t>Similkameen 16-2</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -8958,39 +9065,39 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Similkameen River</t>
         </is>
       </c>
       <c r="D165">
-        <v>86.71407722197918</v>
+        <v>100</v>
       </c>
       <c r="E165">
-        <v>21.69835359836432</v>
+        <v>60.77732822839733</v>
       </c>
       <c r="F165">
-        <v>28.57142857142857</v>
+        <v>14.28571428571429</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Predators- Juveniles_Steelhead_Smolt Outmigration,Contaminants_Steelhead_Spawning and Incubation,Flow- Summer Base Flow_Steelhead_Spawning and Incubation,Contaminants_Steelhead_Summer Rearing,Flow- Summer Base Flow_Steelhead_Summer Rearing,Temperature- Rearing_Steelhead_Summer Rearing</t>
+          <t>Contaminants_Steelhead_Summer Rearing,Flow- Summer Base Flow_Steelhead_Summer Rearing,Temperature- Rearing_Steelhead_Summer Rearing</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness_Steelhead_Spawning and Incubation,Coarse Substrate_Steelhead_Summer Rearing,Cover- Boulders_Steelhead_Summer Rearing,Off-Channel- Floodplain_Steelhead_Summer Rearing,Pool Quantity &amp; Quality_Steelhead_Summer Rearing,% Fines/Embeddedness_Steelhead_Winter Rearing,Cover- Boulders_Steelhead_Winter Rearing,Off-Channel- Side-Channels_Steelhead_Winter Rearing</t>
+          <t>Coarse Substrate_Steelhead_Summer Rearing,Cover- Boulders_Steelhead_Summer Rearing,Off-Channel- Floodplain_Steelhead_Summer Rearing,Pool Quantity &amp; Quality_Steelhead_Summer Rearing</t>
         </is>
       </c>
       <c r="I165">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J165">
         <v>0.4285714285714286</v>
       </c>
       <c r="K165">
-        <v>136.9838593917721</v>
+        <v>175.0630425141116</v>
       </c>
       <c r="L165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M165">
         <v>0</v>
@@ -8999,16 +9106,16 @@
         <v>0</v>
       </c>
       <c r="O165">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="P165">
-        <v>121</v>
+        <v>83</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Salmon 16-7</t>
+          <t>Similkameen 16-3</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -9018,39 +9125,39 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Similkameen River</t>
         </is>
       </c>
       <c r="D166">
-        <v>9.40098230509123</v>
+        <v>93.12987408131754</v>
       </c>
       <c r="E166">
-        <v>47.19670622139288</v>
+        <v>48.7708799290832</v>
       </c>
       <c r="F166">
-        <v>28.57142857142857</v>
+        <v>25.71428571428571</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Predators- Juveniles_Steelhead_Smolt Outmigration,Contaminants_Steelhead_Spawning and Incubation,Flow- Summer Base Flow_Steelhead_Spawning and Incubation,Contaminants_Steelhead_Summer Rearing,Flow- Summer Base Flow_Steelhead_Summer Rearing,Temperature- Rearing_Steelhead_Summer Rearing</t>
+          <t>Contaminants_Steelhead_Summer Rearing,Flow- Summer Base Flow_Steelhead_Summer Rearing,Temperature- Rearing_Steelhead_Summer Rearing</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness_Steelhead_Spawning and Incubation,Coarse Substrate_Steelhead_Summer Rearing,Cover- Boulders_Steelhead_Summer Rearing,Off-Channel- Floodplain_Steelhead_Summer Rearing,Pool Quantity &amp; Quality_Steelhead_Summer Rearing,% Fines/Embeddedness_Steelhead_Winter Rearing,Cover- Boulders_Steelhead_Winter Rearing,Off-Channel- Side-Channels_Steelhead_Winter Rearing</t>
+          <t>Coarse Substrate_Steelhead_Summer Rearing,Cover- Boulders_Steelhead_Summer Rearing,Off-Channel- Floodplain_Steelhead_Summer Rearing,Pool Quantity &amp; Quality_Steelhead_Summer Rearing</t>
         </is>
       </c>
       <c r="I166">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J166">
         <v>0.4285714285714286</v>
       </c>
       <c r="K166">
-        <v>85.16911709791268</v>
+        <v>167.6150397246865</v>
       </c>
       <c r="L166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M166">
         <v>0</v>
@@ -9059,16 +9166,16 @@
         <v>0</v>
       </c>
       <c r="O166">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="P166">
-        <v>164</v>
+        <v>92</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Salmon 16-8</t>
+          <t>Similkameen 16-4</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -9078,39 +9185,39 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Similkameen River</t>
         </is>
       </c>
       <c r="D167">
-        <v>17.98763439738011</v>
+        <v>100</v>
       </c>
       <c r="E167">
-        <v>30.11749791566473</v>
+        <v>49.66488537430342</v>
       </c>
       <c r="F167">
-        <v>31.42857142857143</v>
+        <v>20</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Predators- Juveniles_Steelhead_Smolt Outmigration,Contaminants_Steelhead_Spawning and Incubation,Flow- Summer Base Flow_Steelhead_Spawning and Incubation,Contaminants_Steelhead_Summer Rearing,Flow- Summer Base Flow_Steelhead_Summer Rearing,Temperature- Rearing_Steelhead_Summer Rearing</t>
+          <t>Contaminants_Steelhead_Summer Rearing,Flow- Summer Base Flow_Steelhead_Summer Rearing,Temperature- Rearing_Steelhead_Summer Rearing</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness_Steelhead_Spawning and Incubation,Coarse Substrate_Steelhead_Summer Rearing,Cover- Boulders_Steelhead_Summer Rearing,Off-Channel- Floodplain_Steelhead_Summer Rearing,Pool Quantity &amp; Quality_Steelhead_Summer Rearing,% Fines/Embeddedness_Steelhead_Winter Rearing,Cover- Boulders_Steelhead_Winter Rearing,Off-Channel- Side-Channels_Steelhead_Winter Rearing</t>
+          <t>Coarse Substrate_Steelhead_Summer Rearing,Cover- Boulders_Steelhead_Summer Rearing,Off-Channel- Floodplain_Steelhead_Summer Rearing,Pool Quantity &amp; Quality_Steelhead_Summer Rearing</t>
         </is>
       </c>
       <c r="I167">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J167">
         <v>0.4285714285714286</v>
       </c>
       <c r="K167">
-        <v>79.53370374161626</v>
+        <v>169.6648853743034</v>
       </c>
       <c r="L167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M167">
         <v>0</v>
@@ -9119,16 +9226,16 @@
         <v>0</v>
       </c>
       <c r="O167">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P167">
-        <v>167</v>
+        <v>89</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Salmon 16-9</t>
+          <t>Similkameen 16-5</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -9138,39 +9245,39 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Similkameen River</t>
         </is>
       </c>
       <c r="D168">
-        <v>68.77662469825343</v>
+        <v>35.02680379350559</v>
       </c>
       <c r="E168">
-        <v>21.07082064919569</v>
+        <v>37.07259441958828</v>
       </c>
       <c r="F168">
-        <v>28.57142857142857</v>
+        <v>20</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Predators- Juveniles_Steelhead_Smolt Outmigration,Contaminants_Steelhead_Spawning and Incubation,Flow- Summer Base Flow_Steelhead_Spawning and Incubation,Contaminants_Steelhead_Summer Rearing,Flow- Summer Base Flow_Steelhead_Summer Rearing,Temperature- Rearing_Steelhead_Summer Rearing</t>
+          <t>Contaminants_Steelhead_Summer Rearing,Flow- Summer Base Flow_Steelhead_Summer Rearing,Temperature- Rearing_Steelhead_Summer Rearing</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>% Fines/Embeddedness_Steelhead_Spawning and Incubation,Coarse Substrate_Steelhead_Summer Rearing,Cover- Boulders_Steelhead_Summer Rearing,Off-Channel- Floodplain_Steelhead_Summer Rearing,Pool Quantity &amp; Quality_Steelhead_Summer Rearing,% Fines/Embeddedness_Steelhead_Winter Rearing,Cover- Boulders_Steelhead_Winter Rearing,Off-Channel- Side-Channels_Steelhead_Winter Rearing</t>
+          <t>Coarse Substrate_Steelhead_Summer Rearing,Cover- Boulders_Steelhead_Summer Rearing,Off-Channel- Floodplain_Steelhead_Summer Rearing,Pool Quantity &amp; Quality_Steelhead_Summer Rearing</t>
         </is>
       </c>
       <c r="I168">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J168">
         <v>0.4285714285714286</v>
       </c>
       <c r="K168">
-        <v>118.4188739188777</v>
+        <v>92.09939821309386</v>
       </c>
       <c r="L168">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M168">
         <v>0</v>
@@ -9182,55 +9289,50 @@
         <v>5</v>
       </c>
       <c r="P168">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Similkameen 16-1</t>
+          <t>Wenatchee River Derby 01</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Similkameen River</t>
+          <t>Wenatchee River-Derby Canyon</t>
         </is>
       </c>
       <c r="D169">
-        <v>89.54765767840669</v>
+        <v>95.20124891901783</v>
       </c>
       <c r="E169">
-        <v>71.00621701555278</v>
+        <v>51.11111111111111</v>
       </c>
       <c r="F169">
-        <v>25.71428571428571</v>
+        <v>84</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Contaminants_Steelhead_Summer Rearing,Flow- Summer Base Flow_Steelhead_Summer Rearing,Temperature- Rearing_Steelhead_Summer Rearing</t>
-        </is>
-      </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>Coarse Substrate_Steelhead_Summer Rearing,Cover- Boulders_Steelhead_Summer Rearing,Off-Channel- Floodplain_Steelhead_Summer Rearing,Pool Quantity &amp; Quality_Steelhead_Summer Rearing</t>
+          <t>Coarse Substrate_Spring Chinook_Winter Rearing,Cover- Boulders_Spring Chinook_Winter Rearing,% Fines/Embeddedness_Steelhead_Winter Rearing,Cover- Boulders_Steelhead_Winter Rearing,Off-Channel- Side-Channels_Steelhead_Winter Rearing</t>
         </is>
       </c>
       <c r="I169">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J169">
-        <v>0.4285714285714286</v>
+        <v>1</v>
       </c>
       <c r="K169">
-        <v>186.2681604082452</v>
+        <v>230.3123600301289</v>
       </c>
       <c r="L169">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M169">
         <v>0</v>
@@ -9238,59 +9340,51 @@
       <c r="N169">
         <v>0</v>
       </c>
-      <c r="O169">
-        <v>2</v>
-      </c>
       <c r="P169">
-        <v>71</v>
+        <v>11</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Similkameen 16-2</t>
+          <t>Wenatchee River Derby 02</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Similkameen River</t>
+          <t>Wenatchee River-Derby Canyon</t>
         </is>
       </c>
       <c r="D170">
         <v>100</v>
       </c>
       <c r="E170">
-        <v>60.77732822839733</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="F170">
-        <v>14.28571428571429</v>
+        <v>84</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Contaminants_Steelhead_Summer Rearing,Flow- Summer Base Flow_Steelhead_Summer Rearing,Temperature- Rearing_Steelhead_Summer Rearing</t>
-        </is>
-      </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>Coarse Substrate_Steelhead_Summer Rearing,Cover- Boulders_Steelhead_Summer Rearing,Off-Channel- Floodplain_Steelhead_Summer Rearing,Pool Quantity &amp; Quality_Steelhead_Summer Rearing</t>
+          <t>Coarse Substrate_Spring Chinook_Winter Rearing,Cover- Boulders_Spring Chinook_Winter Rearing,% Fines/Embeddedness_Steelhead_Winter Rearing,Cover- Boulders_Steelhead_Winter Rearing,Off-Channel- Side-Channels_Steelhead_Winter Rearing</t>
         </is>
       </c>
       <c r="I170">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J170">
-        <v>0.4285714285714286</v>
+        <v>1</v>
       </c>
       <c r="K170">
-        <v>175.0630425141116</v>
+        <v>230.6666666666667</v>
       </c>
       <c r="L170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M170">
         <v>0</v>
@@ -9298,59 +9392,51 @@
       <c r="N170">
         <v>0</v>
       </c>
-      <c r="O170">
-        <v>4</v>
-      </c>
       <c r="P170">
-        <v>83</v>
+        <v>9</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Similkameen 16-3</t>
+          <t>Wenatchee River Derby 03</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Similkameen River</t>
+          <t>Wenatchee River-Derby Canyon</t>
         </is>
       </c>
       <c r="D171">
-        <v>93.12987408131754</v>
+        <v>95.37960262639852</v>
       </c>
       <c r="E171">
-        <v>48.7708799290832</v>
+        <v>51.11111111111111</v>
       </c>
       <c r="F171">
-        <v>25.71428571428571</v>
+        <v>84</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Contaminants_Steelhead_Summer Rearing,Flow- Summer Base Flow_Steelhead_Summer Rearing,Temperature- Rearing_Steelhead_Summer Rearing</t>
-        </is>
-      </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>Coarse Substrate_Steelhead_Summer Rearing,Cover- Boulders_Steelhead_Summer Rearing,Off-Channel- Floodplain_Steelhead_Summer Rearing,Pool Quantity &amp; Quality_Steelhead_Summer Rearing</t>
+          <t>Coarse Substrate_Spring Chinook_Winter Rearing,Cover- Boulders_Spring Chinook_Winter Rearing,% Fines/Embeddedness_Steelhead_Winter Rearing,Cover- Boulders_Steelhead_Winter Rearing,Off-Channel- Side-Channels_Steelhead_Winter Rearing</t>
         </is>
       </c>
       <c r="I171">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J171">
-        <v>0.4285714285714286</v>
+        <v>1</v>
       </c>
       <c r="K171">
-        <v>167.6150397246865</v>
+        <v>230.4907137375096</v>
       </c>
       <c r="L171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M171">
         <v>0</v>
@@ -9358,59 +9444,51 @@
       <c r="N171">
         <v>0</v>
       </c>
-      <c r="O171">
-        <v>3</v>
-      </c>
       <c r="P171">
-        <v>92</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Similkameen 16-4</t>
+          <t>Wenatchee River Derby 04</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Similkameen River</t>
+          <t>Wenatchee River-Derby Canyon</t>
         </is>
       </c>
       <c r="D172">
-        <v>100</v>
+        <v>94.1326291369481</v>
       </c>
       <c r="E172">
-        <v>49.66488537430342</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="F172">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>Contaminants_Steelhead_Summer Rearing,Flow- Summer Base Flow_Steelhead_Summer Rearing,Temperature- Rearing_Steelhead_Summer Rearing</t>
-        </is>
-      </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>Coarse Substrate_Steelhead_Summer Rearing,Cover- Boulders_Steelhead_Summer Rearing,Off-Channel- Floodplain_Steelhead_Summer Rearing,Pool Quantity &amp; Quality_Steelhead_Summer Rearing</t>
+          <t>Coarse Substrate_Spring Chinook_Winter Rearing,Cover- Boulders_Spring Chinook_Winter Rearing,% Fines/Embeddedness_Steelhead_Winter Rearing,Cover- Boulders_Steelhead_Winter Rearing,Off-Channel- Side-Channels_Steelhead_Winter Rearing</t>
         </is>
       </c>
       <c r="I172">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J172">
-        <v>0.4285714285714286</v>
+        <v>1</v>
       </c>
       <c r="K172">
-        <v>169.6648853743034</v>
+        <v>222.5770735813925</v>
       </c>
       <c r="L172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M172">
         <v>0</v>
@@ -9418,59 +9496,51 @@
       <c r="N172">
         <v>0</v>
       </c>
-      <c r="O172">
-        <v>6</v>
-      </c>
       <c r="P172">
-        <v>89</v>
+        <v>15</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Similkameen 16-5</t>
+          <t>Wenatchee River Derby 05</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Similkameen River</t>
+          <t>Wenatchee River-Derby Canyon</t>
         </is>
       </c>
       <c r="D173">
-        <v>35.02680379350559</v>
+        <v>21.74096556851031</v>
       </c>
       <c r="E173">
-        <v>37.07259441958828</v>
+        <v>40</v>
       </c>
       <c r="F173">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Contaminants_Steelhead_Summer Rearing,Flow- Summer Base Flow_Steelhead_Summer Rearing,Temperature- Rearing_Steelhead_Summer Rearing</t>
-        </is>
-      </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>Coarse Substrate_Steelhead_Summer Rearing,Cover- Boulders_Steelhead_Summer Rearing,Off-Channel- Floodplain_Steelhead_Summer Rearing,Pool Quantity &amp; Quality_Steelhead_Summer Rearing</t>
+          <t>Coarse Substrate_Spring Chinook_Winter Rearing,Cover- Boulders_Spring Chinook_Winter Rearing,% Fines/Embeddedness_Steelhead_Winter Rearing,Cover- Boulders_Steelhead_Winter Rearing,Off-Channel- Side-Channels_Steelhead_Winter Rearing</t>
         </is>
       </c>
       <c r="I173">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J173">
-        <v>0.4285714285714286</v>
+        <v>1</v>
       </c>
       <c r="K173">
-        <v>92.09939821309386</v>
+        <v>145.7409655685103</v>
       </c>
       <c r="L173">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M173">
         <v>0</v>
@@ -9478,17 +9548,14 @@
       <c r="N173">
         <v>0</v>
       </c>
-      <c r="O173">
-        <v>5</v>
-      </c>
       <c r="P173">
-        <v>162</v>
+        <v>116</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 01</t>
+          <t>Wenatchee River Derby 06</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -9498,17 +9565,17 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Wenatchee River-Derby Canyon</t>
+          <t>Wenatchee River-Tumwater Canyon</t>
         </is>
       </c>
       <c r="D174">
-        <v>95.20124891901783</v>
+        <v>100</v>
       </c>
       <c r="E174">
-        <v>51.11111111111111</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="F174">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -9522,10 +9589,10 @@
         <v>1</v>
       </c>
       <c r="K174">
-        <v>230.3123600301289</v>
+        <v>236.4444444444445</v>
       </c>
       <c r="L174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M174">
         <v>0</v>
@@ -9534,13 +9601,13 @@
         <v>0</v>
       </c>
       <c r="P174">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 02</t>
+          <t>Wenatchee River Nahahum 07</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -9550,14 +9617,14 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Wenatchee River-Derby Canyon</t>
+          <t>Wenatchee River-Ollala Canyon</t>
         </is>
       </c>
       <c r="D175">
-        <v>100</v>
+        <v>99.57086091932047</v>
       </c>
       <c r="E175">
-        <v>46.66666666666666</v>
+        <v>57.77777777777777</v>
       </c>
       <c r="F175">
         <v>84</v>
@@ -9574,7 +9641,7 @@
         <v>1</v>
       </c>
       <c r="K175">
-        <v>230.6666666666667</v>
+        <v>241.3486386970982</v>
       </c>
       <c r="L175">
         <v>1</v>
@@ -9586,13 +9653,13 @@
         <v>0</v>
       </c>
       <c r="P175">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 03</t>
+          <t>Wenatchee River Ollala 01</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -9602,14 +9669,14 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Wenatchee River-Derby Canyon</t>
+          <t>Wenatchee River-Ollala Canyon</t>
         </is>
       </c>
       <c r="D176">
-        <v>95.37960262639852</v>
+        <v>90.26590852326144</v>
       </c>
       <c r="E176">
-        <v>51.11111111111111</v>
+        <v>57.77777777777777</v>
       </c>
       <c r="F176">
         <v>84</v>
@@ -9626,10 +9693,10 @@
         <v>1</v>
       </c>
       <c r="K176">
-        <v>230.4907137375096</v>
+        <v>232.0436863010392</v>
       </c>
       <c r="L176">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M176">
         <v>0</v>
@@ -9638,13 +9705,13 @@
         <v>0</v>
       </c>
       <c r="P176">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 04</t>
+          <t>Wenatchee River Ollala 02</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -9654,14 +9721,14 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Wenatchee River-Derby Canyon</t>
+          <t>Wenatchee River-Ollala Canyon</t>
         </is>
       </c>
       <c r="D177">
-        <v>94.1326291369481</v>
+        <v>100</v>
       </c>
       <c r="E177">
-        <v>44.44444444444444</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="F177">
         <v>84</v>
@@ -9678,10 +9745,10 @@
         <v>1</v>
       </c>
       <c r="K177">
-        <v>222.5770735813925</v>
+        <v>239.5555555555555</v>
       </c>
       <c r="L177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M177">
         <v>0</v>
@@ -9690,13 +9757,13 @@
         <v>0</v>
       </c>
       <c r="P177">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 05</t>
+          <t>Wenatchee River Ollala 03</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -9706,14 +9773,14 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Wenatchee River-Derby Canyon</t>
+          <t>Wenatchee River-Ollala Canyon</t>
         </is>
       </c>
       <c r="D178">
-        <v>21.74096556851031</v>
+        <v>94.78947209060871</v>
       </c>
       <c r="E178">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F178">
         <v>84</v>
@@ -9730,10 +9797,10 @@
         <v>1</v>
       </c>
       <c r="K178">
-        <v>145.7409655685103</v>
+        <v>238.7894720906087</v>
       </c>
       <c r="L178">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M178">
         <v>0</v>
@@ -9742,13 +9809,13 @@
         <v>0</v>
       </c>
       <c r="P178">
-        <v>116</v>
+        <v>5</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 06</t>
+          <t>Wenatchee River Tumwater 01</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -9762,30 +9829,25 @@
         </is>
       </c>
       <c r="D179">
-        <v>100</v>
+        <v>98.76523600127072</v>
       </c>
       <c r="E179">
-        <v>44.44444444444444</v>
+        <v>51.11111111111111</v>
       </c>
       <c r="F179">
-        <v>92</v>
-      </c>
-      <c r="G179" t="inlineStr">
-        <is>
-          <t>Coarse Substrate_Spring Chinook_Winter Rearing,Cover- Boulders_Spring Chinook_Winter Rearing,% Fines/Embeddedness_Steelhead_Winter Rearing,Cover- Boulders_Steelhead_Winter Rearing,Off-Channel- Side-Channels_Steelhead_Winter Rearing</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="I179">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K179">
-        <v>236.4444444444445</v>
+        <v>149.8763471123818</v>
       </c>
       <c r="L179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M179">
         <v>0</v>
@@ -9794,13 +9856,13 @@
         <v>0</v>
       </c>
       <c r="P179">
-        <v>7</v>
+        <v>109</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Wenatchee River Nahahum 07</t>
+          <t>Wenatchee River Tumwater 02</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -9810,34 +9872,29 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Wenatchee River-Ollala Canyon</t>
+          <t>Wenatchee River-Tumwater Canyon</t>
         </is>
       </c>
       <c r="D180">
-        <v>99.57086091932047</v>
+        <v>18.77286529899376</v>
       </c>
       <c r="E180">
-        <v>57.77777777777777</v>
+        <v>48.88888888888889</v>
       </c>
       <c r="F180">
-        <v>84</v>
-      </c>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t>Coarse Substrate_Spring Chinook_Winter Rearing,Cover- Boulders_Spring Chinook_Winter Rearing,% Fines/Embeddedness_Steelhead_Winter Rearing,Cover- Boulders_Steelhead_Winter Rearing,Off-Channel- Side-Channels_Steelhead_Winter Rearing</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="I180">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K180">
-        <v>241.3486386970982</v>
+        <v>67.66175418788265</v>
       </c>
       <c r="L180">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M180">
         <v>0</v>
@@ -9846,65 +9903,42 @@
         <v>0</v>
       </c>
       <c r="P180">
-        <v>1</v>
+        <v>170</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Wenatchee River Ollala 01</t>
+          <t>Mad River Lower 02</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Wenatchee River-Ollala Canyon</t>
-        </is>
-      </c>
-      <c r="D181">
-        <v>90.26590852326144</v>
-      </c>
-      <c r="E181">
-        <v>57.77777777777777</v>
-      </c>
-      <c r="F181">
-        <v>84</v>
-      </c>
-      <c r="G181" t="inlineStr">
-        <is>
-          <t>Coarse Substrate_Spring Chinook_Winter Rearing,Cover- Boulders_Spring Chinook_Winter Rearing,% Fines/Embeddedness_Steelhead_Winter Rearing,Cover- Boulders_Steelhead_Winter Rearing,Off-Channel- Side-Channels_Steelhead_Winter Rearing</t>
-        </is>
-      </c>
-      <c r="I181">
-        <v>5</v>
-      </c>
-      <c r="J181">
-        <v>1</v>
-      </c>
-      <c r="K181">
-        <v>232.0436863010392</v>
+          <t>Lower Mad River</t>
+        </is>
       </c>
       <c r="L181">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N181">
         <v>0</v>
       </c>
       <c r="P181">
-        <v>8</v>
+        <v>180</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Wenatchee River Ollala 02</t>
+          <t>Icicle Creek Lower 04</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -9914,49 +9948,26 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Wenatchee River-Ollala Canyon</t>
-        </is>
-      </c>
-      <c r="D182">
-        <v>100</v>
-      </c>
-      <c r="E182">
-        <v>55.55555555555556</v>
-      </c>
-      <c r="F182">
-        <v>84</v>
-      </c>
-      <c r="G182" t="inlineStr">
-        <is>
-          <t>Coarse Substrate_Spring Chinook_Winter Rearing,Cover- Boulders_Spring Chinook_Winter Rearing,% Fines/Embeddedness_Steelhead_Winter Rearing,Cover- Boulders_Steelhead_Winter Rearing,Off-Channel- Side-Channels_Steelhead_Winter Rearing</t>
-        </is>
-      </c>
-      <c r="I182">
-        <v>5</v>
-      </c>
-      <c r="J182">
-        <v>1</v>
-      </c>
-      <c r="K182">
-        <v>239.5555555555555</v>
+          <t>Lower Icicle Creek</t>
+        </is>
       </c>
       <c r="L182">
         <v>1</v>
       </c>
       <c r="M182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N182">
         <v>0</v>
       </c>
       <c r="P182">
-        <v>4</v>
+        <v>181</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Wenatchee River Ollala 03</t>
+          <t>Mission Creek 01</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -9966,49 +9977,26 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Wenatchee River-Ollala Canyon</t>
-        </is>
-      </c>
-      <c r="D183">
-        <v>94.78947209060871</v>
-      </c>
-      <c r="E183">
-        <v>60</v>
-      </c>
-      <c r="F183">
-        <v>84</v>
-      </c>
-      <c r="G183" t="inlineStr">
-        <is>
-          <t>Coarse Substrate_Spring Chinook_Winter Rearing,Cover- Boulders_Spring Chinook_Winter Rearing,% Fines/Embeddedness_Steelhead_Winter Rearing,Cover- Boulders_Steelhead_Winter Rearing,Off-Channel- Side-Channels_Steelhead_Winter Rearing</t>
-        </is>
-      </c>
-      <c r="I183">
-        <v>5</v>
-      </c>
-      <c r="J183">
-        <v>1</v>
-      </c>
-      <c r="K183">
-        <v>238.7894720906087</v>
+          <t>Mission Creek-Brender Creek</t>
+        </is>
       </c>
       <c r="L183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N183">
         <v>0</v>
       </c>
       <c r="P183">
-        <v>5</v>
+        <v>182</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Wenatchee River Tumwater 01</t>
+          <t>Mission Creek 02</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -10018,204 +10006,52 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
-        </is>
-      </c>
-      <c r="D184">
-        <v>98.76523600127072</v>
-      </c>
-      <c r="E184">
-        <v>51.11111111111111</v>
-      </c>
-      <c r="F184">
-        <v>0</v>
-      </c>
-      <c r="I184">
-        <v>0</v>
-      </c>
-      <c r="J184">
-        <v>0</v>
-      </c>
-      <c r="K184">
-        <v>149.8763471123818</v>
+          <t>Mission Creek-Brender Creek</t>
+        </is>
       </c>
       <c r="L184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N184">
         <v>0</v>
       </c>
       <c r="P184">
-        <v>109</v>
+        <v>183</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Wenatchee River Tumwater 02</t>
+          <t>Aeneas 16-1</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
-        </is>
-      </c>
-      <c r="D185">
-        <v>18.77286529899376</v>
-      </c>
-      <c r="E185">
-        <v>48.88888888888889</v>
-      </c>
-      <c r="F185">
-        <v>0</v>
-      </c>
-      <c r="I185">
-        <v>0</v>
-      </c>
-      <c r="J185">
-        <v>0</v>
-      </c>
-      <c r="K185">
-        <v>67.66175418788265</v>
+          <t>Aeneas Creek-DS</t>
+        </is>
       </c>
       <c r="L185">
+        <v>1</v>
+      </c>
+      <c r="M185">
+        <v>1</v>
+      </c>
+      <c r="N185">
+        <v>0</v>
+      </c>
+      <c r="O185">
         <v>3</v>
       </c>
-      <c r="M185">
-        <v>0</v>
-      </c>
-      <c r="N185">
-        <v>0</v>
-      </c>
       <c r="P185">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>Mad River Lower 02</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>Entiat</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>Lower Mad River</t>
-        </is>
-      </c>
-      <c r="L186">
-        <v>1</v>
-      </c>
-      <c r="M186">
-        <v>1</v>
-      </c>
-      <c r="N186">
-        <v>0</v>
-      </c>
-      <c r="P186">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>Mission Creek 01</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>Mission Creek-Brender Creek</t>
-        </is>
-      </c>
-      <c r="L187">
-        <v>1</v>
-      </c>
-      <c r="M187">
-        <v>1</v>
-      </c>
-      <c r="N187">
-        <v>0</v>
-      </c>
-      <c r="P187">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>Mission Creek 02</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>Mission Creek-Brender Creek</t>
-        </is>
-      </c>
-      <c r="L188">
-        <v>1</v>
-      </c>
-      <c r="M188">
-        <v>1</v>
-      </c>
-      <c r="N188">
-        <v>0</v>
-      </c>
-      <c r="P188">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>Aeneas 16-1</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>Aeneas Creek-DS</t>
-        </is>
-      </c>
-      <c r="L189">
-        <v>1</v>
-      </c>
-      <c r="M189">
-        <v>1</v>
-      </c>
-      <c r="N189">
-        <v>0</v>
-      </c>
-      <c r="O189">
-        <v>3</v>
-      </c>
-      <c r="P189">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Restoration_Reach_Ranking_Scores_Output.xlsx
+++ b/Output/Restoration_Reach_Ranking_Scores_Output.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L179"/>
+  <dimension ref="A1:L194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -442,10 +442,10 @@
         <v>71.04965812814311</v>
       </c>
       <c r="F2">
-        <v>33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="G2">
-        <v>192.0735387073501</v>
+        <v>208.7402053740167</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -460,13 +460,13 @@
         <v>3</v>
       </c>
       <c r="L2">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Antoine 16-3</t>
+          <t>Antoine 16-2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -479,17 +479,11 @@
           <t>Antoine Creek-Lower</t>
         </is>
       </c>
-      <c r="D3">
-        <v>13.97418724319793</v>
-      </c>
       <c r="E3">
-        <v>91.85568229333207</v>
+        <v>90.07967604404279</v>
       </c>
       <c r="F3">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="G3">
-        <v>139.1632028698633</v>
+        <v>62.5</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -501,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L3">
-        <v>87</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Antoine 16-4</t>
+          <t>Antoine 16-3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -524,19 +518,19 @@
         </is>
       </c>
       <c r="D4">
-        <v>96.8009640988758</v>
+        <v>13.97418724319793</v>
       </c>
       <c r="E4">
-        <v>93.65084787023412</v>
+        <v>91.85568229333207</v>
       </c>
       <c r="F4">
-        <v>33.33333333333333</v>
+        <v>37.5</v>
       </c>
       <c r="G4">
-        <v>223.7851453024433</v>
+        <v>143.32986953653</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="L4">
-        <v>6</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Antoine 16-5</t>
+          <t>Antoine 16-4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -568,19 +562,19 @@
         </is>
       </c>
       <c r="D5">
-        <v>92.80119616863257</v>
+        <v>96.8009640988758</v>
       </c>
       <c r="E5">
-        <v>90.52494209961908</v>
+        <v>93.65084787023412</v>
       </c>
       <c r="F5">
-        <v>33.33333333333333</v>
+        <v>37.5</v>
       </c>
       <c r="G5">
-        <v>216.659471601585</v>
+        <v>227.9518119691099</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +583,16 @@
         <v>0</v>
       </c>
       <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
         <v>6</v>
-      </c>
-      <c r="L5">
-        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Antoine 16-6</t>
+          <t>Antoine 16-5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -612,60 +606,60 @@
         </is>
       </c>
       <c r="D6">
-        <v>2.370099081128805</v>
+        <v>92.80119616863257</v>
       </c>
       <c r="E6">
-        <v>94.52524159026406</v>
+        <v>90.52494209961908</v>
       </c>
       <c r="F6">
-        <v>33.33333333333333</v>
+        <v>37.5</v>
       </c>
       <c r="G6">
-        <v>130.2286740047262</v>
+        <v>220.8261382682517</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L6">
-        <v>107</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Big Meadow Creek 01</t>
+          <t>Antoine 16-6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Big Meadow Creek</t>
+          <t>Antoine Creek-Lower</t>
         </is>
       </c>
       <c r="D7">
-        <v>12.5825765710022</v>
+        <v>2.370099081128805</v>
       </c>
       <c r="E7">
-        <v>28.88888888888889</v>
+        <v>94.52524159026406</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G7">
-        <v>41.47146545989109</v>
+        <v>121.8953406713929</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -676,14 +670,17 @@
       <c r="J7">
         <v>0</v>
       </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
       <c r="L7">
-        <v>161</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Big Meadow Creek 02</t>
+          <t>Big Meadow Creek 01</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -697,60 +694,60 @@
         </is>
       </c>
       <c r="D8">
-        <v>22.85748097963272</v>
+        <v>12.5825765710022</v>
       </c>
       <c r="E8">
-        <v>31.11111111111111</v>
+        <v>28.88888888888889</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>53.96859209074383</v>
+        <v>41.47146545989109</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Chewuch River Doe 01</t>
+          <t>Big Meadow Creek 02</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Chewuch River-Doe Creek</t>
+          <t>Big Meadow Creek</t>
         </is>
       </c>
       <c r="D9">
-        <v>97.34856579914411</v>
+        <v>22.85748097963272</v>
       </c>
       <c r="E9">
-        <v>33.33333333333334</v>
+        <v>31.11111111111111</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>130.6818991324774</v>
+        <v>53.96859209074383</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -759,13 +756,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>104</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Chewuch River Doe 02</t>
+          <t>Chewuch River Doe 01</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -779,7 +776,7 @@
         </is>
       </c>
       <c r="D10">
-        <v>100</v>
+        <v>97.34856579914411</v>
       </c>
       <c r="E10">
         <v>33.33333333333334</v>
@@ -788,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>133.3333333333333</v>
+        <v>130.6818991324774</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -800,13 +797,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Chewuch River Doe 03</t>
+          <t>Chewuch River Doe 02</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -841,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Chewuch River Doe 04</t>
+          <t>Chewuch River Doe 03</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -861,19 +858,19 @@
         </is>
       </c>
       <c r="D12">
-        <v>95.54958801466525</v>
+        <v>100</v>
       </c>
       <c r="E12">
-        <v>28.88888888888889</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>124.4384769035541</v>
+        <v>133.3333333333333</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -882,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>121</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chewuch River Doe 05</t>
+          <t>Chewuch River Doe 04</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -902,16 +899,16 @@
         </is>
       </c>
       <c r="D13">
-        <v>98.1370600401239</v>
+        <v>95.54958801466525</v>
       </c>
       <c r="E13">
-        <v>26.66666666666667</v>
+        <v>28.88888888888889</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>124.8037267067906</v>
+        <v>124.4384769035541</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -923,13 +920,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Chewuch River Doe 06</t>
+          <t>Chewuch River Doe 05</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -943,19 +940,19 @@
         </is>
       </c>
       <c r="D14">
-        <v>85.97857781805087</v>
+        <v>98.1370600401239</v>
       </c>
       <c r="E14">
-        <v>31.11111111111111</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>117.089688929162</v>
+        <v>124.8037267067906</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -964,13 +961,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Chewuch River Doe 07</t>
+          <t>Chewuch River Doe 06</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -984,16 +981,16 @@
         </is>
       </c>
       <c r="D15">
-        <v>76.50185418469593</v>
+        <v>85.97857781805087</v>
       </c>
       <c r="E15">
-        <v>37.77777777777778</v>
+        <v>31.11111111111111</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>114.2796319624737</v>
+        <v>117.089688929162</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -1005,13 +1002,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Chewuch River Doe 08</t>
+          <t>Chewuch River Doe 07</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1025,7 +1022,7 @@
         </is>
       </c>
       <c r="D16">
-        <v>81.19266334403142</v>
+        <v>76.50185418469593</v>
       </c>
       <c r="E16">
         <v>37.77777777777778</v>
@@ -1034,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>118.9704411218092</v>
+        <v>114.2796319624737</v>
       </c>
       <c r="H16">
         <v>3</v>
@@ -1046,13 +1043,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Chewuch River Doe 09</t>
+          <t>Chewuch River Doe 08</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1066,19 +1063,19 @@
         </is>
       </c>
       <c r="D17">
-        <v>99.1487717830119</v>
+        <v>81.19266334403142</v>
       </c>
       <c r="E17">
-        <v>42.22222222222223</v>
+        <v>37.77777777777778</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>141.3709940052341</v>
+        <v>118.9704411218092</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1087,13 +1084,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>84</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 01</t>
+          <t>Chewuch River Doe 09</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1103,23 +1100,23 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Chewuch River-Pearrygin Creek</t>
+          <t>Chewuch River-Doe Creek</t>
         </is>
       </c>
       <c r="D18">
-        <v>70.93107384318202</v>
+        <v>99.1487717830119</v>
       </c>
       <c r="E18">
-        <v>31.11111111111111</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="F18">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>127.0421849542931</v>
+        <v>143.5932162274563</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1128,13 +1125,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>114</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 02</t>
+          <t>Chewuch River Pearrygin 01</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1148,16 +1145,16 @@
         </is>
       </c>
       <c r="D19">
-        <v>79.1672471919955</v>
+        <v>70.93107384318202</v>
       </c>
       <c r="E19">
-        <v>31.11111111111111</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="F19">
         <v>25</v>
       </c>
       <c r="G19">
-        <v>135.2783583031066</v>
+        <v>129.2644071765154</v>
       </c>
       <c r="H19">
         <v>3</v>
@@ -1169,13 +1166,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>97</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 03</t>
+          <t>Chewuch River Pearrygin 02</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1189,16 +1186,16 @@
         </is>
       </c>
       <c r="D20">
-        <v>95.81184510461004</v>
+        <v>79.1672471919955</v>
       </c>
       <c r="E20">
-        <v>37.77777777777778</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="F20">
         <v>25</v>
       </c>
       <c r="G20">
-        <v>158.5896228823878</v>
+        <v>137.5005805253288</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -1210,13 +1207,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>63</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 04</t>
+          <t>Chewuch River Pearrygin 03</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1230,7 +1227,7 @@
         </is>
       </c>
       <c r="D21">
-        <v>90.28420071473042</v>
+        <v>95.81184510461004</v>
       </c>
       <c r="E21">
         <v>37.77777777777778</v>
@@ -1239,7 +1236,7 @@
         <v>25</v>
       </c>
       <c r="G21">
-        <v>153.0619784925082</v>
+        <v>158.5896228823878</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -1251,13 +1248,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 05</t>
+          <t>Chewuch River Pearrygin 04</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1271,19 +1268,19 @@
         </is>
       </c>
       <c r="D22">
-        <v>100</v>
+        <v>90.28420071473042</v>
       </c>
       <c r="E22">
-        <v>35.55555555555555</v>
+        <v>37.77777777777778</v>
       </c>
       <c r="F22">
         <v>25</v>
       </c>
       <c r="G22">
-        <v>160.5555555555555</v>
+        <v>153.0619784925082</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1292,13 +1289,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 06</t>
+          <t>Chewuch River Pearrygin 05</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1339,7 +1336,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 07</t>
+          <t>Chewuch River Pearrygin 06</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1353,16 +1350,16 @@
         </is>
       </c>
       <c r="D24">
-        <v>80.99006714185175</v>
+        <v>100</v>
       </c>
       <c r="E24">
-        <v>44.44444444444444</v>
+        <v>35.55555555555555</v>
       </c>
       <c r="F24">
-        <v>37.5</v>
+        <v>25</v>
       </c>
       <c r="G24">
-        <v>162.9345115862962</v>
+        <v>160.5555555555555</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -1374,13 +1371,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 08</t>
+          <t>Chewuch River Pearrygin 07</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1394,19 +1391,19 @@
         </is>
       </c>
       <c r="D25">
-        <v>86.46684217526705</v>
+        <v>80.99006714185175</v>
       </c>
       <c r="E25">
-        <v>24.44444444444445</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="F25">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="G25">
-        <v>135.9112866197115</v>
+        <v>162.9345115862962</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1415,13 +1412,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>92</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 09</t>
+          <t>Chewuch River Pearrygin 08</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1435,16 +1432,16 @@
         </is>
       </c>
       <c r="D26">
-        <v>3.447056743857168</v>
+        <v>86.46684217526705</v>
       </c>
       <c r="E26">
-        <v>42.22222222222223</v>
+        <v>24.44444444444445</v>
       </c>
       <c r="F26">
-        <v>37.5</v>
+        <v>25</v>
       </c>
       <c r="G26">
-        <v>83.16927896607939</v>
+        <v>135.9112866197115</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -1456,13 +1453,13 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>149</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 10</t>
+          <t>Chewuch River Pearrygin 09</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1476,7 +1473,7 @@
         </is>
       </c>
       <c r="D27">
-        <v>98.18525976878647</v>
+        <v>3.447056743857168</v>
       </c>
       <c r="E27">
         <v>42.22222222222223</v>
@@ -1485,10 +1482,10 @@
         <v>37.5</v>
       </c>
       <c r="G27">
-        <v>177.9074819910087</v>
+        <v>83.16927896607939</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1497,13 +1494,13 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>39</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 11</t>
+          <t>Chewuch River Pearrygin 10</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1517,7 +1514,7 @@
         </is>
       </c>
       <c r="D28">
-        <v>93.82353772698473</v>
+        <v>98.18525976878647</v>
       </c>
       <c r="E28">
         <v>42.22222222222223</v>
@@ -1526,7 +1523,7 @@
         <v>37.5</v>
       </c>
       <c r="G28">
-        <v>173.545759949207</v>
+        <v>177.9074819910087</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -1538,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Chewuch River Thirtymile 01</t>
+          <t>Chewuch River Pearrygin 11</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1554,23 +1551,23 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Chewuch River-Thirtymile Creek</t>
+          <t>Chewuch River-Pearrygin Creek</t>
         </is>
       </c>
       <c r="D29">
-        <v>28.56119021573179</v>
+        <v>93.82353772698473</v>
       </c>
       <c r="E29">
-        <v>33.33333333333334</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="G29">
-        <v>61.89452354906513</v>
+        <v>175.7679821714292</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1579,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>159</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Chewuch River Thirtymile 02</t>
+          <t>Chewuch River Thirtymile 01</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1599,19 +1596,19 @@
         </is>
       </c>
       <c r="D30">
-        <v>48.0074118062286</v>
+        <v>28.56119021573179</v>
       </c>
       <c r="E30">
-        <v>24.44444444444445</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>72.45185625067305</v>
+        <v>61.89452354906513</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -1620,36 +1617,36 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Chiwawa River Lower 01</t>
+          <t>Chewuch River Thirtymile 02</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Lower Chiwawa River</t>
+          <t>Chewuch River-Thirtymile Creek</t>
         </is>
       </c>
       <c r="D31">
-        <v>84.35796761868576</v>
+        <v>48.0074118062286</v>
       </c>
       <c r="E31">
-        <v>44.44444444444444</v>
+        <v>24.44444444444445</v>
       </c>
       <c r="F31">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>178.8024120631302</v>
+        <v>72.45185625067305</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -1661,13 +1658,13 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>37</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Chiwawa River Lower 02</t>
+          <t>Chiwawa River Lower 01</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1681,16 +1678,16 @@
         </is>
       </c>
       <c r="D32">
-        <v>60</v>
+        <v>84.35796761868576</v>
       </c>
       <c r="E32">
-        <v>53.33333333333334</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="F32">
-        <v>62.5</v>
+        <v>50</v>
       </c>
       <c r="G32">
-        <v>175.8333333333333</v>
+        <v>178.8024120631302</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -1702,13 +1699,13 @@
         <v>0</v>
       </c>
       <c r="L32">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Chiwawa River Lower 03</t>
+          <t>Chiwawa River Lower 02</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1722,19 +1719,19 @@
         </is>
       </c>
       <c r="D33">
-        <v>32.1977204568532</v>
+        <v>60</v>
       </c>
       <c r="E33">
-        <v>42.22222222222223</v>
+        <v>53.33333333333334</v>
       </c>
       <c r="F33">
-        <v>50</v>
+        <v>62.5</v>
       </c>
       <c r="G33">
-        <v>124.4199426790754</v>
+        <v>175.8333333333333</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -1743,13 +1740,13 @@
         <v>0</v>
       </c>
       <c r="L33">
-        <v>122</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Chiwawa River Lower 04</t>
+          <t>Chiwawa River Lower 03</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1763,19 +1760,19 @@
         </is>
       </c>
       <c r="D34">
-        <v>31.28770204495832</v>
+        <v>32.1977204568532</v>
       </c>
       <c r="E34">
-        <v>48.88888888888889</v>
+        <v>42.22222222222223</v>
       </c>
       <c r="F34">
-        <v>62.5</v>
+        <v>50</v>
       </c>
       <c r="G34">
-        <v>142.6765909338472</v>
+        <v>124.4199426790754</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -1784,13 +1781,13 @@
         <v>0</v>
       </c>
       <c r="L34">
-        <v>83</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Chiwawa River Lower 05</t>
+          <t>Chiwawa River Lower 04</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1804,16 +1801,16 @@
         </is>
       </c>
       <c r="D35">
-        <v>11.93596293888412</v>
+        <v>31.28770204495832</v>
       </c>
       <c r="E35">
-        <v>57.77777777777777</v>
+        <v>48.88888888888889</v>
       </c>
       <c r="F35">
-        <v>75</v>
+        <v>62.5</v>
       </c>
       <c r="G35">
-        <v>144.7137407166619</v>
+        <v>142.6765909338472</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -1825,13 +1822,13 @@
         <v>0</v>
       </c>
       <c r="L35">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Chiwawa River Lower 06</t>
+          <t>Chiwawa River Lower 05</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1845,19 +1842,19 @@
         </is>
       </c>
       <c r="D36">
-        <v>59.40114855246741</v>
+        <v>11.93596293888412</v>
       </c>
       <c r="E36">
-        <v>42.22222222222223</v>
+        <v>57.77777777777777</v>
       </c>
       <c r="F36">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G36">
-        <v>151.6233707746897</v>
+        <v>144.7137407166619</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -1866,13 +1863,13 @@
         <v>0</v>
       </c>
       <c r="L36">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Chiwawa River Lower 07</t>
+          <t>Chiwawa River Lower 06</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1886,19 +1883,19 @@
         </is>
       </c>
       <c r="D37">
-        <v>17.25110079134537</v>
+        <v>59.40114855246741</v>
       </c>
       <c r="E37">
-        <v>35.55555555555555</v>
+        <v>42.22222222222223</v>
       </c>
       <c r="F37">
-        <v>37.5</v>
+        <v>50</v>
       </c>
       <c r="G37">
-        <v>90.30665634690092</v>
+        <v>151.6233707746897</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -1907,39 +1904,39 @@
         <v>0</v>
       </c>
       <c r="L37">
-        <v>147</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Entiat River Lake 01</t>
+          <t>Chiwawa River Lower 07</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Lower Chiwawa River</t>
         </is>
       </c>
       <c r="D38">
-        <v>84.29416294333068</v>
+        <v>17.25110079134537</v>
       </c>
       <c r="E38">
-        <v>20</v>
+        <v>35.55555555555555</v>
       </c>
       <c r="F38">
-        <v>9.090909090909092</v>
+        <v>37.5</v>
       </c>
       <c r="G38">
-        <v>113.3850720342398</v>
+        <v>90.30665634690092</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -1948,39 +1945,30 @@
         <v>0</v>
       </c>
       <c r="L38">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Entiat River Lake 02</t>
+          <t>Eight Mile Creek 07</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Eight Mile Creek</t>
         </is>
       </c>
       <c r="D39">
-        <v>74.02921541005696</v>
-      </c>
-      <c r="E39">
-        <v>37.77777777777778</v>
+        <v>84.79585924347704</v>
       </c>
       <c r="F39">
-        <v>18.18181818181818</v>
-      </c>
-      <c r="G39">
-        <v>129.9888113696529</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -1989,39 +1977,30 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>109</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Entiat River Lake 03</t>
+          <t>Eight Mile Creek 09</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Eight Mile Creek</t>
         </is>
       </c>
       <c r="D40">
-        <v>63.71807967313585</v>
-      </c>
-      <c r="E40">
-        <v>8.888888888888891</v>
+        <v>22.06957933488505</v>
       </c>
       <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>72.60696856202475</v>
-      </c>
-      <c r="H40">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -2030,13 +2009,13 @@
         <v>0</v>
       </c>
       <c r="L40">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Entiat River Lake 04</t>
+          <t>Entiat River Lake 01</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2050,16 +2029,16 @@
         </is>
       </c>
       <c r="D41">
-        <v>67.13441483580915</v>
+        <v>84.29416294333068</v>
       </c>
       <c r="E41">
-        <v>26.66666666666667</v>
+        <v>20</v>
       </c>
       <c r="F41">
-        <v>18.18181818181818</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="G41">
-        <v>111.982899684294</v>
+        <v>113.3850720342398</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -2071,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="L41">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Entiat River Lake 05</t>
+          <t>Entiat River Lake 02</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2091,19 +2070,19 @@
         </is>
       </c>
       <c r="D42">
-        <v>57.79778914955362</v>
+        <v>74.02921541005696</v>
       </c>
       <c r="E42">
-        <v>8.888888888888891</v>
+        <v>40</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="G42">
-        <v>66.68667803844251</v>
+        <v>132.2110335918752</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -2112,13 +2091,13 @@
         <v>0</v>
       </c>
       <c r="L42">
-        <v>158</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Entiat River Lake 11</t>
+          <t>Entiat River Lake 03</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2132,10 +2111,19 @@
         </is>
       </c>
       <c r="D43">
-        <v>66.56159167522384</v>
+        <v>63.71807967313585</v>
+      </c>
+      <c r="E43">
+        <v>13.33333333333333</v>
       </c>
       <c r="F43">
-        <v>22.22222222222222</v>
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>77.05141300646919</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -2144,13 +2132,13 @@
         <v>0</v>
       </c>
       <c r="L43">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Entiat River Mills 02</t>
+          <t>Entiat River Lake 04</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2160,20 +2148,20 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D44">
-        <v>99.37559372771551</v>
+        <v>67.13441483580915</v>
       </c>
       <c r="E44">
-        <v>42.22222222222223</v>
+        <v>28.88888888888889</v>
       </c>
       <c r="F44">
-        <v>25</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="G44">
-        <v>166.5978159499377</v>
+        <v>114.2051219065162</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -2185,13 +2173,13 @@
         <v>0</v>
       </c>
       <c r="L44">
-        <v>49</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Entiat River Mills 03</t>
+          <t>Entiat River Lake 05</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2201,23 +2189,23 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D45">
-        <v>80.64715622126087</v>
+        <v>57.79778914955362</v>
       </c>
       <c r="E45">
-        <v>42.22222222222223</v>
+        <v>11.11111111111112</v>
       </c>
       <c r="F45">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>147.8693784434831</v>
+        <v>68.90890026066474</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -2226,13 +2214,13 @@
         <v>0</v>
       </c>
       <c r="L45">
-        <v>77</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Entiat River Mills 04</t>
+          <t>Entiat River Lake 06</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2242,23 +2230,14 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
-        </is>
-      </c>
-      <c r="D46">
-        <v>87.50837494371574</v>
+          <t>Entiat River-Lake Creek</t>
+        </is>
       </c>
       <c r="E46">
-        <v>42.22222222222223</v>
+        <v>17.77777777777778</v>
       </c>
       <c r="F46">
-        <v>25</v>
-      </c>
-      <c r="G46">
-        <v>154.730597165938</v>
-      </c>
-      <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -2267,13 +2246,13 @@
         <v>0</v>
       </c>
       <c r="L46">
-        <v>68</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Entiat River Mills 05</t>
+          <t>Entiat River Lake 07</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2283,23 +2262,14 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
-        </is>
-      </c>
-      <c r="D47">
-        <v>88.39597921741711</v>
+          <t>Entiat River-Lake Creek</t>
+        </is>
       </c>
       <c r="E47">
-        <v>37.77777777777778</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="F47">
-        <v>12.5</v>
-      </c>
-      <c r="G47">
-        <v>138.6737569951949</v>
-      </c>
-      <c r="H47">
-        <v>2</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -2308,13 +2278,13 @@
         <v>0</v>
       </c>
       <c r="L47">
-        <v>88</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Entiat River Mills 06</t>
+          <t>Entiat River Lake 11</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2324,23 +2294,14 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D48">
-        <v>86.02763875475596</v>
-      </c>
-      <c r="E48">
-        <v>37.77777777777778</v>
+        <v>66.56159167522384</v>
       </c>
       <c r="F48">
-        <v>12.5</v>
-      </c>
-      <c r="G48">
-        <v>136.3054165325337</v>
-      </c>
-      <c r="H48">
-        <v>3</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -2349,13 +2310,13 @@
         <v>0</v>
       </c>
       <c r="L48">
-        <v>91</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Entiat River Potato 07</t>
+          <t>Entiat River Mills 02</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2365,20 +2326,20 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="D49">
-        <v>100</v>
+        <v>99.37559372771551</v>
       </c>
       <c r="E49">
-        <v>28.88888888888889</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G49">
-        <v>128.8888888888889</v>
+        <v>168.82003817216</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -2390,13 +2351,13 @@
         <v>0</v>
       </c>
       <c r="L49">
-        <v>110</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Entiat River Potato 08</t>
+          <t>Entiat River Mills 03</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2406,20 +2367,20 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="D50">
-        <v>100</v>
+        <v>80.64715622126087</v>
       </c>
       <c r="E50">
-        <v>26.66666666666667</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G50">
-        <v>126.6666666666667</v>
+        <v>150.0916006657053</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -2431,13 +2392,13 @@
         <v>0</v>
       </c>
       <c r="L50">
-        <v>115</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Entiat River Preston 01</t>
+          <t>Entiat River Mills 04</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2447,23 +2408,23 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="D51">
-        <v>100</v>
+        <v>87.50837494371574</v>
       </c>
       <c r="E51">
-        <v>33.33333333333334</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G51">
-        <v>133.3333333333333</v>
+        <v>156.9528193881602</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -2472,13 +2433,13 @@
         <v>0</v>
       </c>
       <c r="L51">
-        <v>99</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Entiat River Preston 02</t>
+          <t>Entiat River Mills 05</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2488,23 +2449,23 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="D52">
-        <v>100</v>
+        <v>88.39597921741711</v>
       </c>
       <c r="E52">
-        <v>26.66666666666667</v>
+        <v>40</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="G52">
-        <v>126.6666666666667</v>
+        <v>140.8959792174171</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -2513,13 +2474,13 @@
         <v>0</v>
       </c>
       <c r="L52">
-        <v>115</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Entiat River Preston 03</t>
+          <t>Entiat River Mills 06</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2529,23 +2490,23 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="D53">
-        <v>97.31787937555582</v>
+        <v>86.02763875475596</v>
       </c>
       <c r="E53">
-        <v>31.11111111111111</v>
+        <v>40</v>
       </c>
       <c r="F53">
         <v>12.5</v>
       </c>
       <c r="G53">
-        <v>140.9289904866669</v>
+        <v>138.527638754756</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -2554,13 +2515,13 @@
         <v>0</v>
       </c>
       <c r="L53">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Entiat River Preston 04</t>
+          <t>Entiat River Potato 04</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2570,23 +2531,14 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D54">
-        <v>83.44649421443781</v>
-      </c>
-      <c r="E54">
-        <v>31.11111111111111</v>
+        <v>50.30154817760456</v>
       </c>
       <c r="F54">
-        <v>25</v>
-      </c>
-      <c r="G54">
-        <v>139.5576053255489</v>
-      </c>
-      <c r="H54">
-        <v>1</v>
+        <v>14.28571428571429</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -2595,30 +2547,39 @@
         <v>0</v>
       </c>
       <c r="L54">
-        <v>86</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Icicle Creek Lower 01</t>
+          <t>Entiat River Potato 07</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Lower Icicle Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D55">
-        <v>99.44705458636332</v>
+        <v>100</v>
+      </c>
+      <c r="E55">
+        <v>31.11111111111111</v>
       </c>
       <c r="F55">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>131.1111111111111</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -2627,30 +2588,39 @@
         <v>0</v>
       </c>
       <c r="L55">
-        <v>163</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Icicle Creek Lower 02</t>
+          <t>Entiat River Potato 08</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Lower Icicle Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D56">
-        <v>95.99758030706276</v>
+        <v>100</v>
+      </c>
+      <c r="E56">
+        <v>26.66666666666667</v>
       </c>
       <c r="F56">
-        <v>66.66666666666666</v>
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>126.6666666666667</v>
+      </c>
+      <c r="H56">
+        <v>2</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -2659,30 +2629,39 @@
         <v>0</v>
       </c>
       <c r="L56">
-        <v>164</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Icicle Creek Lower 03</t>
+          <t>Entiat River Preston 01</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Lower Icicle Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D57">
         <v>100</v>
       </c>
+      <c r="E57">
+        <v>35.55555555555555</v>
+      </c>
       <c r="F57">
-        <v>66.66666666666666</v>
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>135.5555555555555</v>
+      </c>
+      <c r="H57">
+        <v>2</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -2691,65 +2670,80 @@
         <v>0</v>
       </c>
       <c r="L57">
-        <v>165</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Icicle Creek Lower 04</t>
+          <t>Entiat River Preston 02</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Lower Icicle Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D58">
-        <v>53.5789863303935</v>
+        <v>100</v>
+      </c>
+      <c r="E58">
+        <v>26.66666666666667</v>
       </c>
       <c r="F58">
-        <v>66.66666666666666</v>
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>126.6666666666667</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58">
         <v>0</v>
       </c>
       <c r="L58">
-        <v>166</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Icicle Creek Lower 05</t>
+          <t>Entiat River Preston 03</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Lower Icicle Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D59">
-        <v>12.87359317513477</v>
+        <v>97.31787937555582</v>
+      </c>
+      <c r="E59">
+        <v>31.11111111111111</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>12.5</v>
+      </c>
+      <c r="G59">
+        <v>140.9289904866669</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -2758,30 +2752,39 @@
         <v>0</v>
       </c>
       <c r="L59">
-        <v>167</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Icicle Creek Lower 08</t>
+          <t>Entiat River Preston 04</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Lower Icicle Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D60">
-        <v>44.12519516715064</v>
+        <v>83.44649421443781</v>
+      </c>
+      <c r="E60">
+        <v>31.11111111111111</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="G60">
+        <v>139.5576053255489</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -2790,215 +2793,161 @@
         <v>0</v>
       </c>
       <c r="L60">
-        <v>168</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Johnson 16-1</t>
+          <t>Icicle Creek Lower 01</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Johnson Creek</t>
+          <t>Lower Icicle Creek</t>
         </is>
       </c>
       <c r="D61">
-        <v>11.88660691792071</v>
-      </c>
-      <c r="E61">
+        <v>99.44705458636332</v>
+      </c>
+      <c r="F61">
         <v>100</v>
       </c>
-      <c r="F61">
-        <v>50</v>
-      </c>
-      <c r="G61">
-        <v>161.8866069179207</v>
-      </c>
-      <c r="H61">
-        <v>1</v>
-      </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61">
         <v>0</v>
       </c>
-      <c r="K61">
-        <v>3</v>
-      </c>
       <c r="L61">
-        <v>58</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Loup Loup 16-1</t>
+          <t>Icicle Creek Lower 02</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Loup Loup Creek-Lower DS</t>
+          <t>Lower Icicle Creek</t>
         </is>
       </c>
       <c r="D62">
-        <v>100</v>
-      </c>
-      <c r="E62">
-        <v>58.61783873901255</v>
+        <v>95.99758030706276</v>
       </c>
       <c r="F62">
         <v>66.66666666666666</v>
       </c>
-      <c r="G62">
-        <v>225.2845054056792</v>
-      </c>
-      <c r="H62">
-        <v>2</v>
-      </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62">
         <v>0</v>
       </c>
-      <c r="K62">
-        <v>1</v>
-      </c>
       <c r="L62">
-        <v>4</v>
+        <v>171</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Loup Loup 16-2</t>
+          <t>Icicle Creek Lower 03</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Loup Loup Creek-Lower DS</t>
+          <t>Lower Icicle Creek</t>
         </is>
       </c>
       <c r="D63">
-        <v>81.75055372087164</v>
-      </c>
-      <c r="E63">
-        <v>51.35954967170182</v>
+        <v>100</v>
       </c>
       <c r="F63">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="G63">
-        <v>166.4434367259068</v>
-      </c>
-      <c r="H63">
-        <v>1</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63">
         <v>0</v>
       </c>
-      <c r="K63">
-        <v>3</v>
-      </c>
       <c r="L63">
-        <v>50</v>
+        <v>172</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Loup Loup 16-3</t>
+          <t>Icicle Creek Lower 04</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Loup Loup Creek-Lower DS</t>
+          <t>Lower Icicle Creek</t>
         </is>
       </c>
       <c r="D64">
-        <v>42.15656814548602</v>
-      </c>
-      <c r="E64">
-        <v>59.81652986031797</v>
+        <v>53.5789863303935</v>
       </c>
       <c r="F64">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="G64">
-        <v>135.3064313391373</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="H64">
         <v>1</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64">
         <v>0</v>
       </c>
-      <c r="K64">
-        <v>2</v>
-      </c>
       <c r="L64">
-        <v>96</v>
+        <v>173</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Mad River Lower 01</t>
+          <t>Icicle Creek Lower 05</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Lower Mad River</t>
+          <t>Lower Icicle Creek</t>
         </is>
       </c>
       <c r="D65">
-        <v>63.6490481401099</v>
-      </c>
-      <c r="E65">
-        <v>60</v>
+        <v>12.87359317513477</v>
       </c>
       <c r="F65">
-        <v>50</v>
-      </c>
-      <c r="G65">
-        <v>173.6490481401099</v>
-      </c>
-      <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -3007,40 +2956,31 @@
         <v>0</v>
       </c>
       <c r="L65">
-        <v>42</v>
+        <v>174</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Methow River Alta Coulee 02</t>
+          <t>Icicle Creek Lower 08</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Methow River-Alta Coulee</t>
+          <t>Lower Icicle Creek</t>
         </is>
       </c>
       <c r="D66">
-        <v>51.42337559756977</v>
-      </c>
-      <c r="E66">
-        <v>57.77777777777777</v>
+        <v>44.12519516715064</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
-      <c r="G66">
-        <v>109.2011533753475</v>
-      </c>
-      <c r="H66">
-        <v>2</v>
-      </c>
       <c r="I66">
         <v>0</v>
       </c>
@@ -3048,36 +2988,36 @@
         <v>0</v>
       </c>
       <c r="L66">
-        <v>137</v>
+        <v>175</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Methow River Alta Coulee 03</t>
+          <t>Johnson 16-1</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Methow River-Alta Coulee</t>
+          <t>Johnson Creek</t>
         </is>
       </c>
       <c r="D67">
-        <v>68.37284735908258</v>
+        <v>11.88660691792071</v>
       </c>
       <c r="E67">
-        <v>62.22222222222222</v>
+        <v>100</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G67">
-        <v>130.5950695813048</v>
+        <v>161.8866069179207</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -3086,16 +3026,19 @@
         <v>0</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>3</v>
       </c>
       <c r="L67">
-        <v>105</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Methow River Alta Coulee 04</t>
+          <t>Lake Creek Methow 05</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3105,24 +3048,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Methow River-Alta Coulee</t>
-        </is>
-      </c>
-      <c r="D68">
-        <v>68.32249906214474</v>
-      </c>
-      <c r="E68">
-        <v>62.22222222222222</v>
+          <t>Lake Creek (Methow)</t>
+        </is>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
-      <c r="G68">
-        <v>130.544721284367</v>
-      </c>
-      <c r="H68">
-        <v>1</v>
-      </c>
       <c r="I68">
         <v>0</v>
       </c>
@@ -3130,39 +3061,39 @@
         <v>0</v>
       </c>
       <c r="L68">
-        <v>106</v>
+        <v>176</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Methow River Alta Coulee 05</t>
+          <t>Loup Loup 16-1</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Methow River-Alta Coulee</t>
+          <t>Loup Loup Creek-Lower DS</t>
         </is>
       </c>
       <c r="D69">
-        <v>46.6078443788486</v>
+        <v>100</v>
       </c>
       <c r="E69">
-        <v>57.77777777777777</v>
+        <v>58.61783873901255</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="G69">
-        <v>104.3856221566264</v>
+        <v>215.7606958818697</v>
       </c>
       <c r="H69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -3170,81 +3101,87 @@
       <c r="J69">
         <v>0</v>
       </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
       <c r="L69">
-        <v>140</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Methow River Fawn 01</t>
+          <t>Loup Loup 16-2</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Loup Loup Creek-Lower DS</t>
         </is>
       </c>
       <c r="D70">
-        <v>70.56835870344921</v>
+        <v>81.75055372087164</v>
       </c>
       <c r="E70">
-        <v>31.11111111111111</v>
+        <v>51.35954967170182</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="G70">
-        <v>101.6794698145603</v>
+        <v>195.6101033925735</v>
       </c>
       <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
         <v>3</v>
       </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
       <c r="L70">
-        <v>142</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Methow River Fawn 02</t>
+          <t>Loup Loup 16-3</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Loup Loup Creek-Lower DS</t>
         </is>
       </c>
       <c r="D71">
-        <v>95.183526325915</v>
+        <v>42.15656814548602</v>
       </c>
       <c r="E71">
-        <v>31.11111111111111</v>
+        <v>59.81652986031797</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="G71">
-        <v>126.2946374370261</v>
+        <v>139.473098005804</v>
       </c>
       <c r="H71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -3252,40 +3189,43 @@
       <c r="J71">
         <v>0</v>
       </c>
+      <c r="K71">
+        <v>2</v>
+      </c>
       <c r="L71">
-        <v>117</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Methow River Fawn 03</t>
+          <t>Mad River Lower 01</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Lower Mad River</t>
         </is>
       </c>
       <c r="D72">
-        <v>95.44661671987824</v>
+        <v>63.6490481401099</v>
       </c>
       <c r="E72">
-        <v>37.77777777777778</v>
+        <v>62.22222222222222</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G72">
-        <v>133.224394497656</v>
+        <v>175.8712703623321</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -3294,80 +3234,65 @@
         <v>0</v>
       </c>
       <c r="L72">
-        <v>102</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Methow River Fawn 05</t>
+          <t>Mad River Lower 02</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
-        </is>
-      </c>
-      <c r="D73">
-        <v>93.57917958769068</v>
+          <t>Lower Mad River</t>
+        </is>
       </c>
       <c r="E73">
-        <v>42.22222222222223</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>135.8014018099129</v>
+        <v>40</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73">
         <v>0</v>
       </c>
       <c r="L73">
-        <v>93</v>
+        <v>177</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Methow River Fawn 06</t>
+          <t>Mad River Lower 03</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
-        </is>
-      </c>
-      <c r="D74">
-        <v>91.2106857360465</v>
+          <t>Lower Mad River</t>
+        </is>
       </c>
       <c r="E74">
-        <v>57.77777777777777</v>
+        <v>35.55555555555555</v>
       </c>
       <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <v>148.9884635138243</v>
-      </c>
-      <c r="H74">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -3376,39 +3301,30 @@
         <v>0</v>
       </c>
       <c r="L74">
-        <v>74</v>
+        <v>178</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Methow River Fawn 07</t>
+          <t>Mad River Lower 04</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
-        </is>
-      </c>
-      <c r="D75">
-        <v>97.8396234902043</v>
+          <t>Lower Mad River</t>
+        </is>
       </c>
       <c r="E75">
-        <v>48.88888888888889</v>
+        <v>17.77777777777778</v>
       </c>
       <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>146.7285123790932</v>
-      </c>
-      <c r="H75">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -3417,13 +3333,13 @@
         <v>0</v>
       </c>
       <c r="L75">
-        <v>78</v>
+        <v>179</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Methow River Fawn 08</t>
+          <t>Methow River Alta Coulee 02</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3433,20 +3349,20 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Methow River-Alta Coulee</t>
         </is>
       </c>
       <c r="D76">
-        <v>93.17997790657877</v>
+        <v>51.42337559756977</v>
       </c>
       <c r="E76">
-        <v>53.33333333333334</v>
+        <v>57.77777777777777</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76">
-        <v>146.5133112399121</v>
+        <v>109.2011533753475</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -3458,13 +3374,13 @@
         <v>0</v>
       </c>
       <c r="L76">
-        <v>79</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Methow River Fawn 09</t>
+          <t>Methow River Alta Coulee 03</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3474,20 +3390,20 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Methow River-Alta Coulee</t>
         </is>
       </c>
       <c r="D77">
-        <v>100</v>
+        <v>68.37284735908258</v>
       </c>
       <c r="E77">
-        <v>48.88888888888889</v>
+        <v>62.22222222222222</v>
       </c>
       <c r="F77">
         <v>0</v>
       </c>
       <c r="G77">
-        <v>148.8888888888889</v>
+        <v>130.5950695813048</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -3499,13 +3415,13 @@
         <v>0</v>
       </c>
       <c r="L77">
-        <v>75</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Methow River Fawn 10</t>
+          <t>Methow River Alta Coulee 04</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3515,20 +3431,20 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Methow River-Alta Coulee</t>
         </is>
       </c>
       <c r="D78">
-        <v>100</v>
+        <v>68.32249906214474</v>
       </c>
       <c r="E78">
-        <v>55.55555555555556</v>
+        <v>62.22222222222222</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
       <c r="G78">
-        <v>155.5555555555555</v>
+        <v>130.544721284367</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -3540,13 +3456,13 @@
         <v>0</v>
       </c>
       <c r="L78">
-        <v>66</v>
+        <v>111</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Methow River Fawn 11</t>
+          <t>Methow River Alta Coulee 05</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3556,23 +3472,23 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Methow River-Alta Coulee</t>
         </is>
       </c>
       <c r="D79">
-        <v>100</v>
+        <v>46.6078443788486</v>
       </c>
       <c r="E79">
-        <v>55.55555555555556</v>
+        <v>57.77777777777777</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="G79">
-        <v>155.5555555555555</v>
+        <v>104.3856221566264</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -3581,13 +3497,13 @@
         <v>0</v>
       </c>
       <c r="L79">
-        <v>66</v>
+        <v>143</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Methow River McFarland 01</t>
+          <t>Methow River Fawn 01</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3597,20 +3513,20 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Methow River-McFarland Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D80">
-        <v>23.68682320455459</v>
+        <v>70.56835870344921</v>
       </c>
       <c r="E80">
-        <v>57.77777777777777</v>
+        <v>35.55555555555555</v>
       </c>
       <c r="F80">
         <v>0</v>
       </c>
       <c r="G80">
-        <v>81.46460098233236</v>
+        <v>106.1239142590048</v>
       </c>
       <c r="H80">
         <v>3</v>
@@ -3622,13 +3538,13 @@
         <v>0</v>
       </c>
       <c r="L80">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Methow River McFarland 02</t>
+          <t>Methow River Fawn 02</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3638,23 +3554,23 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Methow River-McFarland Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D81">
-        <v>72.29928252527816</v>
+        <v>95.183526325915</v>
       </c>
       <c r="E81">
-        <v>57.77777777777777</v>
+        <v>35.55555555555555</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
       <c r="G81">
-        <v>130.0770603030559</v>
+        <v>130.7390818814706</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -3663,13 +3579,13 @@
         <v>0</v>
       </c>
       <c r="L81">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Methow River McFarland 03</t>
+          <t>Methow River Fawn 03</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3679,23 +3595,23 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Methow River-McFarland Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D82">
-        <v>48.42218067606668</v>
+        <v>95.44661671987824</v>
       </c>
       <c r="E82">
-        <v>57.77777777777777</v>
+        <v>40</v>
       </c>
       <c r="F82">
         <v>0</v>
       </c>
       <c r="G82">
-        <v>106.1999584538445</v>
+        <v>135.4466167198783</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -3704,13 +3620,13 @@
         <v>0</v>
       </c>
       <c r="L82">
-        <v>138</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Methow River McFarland 04</t>
+          <t>Methow River Fawn 05</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3720,23 +3636,23 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Methow River-McFarland Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D83">
-        <v>34.16262903542418</v>
+        <v>93.57917958769068</v>
       </c>
       <c r="E83">
-        <v>57.77777777777777</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="F83">
         <v>0</v>
       </c>
       <c r="G83">
-        <v>91.94040681320195</v>
+        <v>138.0236240321351</v>
       </c>
       <c r="H83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -3745,13 +3661,13 @@
         <v>0</v>
       </c>
       <c r="L83">
-        <v>146</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Methow River McFarland 05</t>
+          <t>Methow River Fawn 06</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3761,23 +3677,23 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Methow River-McFarland Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D84">
-        <v>45.51457291640889</v>
+        <v>91.2106857360465</v>
       </c>
       <c r="E84">
-        <v>57.77777777777777</v>
+        <v>60</v>
       </c>
       <c r="F84">
         <v>0</v>
       </c>
       <c r="G84">
-        <v>103.2923506941867</v>
+        <v>151.2106857360465</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -3786,13 +3702,13 @@
         <v>0</v>
       </c>
       <c r="L84">
-        <v>141</v>
+        <v>74</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Methow River McFarland 06</t>
+          <t>Methow River Fawn 07</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3802,11 +3718,11 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Methow River-McFarland Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D85">
-        <v>62.11337716074016</v>
+        <v>97.8396234902043</v>
       </c>
       <c r="E85">
         <v>48.88888888888889</v>
@@ -3815,10 +3731,10 @@
         <v>0</v>
       </c>
       <c r="G85">
-        <v>111.002266049629</v>
+        <v>146.7285123790932</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -3827,13 +3743,13 @@
         <v>0</v>
       </c>
       <c r="L85">
-        <v>136</v>
+        <v>78</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 01</t>
+          <t>Methow River Fawn 08</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3843,23 +3759,23 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D86">
-        <v>82.38008539503814</v>
+        <v>93.17997790657877</v>
       </c>
       <c r="E86">
-        <v>28.88888888888889</v>
+        <v>53.33333333333334</v>
       </c>
       <c r="F86">
         <v>0</v>
       </c>
       <c r="G86">
-        <v>111.268974283927</v>
+        <v>146.5133112399121</v>
       </c>
       <c r="H86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -3868,13 +3784,13 @@
         <v>0</v>
       </c>
       <c r="L86">
-        <v>135</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 02</t>
+          <t>Methow River Fawn 09</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3884,23 +3800,23 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D87">
-        <v>75.93111651357249</v>
+        <v>100</v>
       </c>
       <c r="E87">
-        <v>44.44444444444444</v>
+        <v>48.88888888888889</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
       <c r="G87">
-        <v>120.3755609580169</v>
+        <v>148.8888888888889</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -3909,13 +3825,13 @@
         <v>0</v>
       </c>
       <c r="L87">
-        <v>124</v>
+        <v>76</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 03</t>
+          <t>Methow River Fawn 10</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3925,20 +3841,20 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D88">
-        <v>82.02808721243393</v>
+        <v>100</v>
       </c>
       <c r="E88">
-        <v>48.88888888888889</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
       <c r="G88">
-        <v>130.9169761013228</v>
+        <v>155.5555555555555</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -3950,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="L88">
-        <v>103</v>
+        <v>67</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 04</t>
+          <t>Methow River Fawn 11</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3966,20 +3882,20 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D89">
         <v>100</v>
       </c>
       <c r="E89">
-        <v>35.55555555555555</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="F89">
         <v>0</v>
       </c>
       <c r="G89">
-        <v>135.5555555555555</v>
+        <v>155.5555555555555</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -3991,36 +3907,36 @@
         <v>0</v>
       </c>
       <c r="L89">
-        <v>95</v>
+        <v>67</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 02</t>
+          <t>Methow River McFarland 01</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-McFarland Creek</t>
         </is>
       </c>
       <c r="D90">
-        <v>60</v>
+        <v>23.68682320455459</v>
       </c>
       <c r="E90">
-        <v>11.11111111111112</v>
+        <v>57.77777777777777</v>
       </c>
       <c r="F90">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="G90">
-        <v>104.4444444444444</v>
+        <v>81.46460098233236</v>
       </c>
       <c r="H90">
         <v>3</v>
@@ -4032,39 +3948,39 @@
         <v>0</v>
       </c>
       <c r="L90">
-        <v>139</v>
+        <v>155</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 03</t>
+          <t>Methow River McFarland 02</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-McFarland Creek</t>
         </is>
       </c>
       <c r="D91">
-        <v>84.3515167253664</v>
+        <v>72.29928252527816</v>
       </c>
       <c r="E91">
-        <v>20</v>
+        <v>57.77777777777777</v>
       </c>
       <c r="F91">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="G91">
-        <v>137.6848500586997</v>
+        <v>130.0770603030559</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -4073,36 +3989,36 @@
         <v>0</v>
       </c>
       <c r="L91">
-        <v>90</v>
+        <v>112</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 04</t>
+          <t>Methow River McFarland 03</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-McFarland Creek</t>
         </is>
       </c>
       <c r="D92">
-        <v>81.64245837892949</v>
+        <v>48.42218067606668</v>
       </c>
       <c r="E92">
-        <v>44.44444444444444</v>
+        <v>57.77777777777777</v>
       </c>
       <c r="F92">
-        <v>41.66666666666667</v>
+        <v>0</v>
       </c>
       <c r="G92">
-        <v>167.7535694900406</v>
+        <v>106.1999584538445</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -4114,39 +4030,39 @@
         <v>0</v>
       </c>
       <c r="L92">
-        <v>48</v>
+        <v>139</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 05</t>
+          <t>Methow River McFarland 04</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-McFarland Creek</t>
         </is>
       </c>
       <c r="D93">
-        <v>70.58555725197336</v>
+        <v>34.16262903542418</v>
       </c>
       <c r="E93">
-        <v>44.44444444444444</v>
+        <v>57.77777777777777</v>
       </c>
       <c r="F93">
-        <v>41.66666666666667</v>
+        <v>0</v>
       </c>
       <c r="G93">
-        <v>156.6966683630845</v>
+        <v>91.94040681320195</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I93">
         <v>0</v>
@@ -4155,36 +4071,36 @@
         <v>0</v>
       </c>
       <c r="L93">
-        <v>64</v>
+        <v>150</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 06</t>
+          <t>Methow River McFarland 05</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-McFarland Creek</t>
         </is>
       </c>
       <c r="D94">
-        <v>41.40452926434025</v>
+        <v>45.51457291640889</v>
       </c>
       <c r="E94">
-        <v>44.44444444444444</v>
+        <v>57.77777777777777</v>
       </c>
       <c r="F94">
-        <v>41.66666666666667</v>
+        <v>0</v>
       </c>
       <c r="G94">
-        <v>127.5156403754514</v>
+        <v>103.2923506941867</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -4196,39 +4112,39 @@
         <v>0</v>
       </c>
       <c r="L94">
-        <v>112</v>
+        <v>145</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 07</t>
+          <t>Methow River McFarland 06</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-McFarland Creek</t>
         </is>
       </c>
       <c r="D95">
-        <v>49.48033511287066</v>
+        <v>62.11337716074016</v>
       </c>
       <c r="E95">
-        <v>44.44444444444444</v>
+        <v>48.88888888888889</v>
       </c>
       <c r="F95">
-        <v>41.66666666666667</v>
+        <v>0</v>
       </c>
       <c r="G95">
-        <v>135.5914462239818</v>
+        <v>111.002266049629</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -4237,36 +4153,36 @@
         <v>0</v>
       </c>
       <c r="L95">
-        <v>94</v>
+        <v>137</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 08</t>
+          <t>Methow River Rattlesnake 01</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="D96">
-        <v>2.388434946574482</v>
+        <v>82.38008539503814</v>
       </c>
       <c r="E96">
-        <v>55.55555555555556</v>
+        <v>28.88888888888889</v>
       </c>
       <c r="F96">
-        <v>58.33333333333334</v>
+        <v>0</v>
       </c>
       <c r="G96">
-        <v>116.2773238354634</v>
+        <v>111.268974283927</v>
       </c>
       <c r="H96">
         <v>3</v>
@@ -4278,39 +4194,39 @@
         <v>0</v>
       </c>
       <c r="L96">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 09</t>
+          <t>Methow River Rattlesnake 02</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="D97">
-        <v>94.4274257451607</v>
+        <v>75.93111651357249</v>
       </c>
       <c r="E97">
-        <v>57.77777777777777</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="F97">
-        <v>66.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="G97">
-        <v>218.8718701896052</v>
+        <v>122.5977831802392</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -4319,36 +4235,36 @@
         <v>0</v>
       </c>
       <c r="L97">
-        <v>8</v>
+        <v>125</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 10</t>
+          <t>Methow River Rattlesnake 03</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="D98">
-        <v>100</v>
+        <v>82.02808721243393</v>
       </c>
       <c r="E98">
-        <v>57.77777777777777</v>
+        <v>48.88888888888889</v>
       </c>
       <c r="F98">
-        <v>66.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="G98">
-        <v>224.4444444444444</v>
+        <v>130.9169761013228</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -4360,36 +4276,36 @@
         <v>0</v>
       </c>
       <c r="L98">
-        <v>5</v>
+        <v>106</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 11</t>
+          <t>Methow River Rattlesnake 04</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="D99">
         <v>100</v>
       </c>
       <c r="E99">
-        <v>55.55555555555556</v>
+        <v>35.55555555555555</v>
       </c>
       <c r="F99">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G99">
-        <v>205.5555555555555</v>
+        <v>135.5555555555555</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -4401,13 +4317,13 @@
         <v>0</v>
       </c>
       <c r="L99">
-        <v>17</v>
+        <v>99</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 12</t>
+          <t>Nason Creek Lower 01</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -4421,19 +4337,19 @@
         </is>
       </c>
       <c r="D100">
-        <v>100</v>
+        <v>85.49378663891662</v>
       </c>
       <c r="E100">
-        <v>53.33333333333334</v>
+        <v>20</v>
       </c>
       <c r="F100">
-        <v>41.66666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="G100">
-        <v>195</v>
+        <v>138.8271199722499</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -4442,13 +4358,13 @@
         <v>0</v>
       </c>
       <c r="L100">
-        <v>22</v>
+        <v>93</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 13</t>
+          <t>Nason Creek Lower 02</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -4462,19 +4378,19 @@
         </is>
       </c>
       <c r="D101">
-        <v>89.03681707418826</v>
+        <v>60</v>
       </c>
       <c r="E101">
-        <v>53.33333333333334</v>
+        <v>11.11111111111112</v>
       </c>
       <c r="F101">
-        <v>41.66666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="G101">
-        <v>184.0368170741883</v>
+        <v>104.4444444444444</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -4483,13 +4399,13 @@
         <v>0</v>
       </c>
       <c r="L101">
-        <v>34</v>
+        <v>142</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 14</t>
+          <t>Nason Creek Lower 03</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -4503,19 +4419,19 @@
         </is>
       </c>
       <c r="D102">
-        <v>30.59710789120315</v>
+        <v>84.3515167253664</v>
       </c>
       <c r="E102">
-        <v>53.33333333333334</v>
+        <v>24.44444444444445</v>
       </c>
       <c r="F102">
-        <v>41.66666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="G102">
-        <v>125.5971078912032</v>
+        <v>142.1292945031442</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I102">
         <v>0</v>
@@ -4524,13 +4440,13 @@
         <v>0</v>
       </c>
       <c r="L102">
-        <v>118</v>
+        <v>87</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 15</t>
+          <t>Nason Creek Lower 04</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -4544,19 +4460,19 @@
         </is>
       </c>
       <c r="D103">
-        <v>47.10807995455942</v>
+        <v>81.64245837892949</v>
       </c>
       <c r="E103">
-        <v>40</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="F103">
-        <v>33.33333333333333</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="G103">
-        <v>120.4414132878927</v>
+        <v>167.7535694900406</v>
       </c>
       <c r="H103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -4565,39 +4481,39 @@
         <v>0</v>
       </c>
       <c r="L103">
-        <v>123</v>
+        <v>51</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Omak 16-1</t>
+          <t>Nason Creek Lower 05</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower DS</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D104">
-        <v>94.17482327351821</v>
+        <v>70.58555725197336</v>
       </c>
       <c r="E104">
-        <v>86.85472593467416</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="F104">
-        <v>16.66666666666666</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="G104">
-        <v>197.696215874859</v>
+        <v>158.9188905853067</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -4605,43 +4521,40 @@
       <c r="J104">
         <v>0</v>
       </c>
-      <c r="K104">
-        <v>1</v>
-      </c>
       <c r="L104">
-        <v>19</v>
+        <v>63</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Omak 16-2</t>
+          <t>Nason Creek Lower 06</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower DS</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D105">
-        <v>13.43201477698263</v>
+        <v>41.40452926434025</v>
       </c>
       <c r="E105">
-        <v>80.70442515505053</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="F105">
-        <v>33.33333333333333</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="G105">
-        <v>127.4697732653665</v>
+        <v>127.5156403754514</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -4649,43 +4562,40 @@
       <c r="J105">
         <v>0</v>
       </c>
-      <c r="K105">
-        <v>2</v>
-      </c>
       <c r="L105">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Omak 16-3</t>
+          <t>Nason Creek Lower 07</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower DS</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D106">
-        <v>70.84015435609901</v>
+        <v>49.48033511287066</v>
       </c>
       <c r="E106">
-        <v>79.40907453322464</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="F106">
-        <v>33.33333333333333</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="G106">
-        <v>183.582562222657</v>
+        <v>135.5914462239818</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -4693,43 +4603,40 @@
       <c r="J106">
         <v>0</v>
       </c>
-      <c r="K106">
-        <v>4</v>
-      </c>
       <c r="L106">
-        <v>35</v>
+        <v>98</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Omak 16-4</t>
+          <t>Nason Creek Lower 08</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower DS</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D107">
-        <v>73.37991847600033</v>
+        <v>2.388434946574482</v>
       </c>
       <c r="E107">
-        <v>76.65569924104071</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="F107">
-        <v>33.33333333333333</v>
+        <v>58.33333333333334</v>
       </c>
       <c r="G107">
-        <v>183.3689510503744</v>
+        <v>116.2773238354634</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -4737,40 +4644,37 @@
       <c r="J107">
         <v>0</v>
       </c>
-      <c r="K107">
-        <v>6</v>
-      </c>
       <c r="L107">
-        <v>36</v>
+        <v>130</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Omak 16-5</t>
+          <t>Nason Creek Lower 09</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower US</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D108">
-        <v>16.37848668882959</v>
+        <v>94.4274257451607</v>
       </c>
       <c r="E108">
-        <v>100</v>
+        <v>57.77777777777777</v>
       </c>
       <c r="F108">
-        <v>33.33333333333333</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="G108">
-        <v>149.7118200221629</v>
+        <v>218.8718701896052</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -4781,43 +4685,40 @@
       <c r="J108">
         <v>0</v>
       </c>
-      <c r="K108">
-        <v>8</v>
-      </c>
       <c r="L108">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Omak 16-6</t>
+          <t>Nason Creek Lower 10</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower US</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D109">
-        <v>5.200579157604852</v>
+        <v>100</v>
       </c>
       <c r="E109">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F109">
-        <v>33.33333333333333</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="G109">
-        <v>138.5339124909382</v>
+        <v>226.6666666666667</v>
       </c>
       <c r="H109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I109">
         <v>0</v>
@@ -4825,43 +4726,40 @@
       <c r="J109">
         <v>0</v>
       </c>
-      <c r="K109">
-        <v>2</v>
-      </c>
       <c r="L109">
-        <v>89</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Omak 16-7</t>
+          <t>Nason Creek Lower 11</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower US</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D110">
-        <v>29.18204219003546</v>
+        <v>100</v>
       </c>
       <c r="E110">
-        <v>100</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="F110">
-        <v>33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="G110">
-        <v>162.5153755233688</v>
+        <v>205.5555555555555</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110">
         <v>0</v>
@@ -4869,40 +4767,37 @@
       <c r="J110">
         <v>0</v>
       </c>
-      <c r="K110">
-        <v>5</v>
-      </c>
       <c r="L110">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Omak 16-8</t>
+          <t>Nason Creek Lower 12</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower US</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D111">
-        <v>57.39958642383489</v>
+        <v>100</v>
       </c>
       <c r="E111">
-        <v>100</v>
+        <v>53.33333333333334</v>
       </c>
       <c r="F111">
-        <v>33.33333333333333</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="G111">
-        <v>190.7329197571682</v>
+        <v>195</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -4913,43 +4808,40 @@
       <c r="J111">
         <v>0</v>
       </c>
-      <c r="K111">
-        <v>6</v>
-      </c>
       <c r="L111">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Omak 16-9</t>
+          <t>Nason Creek Lower 13</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower US</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D112">
-        <v>18.59366890069403</v>
+        <v>89.03681707418826</v>
       </c>
       <c r="E112">
-        <v>100</v>
+        <v>53.33333333333334</v>
       </c>
       <c r="F112">
-        <v>33.33333333333333</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="G112">
-        <v>151.9270022340274</v>
+        <v>184.0368170741883</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112">
         <v>0</v>
@@ -4957,40 +4849,37 @@
       <c r="J112">
         <v>0</v>
       </c>
-      <c r="K112">
-        <v>3</v>
-      </c>
       <c r="L112">
-        <v>71</v>
+        <v>37</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Salmon 16-1</t>
+          <t>Nason Creek Lower 14</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D113">
-        <v>49.91330716910571</v>
+        <v>30.59710789120315</v>
       </c>
       <c r="E113">
-        <v>94.18430220496438</v>
+        <v>53.33333333333334</v>
       </c>
       <c r="F113">
-        <v>25</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="G113">
-        <v>169.0976093740701</v>
+        <v>125.5971078912032</v>
       </c>
       <c r="H113">
         <v>3</v>
@@ -5001,43 +4890,40 @@
       <c r="J113">
         <v>0</v>
       </c>
-      <c r="K113">
-        <v>1</v>
-      </c>
       <c r="L113">
-        <v>46</v>
+        <v>119</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Salmon 16-10</t>
+          <t>Nason Creek Lower 15</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D114">
-        <v>12.44070883508962</v>
+        <v>47.10807995455942</v>
       </c>
       <c r="E114">
-        <v>37.33820785794291</v>
+        <v>40</v>
       </c>
       <c r="F114">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="G114">
-        <v>74.77891669303253</v>
+        <v>120.4414132878927</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I114">
         <v>0</v>
@@ -5045,17 +4931,14 @@
       <c r="J114">
         <v>0</v>
       </c>
-      <c r="K114">
-        <v>9</v>
-      </c>
       <c r="L114">
-        <v>154</v>
+        <v>127</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Salmon 16-11</t>
+          <t>Omak 16-1</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -5065,23 +4948,23 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Omak Creek-Lower DS</t>
         </is>
       </c>
       <c r="D115">
-        <v>39.11139432932308</v>
+        <v>94.17482327351821</v>
       </c>
       <c r="E115">
-        <v>12.7697279929931</v>
+        <v>86.85472593467416</v>
       </c>
       <c r="F115">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G115">
-        <v>76.88112232231617</v>
+        <v>231.0295492081924</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I115">
         <v>0</v>
@@ -5090,16 +4973,16 @@
         <v>0</v>
       </c>
       <c r="K115">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L115">
-        <v>153</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Salmon 16-13</t>
+          <t>Omak 16-2</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -5109,23 +4992,23 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Omak Creek-Lower DS</t>
         </is>
       </c>
       <c r="D116">
-        <v>50.19589933065281</v>
+        <v>13.43201477698263</v>
       </c>
       <c r="E116">
-        <v>34.57196229431558</v>
+        <v>80.70442515505053</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="G116">
-        <v>84.76786162496839</v>
+        <v>151.2792970748903</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116">
         <v>0</v>
@@ -5134,16 +5017,16 @@
         <v>0</v>
       </c>
       <c r="K116">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="L116">
-        <v>148</v>
+        <v>73</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Salmon 16-3</t>
+          <t>Omak 16-3</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -5153,23 +5036,23 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Omak Creek-Lower DS</t>
         </is>
       </c>
       <c r="D117">
-        <v>42.29866038169604</v>
+        <v>70.84015435609901</v>
       </c>
       <c r="E117">
-        <v>95.40017120304125</v>
+        <v>79.40907453322464</v>
       </c>
       <c r="F117">
-        <v>25</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="G117">
-        <v>162.6988315847373</v>
+        <v>178.8206574607522</v>
       </c>
       <c r="H117">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I117">
         <v>0</v>
@@ -5178,16 +5061,16 @@
         <v>0</v>
       </c>
       <c r="K117">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L117">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Salmon 16-4</t>
+          <t>Omak 16-4</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -5197,41 +5080,41 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Omak Creek-Lower DS</t>
         </is>
       </c>
       <c r="D118">
-        <v>61.21972936706004</v>
+        <v>73.37991847600033</v>
       </c>
       <c r="E118">
-        <v>32.11591577283121</v>
+        <v>76.65569924104071</v>
       </c>
       <c r="F118">
-        <v>25</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="G118">
-        <v>118.3356451398913</v>
+        <v>192.8927605741839</v>
       </c>
       <c r="H118">
         <v>1</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118">
         <v>0</v>
       </c>
       <c r="K118">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L118">
-        <v>126</v>
+        <v>30</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Salmon 16-5</t>
+          <t>Omak 16-5</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -5241,20 +5124,20 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D119">
-        <v>38.57403949197322</v>
+        <v>16.37848668882959</v>
       </c>
       <c r="E119">
-        <v>31.8991423793819</v>
+        <v>100</v>
       </c>
       <c r="F119">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="G119">
-        <v>95.47318187135512</v>
+        <v>153.8784866888296</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -5266,16 +5149,16 @@
         <v>0</v>
       </c>
       <c r="K119">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L119">
-        <v>145</v>
+        <v>70</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Salmon 16-6</t>
+          <t>Omak 16-6</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -5285,23 +5168,23 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D120">
-        <v>86.71407722197918</v>
+        <v>5.200579157604852</v>
       </c>
       <c r="E120">
-        <v>21.69835359836432</v>
+        <v>100</v>
       </c>
       <c r="F120">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="G120">
-        <v>133.4124308203435</v>
+        <v>142.7005791576049</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I120">
         <v>0</v>
@@ -5310,16 +5193,16 @@
         <v>0</v>
       </c>
       <c r="K120">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="L120">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Salmon 16-7</t>
+          <t>Omak 16-7</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -5329,23 +5212,23 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D121">
-        <v>9.40098230509123</v>
+        <v>29.18204219003546</v>
       </c>
       <c r="E121">
-        <v>47.19670622139288</v>
+        <v>100</v>
       </c>
       <c r="F121">
-        <v>25</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="G121">
-        <v>81.59768852648411</v>
+        <v>186.3248993328926</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121">
         <v>0</v>
@@ -5354,16 +5237,16 @@
         <v>0</v>
       </c>
       <c r="K121">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="L121">
-        <v>150</v>
+        <v>35</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Salmon 16-8</t>
+          <t>Omak 16-8</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -5373,23 +5256,23 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D122">
-        <v>17.98763439738011</v>
+        <v>57.39958642383489</v>
       </c>
       <c r="E122">
-        <v>30.11749791566473</v>
+        <v>100</v>
       </c>
       <c r="F122">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="G122">
-        <v>73.10513231304483</v>
+        <v>194.8995864238349</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122">
         <v>0</v>
@@ -5398,16 +5281,16 @@
         <v>0</v>
       </c>
       <c r="K122">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L122">
-        <v>155</v>
+        <v>26</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Salmon 16-9</t>
+          <t>Omak 16-9</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -5417,41 +5300,41 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D123">
-        <v>68.77662469825343</v>
+        <v>18.59366890069403</v>
       </c>
       <c r="E123">
-        <v>21.07082064919569</v>
+        <v>100</v>
       </c>
       <c r="F123">
-        <v>25</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="G123">
-        <v>114.8474453474491</v>
+        <v>161.4508117578369</v>
       </c>
       <c r="H123">
+        <v>2</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
         <v>3</v>
       </c>
-      <c r="I123">
-        <v>0</v>
-      </c>
-      <c r="J123">
-        <v>0</v>
-      </c>
-      <c r="K123">
-        <v>5</v>
-      </c>
       <c r="L123">
-        <v>129</v>
+        <v>59</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Similkameen 16-1</t>
+          <t>Salmon 16-1</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -5461,41 +5344,41 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Similkameen River</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D124">
-        <v>89.54765767840669</v>
+        <v>49.91330716910571</v>
       </c>
       <c r="E124">
-        <v>71.00621701555278</v>
+        <v>94.18430220496438</v>
       </c>
       <c r="F124">
-        <v>50</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="G124">
-        <v>210.5538746939595</v>
+        <v>177.4309427074034</v>
       </c>
       <c r="H124">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I124">
         <v>0</v>
       </c>
       <c r="J124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L124">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Similkameen 16-2</t>
+          <t>Salmon 16-10</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -5505,20 +5388,20 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Similkameen River</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D125">
-        <v>100</v>
+        <v>12.44070883508962</v>
       </c>
       <c r="E125">
-        <v>60.77732822839733</v>
+        <v>37.33820785794291</v>
       </c>
       <c r="F125">
-        <v>50</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="G125">
-        <v>210.7773282283973</v>
+        <v>94.22336113747697</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -5530,16 +5413,16 @@
         <v>0</v>
       </c>
       <c r="K125">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L125">
-        <v>13</v>
+        <v>149</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Similkameen 16-3</t>
+          <t>Salmon 16-11</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -5549,23 +5432,23 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Similkameen River</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D126">
-        <v>93.12987408131754</v>
+        <v>39.11139432932308</v>
       </c>
       <c r="E126">
-        <v>48.7708799290832</v>
+        <v>12.7697279929931</v>
       </c>
       <c r="F126">
-        <v>50</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="G126">
-        <v>191.9007540104007</v>
+        <v>96.32556676676062</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -5574,16 +5457,16 @@
         <v>0</v>
       </c>
       <c r="K126">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L126">
-        <v>28</v>
+        <v>147</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Similkameen 16-4</t>
+          <t>Salmon 16-12</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -5593,23 +5476,17 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Similkameen River</t>
-        </is>
-      </c>
-      <c r="D127">
-        <v>100</v>
+          <t>Salmon Creek-Lower</t>
+        </is>
       </c>
       <c r="E127">
-        <v>49.66488537430342</v>
+        <v>56.34152777250969</v>
       </c>
       <c r="F127">
-        <v>100</v>
-      </c>
-      <c r="G127">
-        <v>249.6648853743034</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I127">
         <v>0</v>
@@ -5618,16 +5495,16 @@
         <v>0</v>
       </c>
       <c r="K127">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L127">
-        <v>1</v>
+        <v>180</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Similkameen 16-5</t>
+          <t>Salmon 16-13</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -5637,20 +5514,20 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Similkameen River</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D128">
-        <v>35.02680379350559</v>
+        <v>50.19589933065281</v>
       </c>
       <c r="E128">
-        <v>37.07259441958828</v>
+        <v>34.57196229431558</v>
       </c>
       <c r="F128">
-        <v>100</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="G128">
-        <v>172.0993982130939</v>
+        <v>140.323417180524</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -5662,39 +5539,33 @@
         <v>0</v>
       </c>
       <c r="K128">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="L128">
-        <v>44</v>
+        <v>90</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Twisp River Lower 01</t>
+          <t>Salmon 16-2</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
-        </is>
-      </c>
-      <c r="D129">
-        <v>100</v>
+          <t>Salmon Creek-Lower</t>
+        </is>
       </c>
       <c r="E129">
-        <v>64.44444444444444</v>
+        <v>95.79153059480188</v>
       </c>
       <c r="F129">
-        <v>62.5</v>
-      </c>
-      <c r="G129">
-        <v>226.9444444444445</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -5703,124 +5574,133 @@
         <v>0</v>
       </c>
       <c r="J129">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K129">
+        <v>6</v>
       </c>
       <c r="L129">
-        <v>3</v>
+        <v>181</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Twisp River Lower 02</t>
+          <t>Salmon 16-3</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D130">
-        <v>85.21578438901136</v>
+        <v>42.29866038169604</v>
       </c>
       <c r="E130">
-        <v>53.33333333333334</v>
+        <v>95.40017120304125</v>
       </c>
       <c r="F130">
-        <v>37.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="G130">
-        <v>176.0491177223447</v>
+        <v>171.0321649180706</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130">
         <v>0</v>
       </c>
       <c r="J130">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>3</v>
       </c>
       <c r="L130">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Twisp River Lower 03</t>
+          <t>Salmon 16-4</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D131">
-        <v>75.96049349447488</v>
+        <v>61.21972936706004</v>
       </c>
       <c r="E131">
-        <v>62.22222222222222</v>
+        <v>32.11591577283121</v>
       </c>
       <c r="F131">
-        <v>62.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="G131">
-        <v>200.6827157166971</v>
+        <v>126.6689784732246</v>
       </c>
       <c r="H131">
         <v>1</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131">
         <v>0</v>
       </c>
+      <c r="K131">
+        <v>12</v>
+      </c>
       <c r="L131">
-        <v>18</v>
+        <v>116</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Twisp River Lower 04</t>
+          <t>Salmon 16-5</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D132">
-        <v>89.16036088849121</v>
+        <v>38.57403949197322</v>
       </c>
       <c r="E132">
-        <v>62.22222222222222</v>
+        <v>31.8991423793819</v>
       </c>
       <c r="F132">
-        <v>62.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="G132">
-        <v>213.8825831107134</v>
+        <v>103.8065152046885</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132">
         <v>0</v>
@@ -5828,37 +5708,40 @@
       <c r="J132">
         <v>0</v>
       </c>
+      <c r="K132">
+        <v>10</v>
+      </c>
       <c r="L132">
-        <v>11</v>
+        <v>144</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Twisp River Lower 05</t>
+          <t>Salmon 16-6</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D133">
-        <v>69.81772809280523</v>
+        <v>86.71407722197918</v>
       </c>
       <c r="E133">
-        <v>62.22222222222222</v>
+        <v>21.69835359836432</v>
       </c>
       <c r="F133">
-        <v>62.5</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="G133">
-        <v>194.5399503150275</v>
+        <v>130.6346530425657</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -5869,40 +5752,43 @@
       <c r="J133">
         <v>0</v>
       </c>
+      <c r="K133">
+        <v>11</v>
+      </c>
       <c r="L133">
-        <v>24</v>
+        <v>109</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Twisp River Lower 06</t>
+          <t>Salmon 16-7</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D134">
-        <v>61.75524760324507</v>
+        <v>9.40098230509123</v>
       </c>
       <c r="E134">
-        <v>66.66666666666667</v>
+        <v>47.19670622139288</v>
       </c>
       <c r="F134">
-        <v>50</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="G134">
-        <v>178.4219142699117</v>
+        <v>89.93102185981743</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134">
         <v>0</v>
@@ -5910,40 +5796,43 @@
       <c r="J134">
         <v>0</v>
       </c>
+      <c r="K134">
+        <v>14</v>
+      </c>
       <c r="L134">
-        <v>38</v>
+        <v>152</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Twisp River Lower 07</t>
+          <t>Salmon 16-8</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D135">
-        <v>55.35278697152805</v>
+        <v>17.98763439738011</v>
       </c>
       <c r="E135">
-        <v>44.44444444444444</v>
+        <v>30.11749791566473</v>
       </c>
       <c r="F135">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="G135">
-        <v>124.7972314159725</v>
+        <v>81.43846564637816</v>
       </c>
       <c r="H135">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I135">
         <v>0</v>
@@ -5951,37 +5840,40 @@
       <c r="J135">
         <v>0</v>
       </c>
+      <c r="K135">
+        <v>8</v>
+      </c>
       <c r="L135">
-        <v>120</v>
+        <v>156</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Twisp River Lower 08</t>
+          <t>Salmon 16-9</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D136">
-        <v>39.88903924834695</v>
+        <v>68.77662469825343</v>
       </c>
       <c r="E136">
-        <v>48.88888888888889</v>
+        <v>21.07082064919569</v>
       </c>
       <c r="F136">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="G136">
-        <v>113.7779281372359</v>
+        <v>123.1807786807825</v>
       </c>
       <c r="H136">
         <v>3</v>
@@ -5992,81 +5884,87 @@
       <c r="J136">
         <v>0</v>
       </c>
+      <c r="K136">
+        <v>5</v>
+      </c>
       <c r="L136">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Twisp River Lower 09</t>
+          <t>Similkameen 16-1</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Similkameen River</t>
         </is>
       </c>
       <c r="D137">
-        <v>38.91418617443922</v>
+        <v>89.54765767840669</v>
       </c>
       <c r="E137">
-        <v>55.55555555555556</v>
+        <v>71.00621701555278</v>
       </c>
       <c r="F137">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G137">
-        <v>144.4697417299948</v>
+        <v>240.5538746939595</v>
       </c>
       <c r="H137">
+        <v>3</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
         <v>2</v>
       </c>
-      <c r="I137">
-        <v>0</v>
-      </c>
-      <c r="J137">
-        <v>0</v>
-      </c>
       <c r="L137">
-        <v>81</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Twisp River Lower 10</t>
+          <t>Similkameen 16-2</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Similkameen River</t>
         </is>
       </c>
       <c r="D138">
-        <v>72.65933763461709</v>
+        <v>100</v>
       </c>
       <c r="E138">
-        <v>46.66666666666666</v>
+        <v>60.77732822839733</v>
       </c>
       <c r="F138">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="G138">
-        <v>144.3260043012838</v>
+        <v>240.7773282283973</v>
       </c>
       <c r="H138">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I138">
         <v>0</v>
@@ -6074,37 +5972,40 @@
       <c r="J138">
         <v>0</v>
       </c>
+      <c r="K138">
+        <v>4</v>
+      </c>
       <c r="L138">
-        <v>82</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Twisp River Lower 11</t>
+          <t>Similkameen 16-3</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Similkameen River</t>
         </is>
       </c>
       <c r="D139">
-        <v>88.38500784340779</v>
+        <v>93.12987408131754</v>
       </c>
       <c r="E139">
-        <v>48.88888888888889</v>
+        <v>48.7708799290832</v>
       </c>
       <c r="F139">
-        <v>25</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="G139">
-        <v>162.2738967322967</v>
+        <v>208.5674206770674</v>
       </c>
       <c r="H139">
         <v>2</v>
@@ -6115,37 +6016,40 @@
       <c r="J139">
         <v>0</v>
       </c>
+      <c r="K139">
+        <v>3</v>
+      </c>
       <c r="L139">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Twisp River Middle 01</t>
+          <t>Similkameen 16-4</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Similkameen River</t>
         </is>
       </c>
       <c r="D140">
-        <v>96.99902423868772</v>
+        <v>100</v>
       </c>
       <c r="E140">
-        <v>26.66666666666667</v>
+        <v>49.66488537430342</v>
       </c>
       <c r="F140">
-        <v>25</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="G140">
-        <v>148.6656909053544</v>
+        <v>232.9982187076368</v>
       </c>
       <c r="H140">
         <v>1</v>
@@ -6156,40 +6060,43 @@
       <c r="J140">
         <v>0</v>
       </c>
+      <c r="K140">
+        <v>6</v>
+      </c>
       <c r="L140">
-        <v>76</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Twisp River Middle 02</t>
+          <t>Similkameen 16-5</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Similkameen River</t>
         </is>
       </c>
       <c r="D141">
-        <v>94.14263946738888</v>
+        <v>35.02680379350559</v>
       </c>
       <c r="E141">
-        <v>22.22222222222222</v>
+        <v>37.07259441958828</v>
       </c>
       <c r="F141">
-        <v>12.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="G141">
-        <v>128.8648616896111</v>
+        <v>105.4327315464272</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141">
         <v>0</v>
@@ -6197,40 +6104,37 @@
       <c r="J141">
         <v>0</v>
       </c>
+      <c r="K141">
+        <v>5</v>
+      </c>
       <c r="L141">
-        <v>111</v>
+        <v>141</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Twisp River Middle 03</t>
+          <t>Similkameen 16-6</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
-        </is>
-      </c>
-      <c r="D142">
-        <v>49.09931794304519</v>
+          <t>Similkameen River</t>
+        </is>
       </c>
       <c r="E142">
-        <v>37.77777777777778</v>
+        <v>48.21833751207306</v>
       </c>
       <c r="F142">
-        <v>25</v>
-      </c>
-      <c r="G142">
-        <v>111.877095720823</v>
+        <v>50</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I142">
         <v>0</v>
@@ -6238,14 +6142,17 @@
       <c r="J142">
         <v>0</v>
       </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
       <c r="L142">
-        <v>134</v>
+        <v>182</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Twisp River Middle 04</t>
+          <t>Twisp River Lower 01</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -6255,20 +6162,20 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D143">
-        <v>91.80999745138692</v>
+        <v>100</v>
       </c>
       <c r="E143">
-        <v>37.77777777777778</v>
+        <v>64.44444444444444</v>
       </c>
       <c r="F143">
-        <v>25</v>
+        <v>62.5</v>
       </c>
       <c r="G143">
-        <v>154.5877752291647</v>
+        <v>226.9444444444445</v>
       </c>
       <c r="H143">
         <v>1</v>
@@ -6280,13 +6187,13 @@
         <v>0</v>
       </c>
       <c r="L143">
-        <v>69</v>
+        <v>7</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Twisp River Middle 05</t>
+          <t>Twisp River Lower 02</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -6296,23 +6203,23 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D144">
-        <v>100</v>
+        <v>85.21578438901136</v>
       </c>
       <c r="E144">
-        <v>37.77777777777778</v>
+        <v>53.33333333333334</v>
       </c>
       <c r="F144">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="G144">
-        <v>162.7777777777778</v>
+        <v>176.0491177223447</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144">
         <v>0</v>
@@ -6321,13 +6228,13 @@
         <v>0</v>
       </c>
       <c r="L144">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Twisp River Middle 07</t>
+          <t>Twisp River Lower 03</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -6337,23 +6244,23 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D145">
-        <v>42.6890552310836</v>
+        <v>75.96049349447488</v>
       </c>
       <c r="E145">
-        <v>33.33333333333334</v>
+        <v>62.22222222222222</v>
       </c>
       <c r="F145">
-        <v>25</v>
+        <v>62.5</v>
       </c>
       <c r="G145">
-        <v>101.0223885644169</v>
+        <v>200.6827157166971</v>
       </c>
       <c r="H145">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I145">
         <v>0</v>
@@ -6362,13 +6269,13 @@
         <v>0</v>
       </c>
       <c r="L145">
-        <v>143</v>
+        <v>21</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Twisp River Middle 08</t>
+          <t>Twisp River Lower 04</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -6378,23 +6285,23 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D146">
-        <v>37.48068068716065</v>
+        <v>89.16036088849121</v>
       </c>
       <c r="E146">
-        <v>33.33333333333334</v>
+        <v>62.22222222222222</v>
       </c>
       <c r="F146">
-        <v>25</v>
+        <v>62.5</v>
       </c>
       <c r="G146">
-        <v>95.81401402049399</v>
+        <v>213.8825831107134</v>
       </c>
       <c r="H146">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I146">
         <v>0</v>
@@ -6403,39 +6310,39 @@
         <v>0</v>
       </c>
       <c r="L146">
-        <v>144</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 02</t>
+          <t>Twisp River Lower 05</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D147">
-        <v>96.20175247696949</v>
+        <v>69.81772809280523</v>
       </c>
       <c r="E147">
-        <v>28.88888888888889</v>
+        <v>62.22222222222222</v>
       </c>
       <c r="F147">
-        <v>36.36363636363637</v>
+        <v>62.5</v>
       </c>
       <c r="G147">
-        <v>161.4542777294948</v>
+        <v>194.5399503150275</v>
       </c>
       <c r="H147">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I147">
         <v>0</v>
@@ -6444,39 +6351,39 @@
         <v>0</v>
       </c>
       <c r="L147">
-        <v>59</v>
+        <v>29</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 03</t>
+          <t>Twisp River Lower 06</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D148">
-        <v>97.03413539622783</v>
+        <v>61.75524760324507</v>
       </c>
       <c r="E148">
-        <v>44.44444444444444</v>
+        <v>66.66666666666667</v>
       </c>
       <c r="F148">
-        <v>27.27272727272727</v>
+        <v>50</v>
       </c>
       <c r="G148">
-        <v>168.7513071133996</v>
+        <v>178.4219142699117</v>
       </c>
       <c r="H148">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -6485,39 +6392,39 @@
         <v>0</v>
       </c>
       <c r="L148">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 04</t>
+          <t>Twisp River Lower 07</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D149">
-        <v>98.90146404597175</v>
+        <v>55.35278697152805</v>
       </c>
       <c r="E149">
         <v>44.44444444444444</v>
       </c>
       <c r="F149">
-        <v>27.27272727272727</v>
+        <v>25</v>
       </c>
       <c r="G149">
-        <v>170.6186357631435</v>
+        <v>124.7972314159725</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -6526,39 +6433,39 @@
         <v>0</v>
       </c>
       <c r="L149">
-        <v>45</v>
+        <v>121</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 05</t>
+          <t>Twisp River Lower 08</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D150">
-        <v>100</v>
+        <v>39.88903924834695</v>
       </c>
       <c r="E150">
-        <v>62.22222222222222</v>
+        <v>48.88888888888889</v>
       </c>
       <c r="F150">
-        <v>54.54545454545454</v>
+        <v>25</v>
       </c>
       <c r="G150">
-        <v>216.7676767676768</v>
+        <v>113.7779281372359</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -6567,39 +6474,39 @@
         <v>0</v>
       </c>
       <c r="L150">
-        <v>9</v>
+        <v>133</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 06</t>
+          <t>Twisp River Lower 09</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D151">
-        <v>95.90200317285483</v>
+        <v>38.91418617443922</v>
       </c>
       <c r="E151">
-        <v>60</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="F151">
-        <v>54.54545454545454</v>
+        <v>50</v>
       </c>
       <c r="G151">
-        <v>210.4474577183094</v>
+        <v>144.4697417299948</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -6608,39 +6515,39 @@
         <v>0</v>
       </c>
       <c r="L151">
-        <v>15</v>
+        <v>81</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 07</t>
+          <t>Twisp River Lower 10</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D152">
-        <v>94.01528772681414</v>
+        <v>72.65933763461709</v>
       </c>
       <c r="E152">
-        <v>60</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="F152">
-        <v>54.54545454545454</v>
+        <v>25</v>
       </c>
       <c r="G152">
-        <v>208.5607422722687</v>
+        <v>144.3260043012838</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -6649,39 +6556,39 @@
         <v>0</v>
       </c>
       <c r="L152">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 08</t>
+          <t>Twisp River Lower 11</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D153">
-        <v>89.26498987566312</v>
+        <v>88.38500784340779</v>
       </c>
       <c r="E153">
-        <v>60</v>
+        <v>48.88888888888889</v>
       </c>
       <c r="F153">
-        <v>63.63636363636363</v>
+        <v>25</v>
       </c>
       <c r="G153">
-        <v>212.9013535120268</v>
+        <v>162.2738967322967</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -6690,36 +6597,36 @@
         <v>0</v>
       </c>
       <c r="L153">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 09</t>
+          <t>Twisp River Middle 01</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D154">
-        <v>86.22831161270592</v>
+        <v>96.99902423868772</v>
       </c>
       <c r="E154">
-        <v>60</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="F154">
-        <v>72.72727272727273</v>
+        <v>25</v>
       </c>
       <c r="G154">
-        <v>218.9555843399787</v>
+        <v>148.6656909053544</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -6731,39 +6638,39 @@
         <v>0</v>
       </c>
       <c r="L154">
-        <v>7</v>
+        <v>77</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 10</t>
+          <t>Twisp River Middle 02</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D155">
-        <v>76.36710574327366</v>
+        <v>94.14263946738888</v>
       </c>
       <c r="E155">
-        <v>46.66666666666666</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="F155">
-        <v>36.36363636363637</v>
+        <v>12.5</v>
       </c>
       <c r="G155">
-        <v>159.3974087735767</v>
+        <v>128.8648616896111</v>
       </c>
       <c r="H155">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I155">
         <v>0</v>
@@ -6772,36 +6679,36 @@
         <v>0</v>
       </c>
       <c r="L155">
-        <v>62</v>
+        <v>114</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 11</t>
+          <t>Twisp River Middle 03</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D156">
-        <v>96.09095741063084</v>
+        <v>49.09931794304519</v>
       </c>
       <c r="E156">
-        <v>51.11111111111111</v>
+        <v>37.77777777777778</v>
       </c>
       <c r="F156">
-        <v>45.45454545454545</v>
+        <v>25</v>
       </c>
       <c r="G156">
-        <v>192.6566139762874</v>
+        <v>111.877095720823</v>
       </c>
       <c r="H156">
         <v>2</v>
@@ -6813,39 +6720,39 @@
         <v>0</v>
       </c>
       <c r="L156">
-        <v>25</v>
+        <v>135</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 12</t>
+          <t>Twisp River Middle 04</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D157">
-        <v>95.79059566981961</v>
+        <v>91.80999745138692</v>
       </c>
       <c r="E157">
-        <v>51.11111111111111</v>
+        <v>37.77777777777778</v>
       </c>
       <c r="F157">
-        <v>45.45454545454545</v>
+        <v>25</v>
       </c>
       <c r="G157">
-        <v>192.3562522354762</v>
+        <v>154.5877752291647</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157">
         <v>0</v>
@@ -6854,39 +6761,39 @@
         <v>0</v>
       </c>
       <c r="L157">
-        <v>26</v>
+        <v>69</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 01</t>
+          <t>Twisp River Middle 05</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Wenatchee River-Derby Canyon</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D158">
-        <v>95.20124891901783</v>
+        <v>100</v>
       </c>
       <c r="E158">
-        <v>48.88888888888889</v>
+        <v>37.77777777777778</v>
       </c>
       <c r="F158">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G158">
-        <v>184.0901378079067</v>
+        <v>162.7777777777778</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158">
         <v>0</v>
@@ -6895,39 +6802,39 @@
         <v>0</v>
       </c>
       <c r="L158">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 02</t>
+          <t>Twisp River Middle 07</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Wenatchee River-Derby Canyon</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D159">
-        <v>100</v>
+        <v>42.6890552310836</v>
       </c>
       <c r="E159">
-        <v>44.44444444444444</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="F159">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G159">
-        <v>184.4444444444445</v>
+        <v>101.0223885644169</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I159">
         <v>0</v>
@@ -6936,39 +6843,39 @@
         <v>0</v>
       </c>
       <c r="L159">
-        <v>31</v>
+        <v>146</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 03</t>
+          <t>Twisp River Middle 08</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Wenatchee River-Derby Canyon</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D160">
-        <v>95.37960262639852</v>
+        <v>37.48068068716065</v>
       </c>
       <c r="E160">
-        <v>48.88888888888889</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="F160">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G160">
-        <v>184.2684915152874</v>
+        <v>95.81401402049399</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I160">
         <v>0</v>
@@ -6977,13 +6884,13 @@
         <v>0</v>
       </c>
       <c r="L160">
-        <v>32</v>
+        <v>148</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 04</t>
+          <t>Wenatchee River Beaver 02</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -6993,23 +6900,23 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Wenatchee River-Derby Canyon</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D161">
-        <v>94.1326291369481</v>
+        <v>96.20175247696949</v>
       </c>
       <c r="E161">
-        <v>42.22222222222223</v>
+        <v>28.88888888888889</v>
       </c>
       <c r="F161">
-        <v>20</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="G161">
-        <v>156.3548513591703</v>
+        <v>161.4542777294948</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I161">
         <v>0</v>
@@ -7018,13 +6925,13 @@
         <v>0</v>
       </c>
       <c r="L161">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 05</t>
+          <t>Wenatchee River Beaver 03</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -7034,20 +6941,20 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Wenatchee River-Derby Canyon</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D162">
-        <v>21.74096556851031</v>
+        <v>97.03413539622783</v>
       </c>
       <c r="E162">
-        <v>37.77777777777778</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="F162">
-        <v>20</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="G162">
-        <v>79.51874334628809</v>
+        <v>168.7513071133996</v>
       </c>
       <c r="H162">
         <v>3</v>
@@ -7059,13 +6966,13 @@
         <v>0</v>
       </c>
       <c r="L162">
-        <v>152</v>
+        <v>50</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 06</t>
+          <t>Wenatchee River Beaver 04</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -7075,23 +6982,23 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D163">
-        <v>100</v>
+        <v>98.90146404597175</v>
       </c>
       <c r="E163">
         <v>44.44444444444444</v>
       </c>
       <c r="F163">
-        <v>20</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="G163">
-        <v>164.4444444444445</v>
+        <v>170.6186357631435</v>
       </c>
       <c r="H163">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I163">
         <v>0</v>
@@ -7100,13 +7007,13 @@
         <v>0</v>
       </c>
       <c r="L163">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Wenatchee River Nahahum 07</t>
+          <t>Wenatchee River Beaver 05</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -7116,20 +7023,20 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Wenatchee River-Ollala Canyon</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D164">
-        <v>99.57086091932047</v>
+        <v>100</v>
       </c>
       <c r="E164">
-        <v>57.77777777777777</v>
+        <v>64.44444444444444</v>
       </c>
       <c r="F164">
-        <v>40</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="G164">
-        <v>197.3486386970982</v>
+        <v>218.989898989899</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -7141,13 +7048,13 @@
         <v>0</v>
       </c>
       <c r="L164">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Wenatchee River Ollala 01</t>
+          <t>Wenatchee River Beaver 06</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -7157,23 +7064,23 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Wenatchee River-Ollala Canyon</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D165">
-        <v>90.26590852326144</v>
+        <v>95.90200317285483</v>
       </c>
       <c r="E165">
-        <v>57.77777777777777</v>
+        <v>60</v>
       </c>
       <c r="F165">
-        <v>40</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="G165">
-        <v>188.0436863010392</v>
+        <v>210.4474577183094</v>
       </c>
       <c r="H165">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I165">
         <v>0</v>
@@ -7182,13 +7089,13 @@
         <v>0</v>
       </c>
       <c r="L165">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Wenatchee River Ollala 02</t>
+          <t>Wenatchee River Beaver 07</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -7198,23 +7105,23 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Wenatchee River-Ollala Canyon</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D166">
-        <v>100</v>
+        <v>94.01528772681414</v>
       </c>
       <c r="E166">
-        <v>55.55555555555556</v>
+        <v>60</v>
       </c>
       <c r="F166">
-        <v>40</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="G166">
-        <v>195.5555555555555</v>
+        <v>208.5607422722687</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -7223,13 +7130,13 @@
         <v>0</v>
       </c>
       <c r="L166">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Wenatchee River Ollala 03</t>
+          <t>Wenatchee River Beaver 08</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -7239,23 +7146,23 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Wenatchee River-Ollala Canyon</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D167">
-        <v>94.78947209060871</v>
+        <v>89.26498987566312</v>
       </c>
       <c r="E167">
         <v>60</v>
       </c>
       <c r="F167">
-        <v>40</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="G167">
-        <v>194.7894720906087</v>
+        <v>212.9013535120268</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -7264,13 +7171,13 @@
         <v>0</v>
       </c>
       <c r="L167">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Wenatchee River Tumwater 01</t>
+          <t>Wenatchee River Beaver 09</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -7280,20 +7187,20 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D168">
-        <v>98.76523600127072</v>
+        <v>86.22831161270592</v>
       </c>
       <c r="E168">
-        <v>48.88888888888889</v>
+        <v>60</v>
       </c>
       <c r="F168">
-        <v>100</v>
+        <v>72.72727272727273</v>
       </c>
       <c r="G168">
-        <v>247.6541248901596</v>
+        <v>218.9555843399787</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -7305,13 +7212,13 @@
         <v>0</v>
       </c>
       <c r="L168">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Wenatchee River Tumwater 02</t>
+          <t>Wenatchee River Beaver 10</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -7321,23 +7228,23 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D169">
-        <v>18.77286529899376</v>
+        <v>76.36710574327366</v>
       </c>
       <c r="E169">
         <v>46.66666666666666</v>
       </c>
       <c r="F169">
-        <v>100</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="G169">
-        <v>165.4395319656604</v>
+        <v>159.3974087735767</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I169">
         <v>0</v>
@@ -7346,13 +7253,13 @@
         <v>0</v>
       </c>
       <c r="L169">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Wenatchee River Tumwater 03</t>
+          <t>Wenatchee River Beaver 11</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -7362,14 +7269,23 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D170">
-        <v>54.41917355579435</v>
+        <v>96.09095741063084</v>
+      </c>
+      <c r="E170">
+        <v>53.33333333333334</v>
       </c>
       <c r="F170">
-        <v>100</v>
+        <v>45.45454545454545</v>
+      </c>
+      <c r="G170">
+        <v>194.8788361985096</v>
+      </c>
+      <c r="H170">
+        <v>2</v>
       </c>
       <c r="I170">
         <v>0</v>
@@ -7378,13 +7294,13 @@
         <v>0</v>
       </c>
       <c r="L170">
-        <v>169</v>
+        <v>27</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Wenatchee River Tumwater 04</t>
+          <t>Wenatchee River Beaver 12</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -7394,14 +7310,23 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D171">
-        <v>65.49117618115952</v>
+        <v>95.79059566981961</v>
+      </c>
+      <c r="E171">
+        <v>51.11111111111111</v>
       </c>
       <c r="F171">
-        <v>100</v>
+        <v>45.45454545454545</v>
+      </c>
+      <c r="G171">
+        <v>192.3562522354762</v>
+      </c>
+      <c r="H171">
+        <v>2</v>
       </c>
       <c r="I171">
         <v>0</v>
@@ -7410,13 +7335,13 @@
         <v>0</v>
       </c>
       <c r="L171">
-        <v>170</v>
+        <v>31</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Wenatchee River Tumwater 05</t>
+          <t>Wenatchee River Derby 01</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -7426,14 +7351,23 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
+          <t>Wenatchee River-Derby Canyon</t>
         </is>
       </c>
       <c r="D172">
-        <v>15</v>
+        <v>95.20124891901783</v>
+      </c>
+      <c r="E172">
+        <v>51.11111111111111</v>
       </c>
       <c r="F172">
-        <v>100</v>
+        <v>40</v>
+      </c>
+      <c r="G172">
+        <v>186.3123600301289</v>
+      </c>
+      <c r="H172">
+        <v>2</v>
       </c>
       <c r="I172">
         <v>0</v>
@@ -7442,13 +7376,13 @@
         <v>0</v>
       </c>
       <c r="L172">
-        <v>171</v>
+        <v>36</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Wenatchee River Tumwater 06</t>
+          <t>Wenatchee River Derby 02</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -7458,14 +7392,23 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
+          <t>Wenatchee River-Derby Canyon</t>
         </is>
       </c>
       <c r="D173">
-        <v>13.33508090201708</v>
+        <v>100</v>
+      </c>
+      <c r="E173">
+        <v>46.66666666666666</v>
       </c>
       <c r="F173">
-        <v>100</v>
+        <v>40</v>
+      </c>
+      <c r="G173">
+        <v>186.6666666666667</v>
+      </c>
+      <c r="H173">
+        <v>1</v>
       </c>
       <c r="I173">
         <v>0</v>
@@ -7474,13 +7417,13 @@
         <v>0</v>
       </c>
       <c r="L173">
-        <v>172</v>
+        <v>33</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Wenatchee River Tumwater 07</t>
+          <t>Wenatchee River Derby 03</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -7490,14 +7433,23 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
+          <t>Wenatchee River-Derby Canyon</t>
         </is>
       </c>
       <c r="D174">
-        <v>22.85497649978766</v>
+        <v>95.37960262639852</v>
+      </c>
+      <c r="E174">
+        <v>51.11111111111111</v>
       </c>
       <c r="F174">
-        <v>100</v>
+        <v>40</v>
+      </c>
+      <c r="G174">
+        <v>186.4907137375096</v>
+      </c>
+      <c r="H174">
+        <v>1</v>
       </c>
       <c r="I174">
         <v>0</v>
@@ -7506,42 +7458,54 @@
         <v>0</v>
       </c>
       <c r="L174">
-        <v>173</v>
+        <v>34</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Mad River Lower 02</t>
+          <t>Wenatchee River Derby 04</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Lower Mad River</t>
-        </is>
+          <t>Wenatchee River-Derby Canyon</t>
+        </is>
+      </c>
+      <c r="D175">
+        <v>94.1326291369481</v>
+      </c>
+      <c r="E175">
+        <v>44.44444444444444</v>
+      </c>
+      <c r="F175">
+        <v>20</v>
+      </c>
+      <c r="G175">
+        <v>158.5770735813925</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175">
         <v>0</v>
       </c>
       <c r="L175">
-        <v>174</v>
+        <v>65</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Mission Creek 01</t>
+          <t>Wenatchee River Derby 05</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -7551,26 +7515,38 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Mission Creek-Brender Creek</t>
-        </is>
+          <t>Wenatchee River-Derby Canyon</t>
+        </is>
+      </c>
+      <c r="D176">
+        <v>21.74096556851031</v>
+      </c>
+      <c r="E176">
+        <v>40</v>
+      </c>
+      <c r="F176">
+        <v>20</v>
+      </c>
+      <c r="G176">
+        <v>81.74096556851032</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J176">
         <v>0</v>
       </c>
       <c r="L176">
-        <v>175</v>
+        <v>154</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Mission Creek 02</t>
+          <t>Wenatchee River Derby 06</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -7580,84 +7556,618 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Mission Creek-Brender Creek</t>
-        </is>
+          <t>Wenatchee River-Tumwater Canyon</t>
+        </is>
+      </c>
+      <c r="D177">
+        <v>100</v>
+      </c>
+      <c r="E177">
+        <v>44.44444444444444</v>
+      </c>
+      <c r="F177">
+        <v>20</v>
+      </c>
+      <c r="G177">
+        <v>164.4444444444445</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177">
         <v>0</v>
       </c>
       <c r="L177">
-        <v>176</v>
+        <v>53</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Aeneas 16-1</t>
+          <t>Wenatchee River Nahahum 07</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Aeneas Creek-DS</t>
-        </is>
+          <t>Wenatchee River-Ollala Canyon</t>
+        </is>
+      </c>
+      <c r="D178">
+        <v>99.57086091932047</v>
+      </c>
+      <c r="E178">
+        <v>57.77777777777777</v>
+      </c>
+      <c r="F178">
+        <v>40</v>
+      </c>
+      <c r="G178">
+        <v>197.3486386970982</v>
       </c>
       <c r="H178">
         <v>1</v>
       </c>
       <c r="I178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J178">
         <v>0</v>
       </c>
-      <c r="K178">
-        <v>3</v>
-      </c>
       <c r="L178">
-        <v>177</v>
+        <v>22</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
+          <t>Wenatchee River Ollala 01</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Ollala Canyon</t>
+        </is>
+      </c>
+      <c r="D179">
+        <v>90.26590852326144</v>
+      </c>
+      <c r="E179">
+        <v>57.77777777777777</v>
+      </c>
+      <c r="F179">
+        <v>40</v>
+      </c>
+      <c r="G179">
+        <v>188.0436863010392</v>
+      </c>
+      <c r="H179">
+        <v>3</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Wenatchee River Ollala 02</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Ollala Canyon</t>
+        </is>
+      </c>
+      <c r="D180">
+        <v>100</v>
+      </c>
+      <c r="E180">
+        <v>55.55555555555556</v>
+      </c>
+      <c r="F180">
+        <v>40</v>
+      </c>
+      <c r="G180">
+        <v>195.5555555555555</v>
+      </c>
+      <c r="H180">
+        <v>1</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Wenatchee River Ollala 03</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Ollala Canyon</t>
+        </is>
+      </c>
+      <c r="D181">
+        <v>94.78947209060871</v>
+      </c>
+      <c r="E181">
+        <v>60</v>
+      </c>
+      <c r="F181">
+        <v>40</v>
+      </c>
+      <c r="G181">
+        <v>194.7894720906087</v>
+      </c>
+      <c r="H181">
+        <v>2</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Wenatchee River Tumwater 01</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Tumwater Canyon</t>
+        </is>
+      </c>
+      <c r="D182">
+        <v>98.76523600127072</v>
+      </c>
+      <c r="E182">
+        <v>51.11111111111111</v>
+      </c>
+      <c r="F182">
+        <v>100</v>
+      </c>
+      <c r="G182">
+        <v>249.8763471123818</v>
+      </c>
+      <c r="H182">
+        <v>1</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="L182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Wenatchee River Tumwater 02</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Tumwater Canyon</t>
+        </is>
+      </c>
+      <c r="D183">
+        <v>18.77286529899376</v>
+      </c>
+      <c r="E183">
+        <v>48.88888888888889</v>
+      </c>
+      <c r="F183">
+        <v>100</v>
+      </c>
+      <c r="G183">
+        <v>167.6617541878827</v>
+      </c>
+      <c r="H183">
+        <v>2</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Wenatchee River Tumwater 03</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Tumwater Canyon</t>
+        </is>
+      </c>
+      <c r="D184">
+        <v>54.41917355579435</v>
+      </c>
+      <c r="F184">
+        <v>100</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="L184">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Wenatchee River Tumwater 04</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Tumwater Canyon</t>
+        </is>
+      </c>
+      <c r="D185">
+        <v>65.49117618115952</v>
+      </c>
+      <c r="F185">
+        <v>100</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="L185">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Wenatchee River Tumwater 05</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Tumwater Canyon</t>
+        </is>
+      </c>
+      <c r="D186">
+        <v>15</v>
+      </c>
+      <c r="F186">
+        <v>100</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="L186">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Wenatchee River Tumwater 06</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Tumwater Canyon</t>
+        </is>
+      </c>
+      <c r="D187">
+        <v>13.33508090201708</v>
+      </c>
+      <c r="F187">
+        <v>100</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Wenatchee River Tumwater 07</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Wenatchee River-Tumwater Canyon</t>
+        </is>
+      </c>
+      <c r="D188">
+        <v>22.85497649978766</v>
+      </c>
+      <c r="F188">
+        <v>100</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="L188">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Mission Creek 01</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Mission Creek-Brender Creek</t>
+        </is>
+      </c>
+      <c r="H189">
+        <v>1</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="L189">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Mission Creek 02</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Mission Creek-Brender Creek</t>
+        </is>
+      </c>
+      <c r="H190">
+        <v>1</v>
+      </c>
+      <c r="I190">
+        <v>1</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="L190">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Aeneas 16-1</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Aeneas Creek-DS</t>
+        </is>
+      </c>
+      <c r="H191">
+        <v>1</v>
+      </c>
+      <c r="I191">
+        <v>1</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>3</v>
+      </c>
+      <c r="L191">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
           <t>Johnson 16-3</t>
         </is>
       </c>
-      <c r="B179" t="inlineStr">
+      <c r="B192" t="inlineStr">
         <is>
           <t>Okanogan</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
+      <c r="C192" t="inlineStr">
         <is>
           <t>Johnson Creek</t>
         </is>
       </c>
-      <c r="H179">
-        <v>1</v>
-      </c>
-      <c r="I179">
-        <v>1</v>
-      </c>
-      <c r="J179">
-        <v>0</v>
-      </c>
-      <c r="K179">
+      <c r="H192">
+        <v>1</v>
+      </c>
+      <c r="I192">
+        <v>1</v>
+      </c>
+      <c r="J192">
+        <v>1</v>
+      </c>
+      <c r="K192">
         <v>30</v>
       </c>
-      <c r="L179">
-        <v>178</v>
+      <c r="L192">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Johnson 16-2</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Johnson Creek</t>
+        </is>
+      </c>
+      <c r="H193">
+        <v>1</v>
+      </c>
+      <c r="J193">
+        <v>1</v>
+      </c>
+      <c r="K193">
+        <v>5</v>
+      </c>
+      <c r="L193">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Johnson 16-4</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Johnson Creek</t>
+        </is>
+      </c>
+      <c r="H194">
+        <v>1</v>
+      </c>
+      <c r="J194">
+        <v>1</v>
+      </c>
+      <c r="K194">
+        <v>9</v>
+      </c>
+      <c r="L194">
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Restoration_Reach_Ranking_Scores_Output.xlsx
+++ b/Output/Restoration_Reach_Ranking_Scores_Output.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L194"/>
+  <dimension ref="A1:L173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -439,13 +439,13 @@
         <v>87.69054724587362</v>
       </c>
       <c r="E2">
-        <v>71.04965812814311</v>
+        <v>71.04965800000001</v>
       </c>
       <c r="F2">
-        <v>50</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="G2">
-        <v>208.7402053740167</v>
+        <v>215.8830623887308</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -460,7 +460,7 @@
         <v>3</v>
       </c>
       <c r="L2">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -479,11 +479,17 @@
           <t>Antoine Creek-Lower</t>
         </is>
       </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
       <c r="E3">
-        <v>90.07967604404279</v>
+        <v>90.07967599999999</v>
       </c>
       <c r="F3">
-        <v>62.5</v>
+        <v>71.42857142857143</v>
+      </c>
+      <c r="G3">
+        <v>161.5082474285714</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -498,7 +504,7 @@
         <v>11</v>
       </c>
       <c r="L3">
-        <v>163</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
@@ -521,13 +527,13 @@
         <v>13.97418724319793</v>
       </c>
       <c r="E4">
-        <v>91.85568229333207</v>
+        <v>91.855682</v>
       </c>
       <c r="F4">
-        <v>37.5</v>
+        <v>50</v>
       </c>
       <c r="G4">
-        <v>143.32986953653</v>
+        <v>155.829869243198</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -542,7 +548,7 @@
         <v>12</v>
       </c>
       <c r="L4">
-        <v>84</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -565,13 +571,13 @@
         <v>96.8009640988758</v>
       </c>
       <c r="E5">
-        <v>93.65084787023412</v>
+        <v>93.650848</v>
       </c>
       <c r="F5">
-        <v>37.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="G5">
-        <v>227.9518119691099</v>
+        <v>223.7851454322091</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -609,13 +615,13 @@
         <v>92.80119616863257</v>
       </c>
       <c r="E6">
-        <v>90.52494209961908</v>
+        <v>90.524942</v>
       </c>
       <c r="F6">
-        <v>37.5</v>
+        <v>50</v>
       </c>
       <c r="G6">
-        <v>220.8261382682517</v>
+        <v>233.3261381686326</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -630,7 +636,7 @@
         <v>6</v>
       </c>
       <c r="L6">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -653,13 +659,13 @@
         <v>2.370099081128805</v>
       </c>
       <c r="E7">
-        <v>94.52524159026406</v>
+        <v>94.52524199999999</v>
       </c>
       <c r="F7">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="G7">
-        <v>121.8953406713929</v>
+        <v>130.2286744144621</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -674,7 +680,7 @@
         <v>10</v>
       </c>
       <c r="L7">
-        <v>126</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8">
@@ -697,13 +703,13 @@
         <v>12.5825765710022</v>
       </c>
       <c r="E8">
-        <v>28.88888888888889</v>
+        <v>28.888889</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>41.47146545989109</v>
+        <v>41.4714655710022</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -715,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9">
@@ -738,13 +744,13 @@
         <v>22.85748097963272</v>
       </c>
       <c r="E9">
-        <v>31.11111111111111</v>
+        <v>31.111111</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>53.96859209074383</v>
+        <v>53.96859197963272</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -756,39 +762,30 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Chewuch River Doe 01</t>
+          <t>Brennegan Creek 01</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Chewuch River-Doe Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D10">
-        <v>97.34856579914411</v>
-      </c>
-      <c r="E10">
-        <v>33.33333333333334</v>
+        <v>70.25589851811442</v>
       </c>
       <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>130.6818991324774</v>
-      </c>
-      <c r="H10">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -797,13 +794,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>108</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Chewuch River Doe 02</t>
+          <t>Chewuch River Doe 01</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -817,19 +814,19 @@
         </is>
       </c>
       <c r="D11">
-        <v>100</v>
+        <v>97.34856579914411</v>
       </c>
       <c r="E11">
-        <v>33.33333333333334</v>
+        <v>33.33333</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>133.3333333333333</v>
+        <v>130.6818957991441</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -838,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Chewuch River Doe 03</t>
+          <t>Chewuch River Doe 02</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -861,13 +858,13 @@
         <v>100</v>
       </c>
       <c r="E12">
-        <v>33.33333333333334</v>
+        <v>33.33333</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>133.3333333333333</v>
+        <v>133.33333</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -879,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chewuch River Doe 04</t>
+          <t>Chewuch River Doe 03</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -899,19 +896,19 @@
         </is>
       </c>
       <c r="D13">
-        <v>95.54958801466525</v>
+        <v>100</v>
       </c>
       <c r="E13">
-        <v>28.88888888888889</v>
+        <v>33.33333</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>124.4384769035541</v>
+        <v>133.33333</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -920,13 +917,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>122</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Chewuch River Doe 05</t>
+          <t>Chewuch River Doe 04</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -940,16 +937,16 @@
         </is>
       </c>
       <c r="D14">
-        <v>98.1370600401239</v>
+        <v>95.54958801466525</v>
       </c>
       <c r="E14">
-        <v>26.66666666666667</v>
+        <v>28.88889</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>124.8037267067906</v>
+        <v>124.4384780146653</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -961,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Chewuch River Doe 06</t>
+          <t>Chewuch River Doe 05</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -981,19 +978,19 @@
         </is>
       </c>
       <c r="D15">
-        <v>85.97857781805087</v>
+        <v>98.1370600401239</v>
       </c>
       <c r="E15">
-        <v>31.11111111111111</v>
+        <v>26.66667</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>117.089688929162</v>
+        <v>124.8037300401239</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1002,13 +999,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>129</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Chewuch River Doe 07</t>
+          <t>Chewuch River Doe 06</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1022,16 +1019,16 @@
         </is>
       </c>
       <c r="D16">
-        <v>76.50185418469593</v>
+        <v>85.97857781805087</v>
       </c>
       <c r="E16">
-        <v>37.77777777777778</v>
+        <v>31.11111</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>114.2796319624737</v>
+        <v>117.0896878180509</v>
       </c>
       <c r="H16">
         <v>3</v>
@@ -1043,13 +1040,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Chewuch River Doe 08</t>
+          <t>Chewuch River Doe 07</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1063,16 +1060,16 @@
         </is>
       </c>
       <c r="D17">
-        <v>81.19266334403142</v>
+        <v>76.50185418469593</v>
       </c>
       <c r="E17">
-        <v>37.77777777777778</v>
+        <v>37.77778000000001</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>118.9704411218092</v>
+        <v>114.2796341846959</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -1084,13 +1081,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Chewuch River Doe 09</t>
+          <t>Chewuch River Doe 08</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1104,19 +1101,19 @@
         </is>
       </c>
       <c r="D18">
-        <v>99.1487717830119</v>
+        <v>81.19266334403142</v>
       </c>
       <c r="E18">
-        <v>44.44444444444444</v>
+        <v>37.77778000000001</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>143.5932162274563</v>
+        <v>118.9704433440314</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1125,13 +1122,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>83</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 01</t>
+          <t>Chewuch River Doe 09</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1141,23 +1138,23 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Chewuch River-Pearrygin Creek</t>
+          <t>Chewuch River-Doe Creek</t>
         </is>
       </c>
       <c r="D19">
-        <v>70.93107384318202</v>
+        <v>99.1487717830119</v>
       </c>
       <c r="E19">
-        <v>33.33333333333334</v>
+        <v>44.44443999999999</v>
       </c>
       <c r="F19">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>129.2644071765154</v>
+        <v>143.5932117830119</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1166,13 +1163,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>113</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 02</t>
+          <t>Chewuch River Pearrygin 01</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1186,19 +1183,19 @@
         </is>
       </c>
       <c r="D20">
-        <v>79.1672471919955</v>
+        <v>70.93107384318202</v>
       </c>
       <c r="E20">
-        <v>33.33333333333334</v>
+        <v>31.11111</v>
       </c>
       <c r="F20">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="G20">
-        <v>137.5005805253288</v>
+        <v>135.3755171765154</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1207,13 +1204,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 03</t>
+          <t>Chewuch River Pearrygin 02</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1227,19 +1224,19 @@
         </is>
       </c>
       <c r="D21">
-        <v>95.81184510461004</v>
+        <v>79.1672471919955</v>
       </c>
       <c r="E21">
-        <v>37.77777777777778</v>
+        <v>31.11111</v>
       </c>
       <c r="F21">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="G21">
-        <v>158.5896228823878</v>
+        <v>143.6116905253288</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1248,13 +1245,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 04</t>
+          <t>Chewuch River Pearrygin 03</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1268,16 +1265,16 @@
         </is>
       </c>
       <c r="D22">
-        <v>90.28420071473042</v>
+        <v>95.81184510461004</v>
       </c>
       <c r="E22">
-        <v>37.77777777777778</v>
+        <v>37.77778000000001</v>
       </c>
       <c r="F22">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="G22">
-        <v>153.0619784925082</v>
+        <v>166.9229584379434</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -1289,13 +1286,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>71</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 05</t>
+          <t>Chewuch River Pearrygin 04</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1309,19 +1306,19 @@
         </is>
       </c>
       <c r="D23">
-        <v>100</v>
+        <v>90.28420071473042</v>
       </c>
       <c r="E23">
-        <v>35.55555555555555</v>
+        <v>37.77778000000001</v>
       </c>
       <c r="F23">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="G23">
-        <v>160.5555555555555</v>
+        <v>161.3953140480638</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1330,13 +1327,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 06</t>
+          <t>Chewuch River Pearrygin 05</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1353,13 +1350,13 @@
         <v>100</v>
       </c>
       <c r="E24">
-        <v>35.55555555555555</v>
+        <v>35.55556</v>
       </c>
       <c r="F24">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="G24">
-        <v>160.5555555555555</v>
+        <v>168.8888933333333</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -1371,13 +1368,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 07</t>
+          <t>Chewuch River Pearrygin 06</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1391,16 +1388,16 @@
         </is>
       </c>
       <c r="D25">
-        <v>80.99006714185175</v>
+        <v>100</v>
       </c>
       <c r="E25">
-        <v>44.44444444444444</v>
+        <v>35.55556</v>
       </c>
       <c r="F25">
-        <v>37.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="G25">
-        <v>162.9345115862962</v>
+        <v>168.8888933333333</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -1412,13 +1409,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 08</t>
+          <t>Chewuch River Pearrygin 07</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1432,19 +1429,19 @@
         </is>
       </c>
       <c r="D26">
-        <v>86.46684217526705</v>
+        <v>80.99006714185175</v>
       </c>
       <c r="E26">
-        <v>24.44444444444445</v>
+        <v>44.44443999999999</v>
       </c>
       <c r="F26">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="G26">
-        <v>135.9112866197115</v>
+        <v>158.7678404751851</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1453,13 +1450,13 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>97</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 09</t>
+          <t>Chewuch River Pearrygin 08</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1473,19 +1470,19 @@
         </is>
       </c>
       <c r="D27">
-        <v>3.447056743857168</v>
+        <v>86.46684217526705</v>
       </c>
       <c r="E27">
-        <v>42.22222222222223</v>
+        <v>24.44444</v>
       </c>
       <c r="F27">
-        <v>37.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="G27">
-        <v>83.16927896607939</v>
+        <v>144.2446155086004</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1494,13 +1491,13 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>153</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 10</t>
+          <t>Chewuch River Pearrygin 09</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1514,19 +1511,19 @@
         </is>
       </c>
       <c r="D28">
-        <v>98.18525976878647</v>
+        <v>3.447056743857168</v>
       </c>
       <c r="E28">
-        <v>42.22222222222223</v>
+        <v>42.22222</v>
       </c>
       <c r="F28">
-        <v>37.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="G28">
-        <v>177.9074819910087</v>
+        <v>79.0026100771905</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1535,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>41</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 11</t>
+          <t>Chewuch River Pearrygin 10</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1555,16 +1552,16 @@
         </is>
       </c>
       <c r="D29">
-        <v>93.82353772698473</v>
+        <v>98.18525976878647</v>
       </c>
       <c r="E29">
-        <v>44.44444444444444</v>
+        <v>42.22222</v>
       </c>
       <c r="F29">
-        <v>37.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="G29">
-        <v>175.7679821714292</v>
+        <v>173.7408131021198</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -1576,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Chewuch River Thirtymile 01</t>
+          <t>Chewuch River Pearrygin 11</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1592,23 +1589,23 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Chewuch River-Thirtymile Creek</t>
+          <t>Chewuch River-Pearrygin Creek</t>
         </is>
       </c>
       <c r="D30">
-        <v>28.56119021573179</v>
+        <v>93.82353772698473</v>
       </c>
       <c r="E30">
-        <v>33.33333333333334</v>
+        <v>42.22222</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="G30">
-        <v>61.89452354906513</v>
+        <v>169.3790910603181</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -1617,13 +1614,13 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>160</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Chewuch River Thirtymile 02</t>
+          <t>Chewuch River Thirtymile 01</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1637,19 +1634,19 @@
         </is>
       </c>
       <c r="D31">
-        <v>48.0074118062286</v>
+        <v>28.56119021573179</v>
       </c>
       <c r="E31">
-        <v>24.44444444444445</v>
+        <v>33.33333</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>72.45185625067305</v>
+        <v>61.8945202157318</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -1658,36 +1655,36 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Chiwawa River Lower 01</t>
+          <t>Chewuch River Thirtymile 02</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Lower Chiwawa River</t>
+          <t>Chewuch River-Thirtymile Creek</t>
         </is>
       </c>
       <c r="D32">
-        <v>84.35796761868576</v>
+        <v>48.0074118062286</v>
       </c>
       <c r="E32">
-        <v>44.44444444444444</v>
+        <v>24.44444</v>
       </c>
       <c r="F32">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>178.8024120631302</v>
+        <v>72.4518518062286</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -1699,13 +1696,13 @@
         <v>0</v>
       </c>
       <c r="L32">
-        <v>39</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Chiwawa River Lower 02</t>
+          <t>Chiwawa River Lower 01</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1719,16 +1716,16 @@
         </is>
       </c>
       <c r="D33">
-        <v>60</v>
+        <v>84.35796761868576</v>
       </c>
       <c r="E33">
-        <v>53.33333333333334</v>
+        <v>35.55556</v>
       </c>
       <c r="F33">
-        <v>62.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="G33">
-        <v>175.8333333333333</v>
+        <v>153.2468609520191</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -1740,13 +1737,13 @@
         <v>0</v>
       </c>
       <c r="L33">
-        <v>45</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Chiwawa River Lower 03</t>
+          <t>Chiwawa River Lower 02</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1760,19 +1757,19 @@
         </is>
       </c>
       <c r="D34">
-        <v>32.1977204568532</v>
+        <v>60</v>
       </c>
       <c r="E34">
-        <v>42.22222222222223</v>
+        <v>44.44443999999999</v>
       </c>
       <c r="F34">
-        <v>50</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="G34">
-        <v>124.4199426790754</v>
+        <v>137.7777733333333</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -1781,13 +1778,13 @@
         <v>0</v>
       </c>
       <c r="L34">
-        <v>123</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Chiwawa River Lower 04</t>
+          <t>Chiwawa River Lower 03</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1801,19 +1798,19 @@
         </is>
       </c>
       <c r="D35">
-        <v>31.28770204495832</v>
+        <v>32.1977204568532</v>
       </c>
       <c r="E35">
-        <v>48.88888888888889</v>
+        <v>33.33333</v>
       </c>
       <c r="F35">
-        <v>62.5</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="G35">
-        <v>142.6765909338472</v>
+        <v>82.19771712351987</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -1822,13 +1819,13 @@
         <v>0</v>
       </c>
       <c r="L35">
-        <v>86</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Chiwawa River Lower 05</t>
+          <t>Chiwawa River Lower 04</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1842,16 +1839,16 @@
         </is>
       </c>
       <c r="D36">
-        <v>11.93596293888412</v>
+        <v>31.28770204495832</v>
       </c>
       <c r="E36">
-        <v>57.77777777777777</v>
+        <v>40</v>
       </c>
       <c r="F36">
-        <v>75</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="G36">
-        <v>144.7137407166619</v>
+        <v>104.6210353782917</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -1863,13 +1860,13 @@
         <v>0</v>
       </c>
       <c r="L36">
-        <v>80</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Chiwawa River Lower 06</t>
+          <t>Chiwawa River Lower 05</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1883,16 +1880,16 @@
         </is>
       </c>
       <c r="D37">
-        <v>59.40114855246741</v>
+        <v>11.93596293888412</v>
       </c>
       <c r="E37">
-        <v>42.22222222222223</v>
+        <v>48.88889</v>
       </c>
       <c r="F37">
         <v>50</v>
       </c>
       <c r="G37">
-        <v>151.6233707746897</v>
+        <v>110.8248529388841</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -1904,13 +1901,13 @@
         <v>0</v>
       </c>
       <c r="L37">
-        <v>72</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Chiwawa River Lower 07</t>
+          <t>Chiwawa River Lower 06</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1924,19 +1921,19 @@
         </is>
       </c>
       <c r="D38">
-        <v>17.25110079134537</v>
+        <v>59.40114855246741</v>
       </c>
       <c r="E38">
-        <v>35.55555555555555</v>
+        <v>33.33333</v>
       </c>
       <c r="F38">
-        <v>37.5</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="G38">
-        <v>90.30665634690092</v>
+        <v>109.4011452191341</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -1945,30 +1942,39 @@
         <v>0</v>
       </c>
       <c r="L38">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Eight Mile Creek 07</t>
+          <t>Chiwawa River Lower 07</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Eight Mile Creek</t>
+          <t>Lower Chiwawa River</t>
         </is>
       </c>
       <c r="D39">
-        <v>84.79585924347704</v>
+        <v>17.25110079134537</v>
+      </c>
+      <c r="E39">
+        <v>35.55556</v>
       </c>
       <c r="F39">
-        <v>25</v>
+        <v>33.33333333333333</v>
+      </c>
+      <c r="G39">
+        <v>86.13999412467869</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -1977,30 +1983,39 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Eight Mile Creek 09</t>
+          <t>Entiat River Lake 02</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Eight Mile Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D40">
-        <v>22.06957933488505</v>
+        <v>74.02921541005696</v>
+      </c>
+      <c r="E40">
+        <v>40</v>
       </c>
       <c r="F40">
-        <v>25</v>
+        <v>11.11111111111111</v>
+      </c>
+      <c r="G40">
+        <v>125.1403265211681</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -2009,13 +2024,13 @@
         <v>0</v>
       </c>
       <c r="L40">
-        <v>165</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Entiat River Lake 01</t>
+          <t>Entiat River Lake 04</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2029,19 +2044,19 @@
         </is>
       </c>
       <c r="D41">
-        <v>84.29416294333068</v>
+        <v>67.13441483580915</v>
       </c>
       <c r="E41">
-        <v>20</v>
+        <v>28.88889</v>
       </c>
       <c r="F41">
-        <v>9.090909090909092</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="G41">
-        <v>113.3850720342398</v>
+        <v>118.2455270580314</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -2050,13 +2065,13 @@
         <v>0</v>
       </c>
       <c r="L41">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Entiat River Lake 02</t>
+          <t>Entiat River Mills 02</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2066,20 +2081,20 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="D42">
-        <v>74.02921541005696</v>
+        <v>99.37559372771551</v>
       </c>
       <c r="E42">
-        <v>40</v>
+        <v>33.333333</v>
       </c>
       <c r="F42">
-        <v>18.18181818181818</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="G42">
-        <v>132.2110335918752</v>
+        <v>149.3755933943822</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -2091,13 +2106,13 @@
         <v>0</v>
       </c>
       <c r="L42">
-        <v>104</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Entiat River Lake 03</t>
+          <t>Entiat River Mills 03</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2107,20 +2122,20 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="D43">
-        <v>63.71807967313585</v>
+        <v>80.64715622126087</v>
       </c>
       <c r="E43">
-        <v>13.33333333333333</v>
+        <v>33.333333</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="G43">
-        <v>77.05141300646919</v>
+        <v>130.6471558879275</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -2132,13 +2147,13 @@
         <v>0</v>
       </c>
       <c r="L43">
-        <v>157</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Entiat River Lake 04</t>
+          <t>Entiat River Mills 04</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2148,20 +2163,20 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="D44">
-        <v>67.13441483580915</v>
+        <v>87.50837494371574</v>
       </c>
       <c r="E44">
-        <v>28.88888888888889</v>
+        <v>33.333333</v>
       </c>
       <c r="F44">
-        <v>18.18181818181818</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="G44">
-        <v>114.2051219065162</v>
+        <v>137.5083746103824</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -2173,13 +2188,13 @@
         <v>0</v>
       </c>
       <c r="L44">
-        <v>132</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Entiat River Lake 05</t>
+          <t>Entiat River Mills 05</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2189,20 +2204,20 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="D45">
-        <v>57.79778914955362</v>
+        <v>88.39597921741711</v>
       </c>
       <c r="E45">
-        <v>11.11111111111112</v>
+        <v>28.888889</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45">
-        <v>68.90890026066474</v>
+        <v>117.2848682174171</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -2214,13 +2229,13 @@
         <v>0</v>
       </c>
       <c r="L45">
-        <v>159</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Entiat River Lake 06</t>
+          <t>Entiat River Mills 06</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2230,15 +2245,24 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
-        </is>
+          <t>Entiat River-Mills Creek</t>
+        </is>
+      </c>
+      <c r="D46">
+        <v>86.02763875475596</v>
       </c>
       <c r="E46">
-        <v>17.77777777777778</v>
+        <v>33.333333</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
+      <c r="G46">
+        <v>119.360971754756</v>
+      </c>
+      <c r="H46">
+        <v>2</v>
+      </c>
       <c r="I46">
         <v>0</v>
       </c>
@@ -2246,13 +2270,13 @@
         <v>0</v>
       </c>
       <c r="L46">
-        <v>166</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Entiat River Lake 07</t>
+          <t>Entiat River Potato 02</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2262,14 +2286,14 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
-        </is>
-      </c>
-      <c r="E47">
-        <v>22.22222222222222</v>
+          <t>Entiat River-Potato Creek</t>
+        </is>
+      </c>
+      <c r="D47">
+        <v>61.3858645214871</v>
       </c>
       <c r="F47">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -2278,13 +2302,13 @@
         <v>0</v>
       </c>
       <c r="L47">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Entiat River Lake 11</t>
+          <t>Entiat River Potato 04</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2294,14 +2318,14 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D48">
-        <v>66.56159167522384</v>
+        <v>50.30154817760456</v>
       </c>
       <c r="F48">
-        <v>22.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -2310,13 +2334,13 @@
         <v>0</v>
       </c>
       <c r="L48">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Entiat River Mills 02</t>
+          <t>Entiat River Potato 05</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2326,23 +2350,23 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D49">
-        <v>99.37559372771551</v>
+        <v>98.91220961766038</v>
       </c>
       <c r="E49">
-        <v>44.44444444444444</v>
+        <v>13.33333</v>
       </c>
       <c r="F49">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>168.82003817216</v>
+        <v>112.2455396176604</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -2351,13 +2375,13 @@
         <v>0</v>
       </c>
       <c r="L49">
-        <v>49</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Entiat River Mills 03</t>
+          <t>Entiat River Potato 07</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2367,23 +2391,23 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D50">
-        <v>80.64715622126087</v>
+        <v>100</v>
       </c>
       <c r="E50">
-        <v>44.44444444444444</v>
+        <v>31.11111</v>
       </c>
       <c r="F50">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>150.0916006657053</v>
+        <v>131.11111</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -2392,13 +2416,13 @@
         <v>0</v>
       </c>
       <c r="L50">
-        <v>75</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Entiat River Mills 04</t>
+          <t>Entiat River Potato 08</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2408,23 +2432,23 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D51">
-        <v>87.50837494371574</v>
+        <v>100</v>
       </c>
       <c r="E51">
-        <v>44.44444444444444</v>
+        <v>26.66667</v>
       </c>
       <c r="F51">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>156.9528193881602</v>
+        <v>126.66667</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -2433,13 +2457,13 @@
         <v>0</v>
       </c>
       <c r="L51">
-        <v>66</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Entiat River Mills 05</t>
+          <t>Entiat River Preston 01</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2449,20 +2473,20 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D52">
-        <v>88.39597921741711</v>
+        <v>100</v>
       </c>
       <c r="E52">
-        <v>40</v>
+        <v>35.55556</v>
       </c>
       <c r="F52">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>140.8959792174171</v>
+        <v>135.55556</v>
       </c>
       <c r="H52">
         <v>2</v>
@@ -2474,13 +2498,13 @@
         <v>0</v>
       </c>
       <c r="L52">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Entiat River Mills 06</t>
+          <t>Entiat River Preston 02</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2490,20 +2514,20 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D53">
-        <v>86.02763875475596</v>
+        <v>100</v>
       </c>
       <c r="E53">
-        <v>40</v>
+        <v>26.66667</v>
       </c>
       <c r="F53">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>138.527638754756</v>
+        <v>126.66667</v>
       </c>
       <c r="H53">
         <v>3</v>
@@ -2515,13 +2539,13 @@
         <v>0</v>
       </c>
       <c r="L53">
-        <v>94</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Entiat River Potato 04</t>
+          <t>Entiat River Preston 03</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2531,14 +2555,23 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D54">
-        <v>50.30154817760456</v>
+        <v>97.31787937555582</v>
+      </c>
+      <c r="E54">
+        <v>31.11111</v>
       </c>
       <c r="F54">
-        <v>14.28571428571429</v>
+        <v>16.66666666666666</v>
+      </c>
+      <c r="G54">
+        <v>145.0956560422225</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -2547,13 +2580,13 @@
         <v>0</v>
       </c>
       <c r="L54">
-        <v>169</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Entiat River Potato 07</t>
+          <t>Entiat River Preston 04</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2563,20 +2596,20 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D55">
-        <v>100</v>
+        <v>83.44649421443781</v>
       </c>
       <c r="E55">
-        <v>31.11111111111111</v>
+        <v>31.11111</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="G55">
-        <v>131.1111111111111</v>
+        <v>147.8909375477711</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -2588,13 +2621,13 @@
         <v>0</v>
       </c>
       <c r="L55">
-        <v>105</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Entiat River Potato 08</t>
+          <t>Entiat River Preston 05</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2604,23 +2637,23 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D56">
-        <v>100</v>
+        <v>97.24629936242772</v>
       </c>
       <c r="E56">
-        <v>26.66666666666667</v>
+        <v>20</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="G56">
-        <v>126.6666666666667</v>
+        <v>133.9129660290944</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -2629,80 +2662,83 @@
         <v>0</v>
       </c>
       <c r="L56">
-        <v>117</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Entiat River Preston 01</t>
+          <t>Johnson 16-1</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Johnson Creek</t>
         </is>
       </c>
       <c r="D57">
+        <v>11.88660691792071</v>
+      </c>
+      <c r="E57">
         <v>100</v>
       </c>
-      <c r="E57">
-        <v>35.55555555555555</v>
-      </c>
       <c r="F57">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G57">
-        <v>135.5555555555555</v>
+        <v>136.8866069179207</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>3</v>
       </c>
       <c r="L57">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Entiat River Preston 02</t>
+          <t>Loup Loup 16-1</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Loup Loup Creek-Lower DS</t>
         </is>
       </c>
       <c r="D58">
         <v>100</v>
       </c>
       <c r="E58">
-        <v>26.66666666666667</v>
+        <v>58.617839</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="G58">
-        <v>126.6666666666667</v>
+        <v>215.7606961428571</v>
       </c>
       <c r="H58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -2710,78 +2746,84 @@
       <c r="J58">
         <v>0</v>
       </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
       <c r="L58">
-        <v>117</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Entiat River Preston 03</t>
+          <t>Loup Loup 16-2</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Loup Loup Creek-Lower DS</t>
         </is>
       </c>
       <c r="D59">
-        <v>97.31787937555582</v>
+        <v>81.75055372087164</v>
       </c>
       <c r="E59">
-        <v>31.11111111111111</v>
+        <v>51.35955</v>
       </c>
       <c r="F59">
-        <v>12.5</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="G59">
-        <v>140.9289904866669</v>
+        <v>204.5386751494431</v>
       </c>
       <c r="H59">
         <v>1</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59">
         <v>0</v>
       </c>
+      <c r="K59">
+        <v>3</v>
+      </c>
       <c r="L59">
-        <v>88</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Entiat River Preston 04</t>
+          <t>Loup Loup 16-3</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Loup Loup Creek-Lower DS</t>
         </is>
       </c>
       <c r="D60">
-        <v>83.44649421443781</v>
+        <v>42.15656814548602</v>
       </c>
       <c r="E60">
-        <v>31.11111111111111</v>
+        <v>59.81653</v>
       </c>
       <c r="F60">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="G60">
-        <v>139.5576053255489</v>
+        <v>135.3064314788194</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -2792,31 +2834,43 @@
       <c r="J60">
         <v>0</v>
       </c>
+      <c r="K60">
+        <v>2</v>
+      </c>
       <c r="L60">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Icicle Creek Lower 01</t>
+          <t>Mad River Lower 01</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Lower Icicle Creek</t>
+          <t>Lower Mad River</t>
         </is>
       </c>
       <c r="D61">
-        <v>99.44705458636332</v>
+        <v>63.6490481401099</v>
+      </c>
+      <c r="E61">
+        <v>55.555556</v>
       </c>
       <c r="F61">
-        <v>100</v>
+        <v>37.5</v>
+      </c>
+      <c r="G61">
+        <v>156.7046041401099</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -2825,30 +2879,39 @@
         <v>0</v>
       </c>
       <c r="L61">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Icicle Creek Lower 02</t>
+          <t>Methow River Alta Coulee 02</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Lower Icicle Creek</t>
+          <t>Methow River-Alta Coulee</t>
         </is>
       </c>
       <c r="D62">
-        <v>95.99758030706276</v>
+        <v>51.42337559756977</v>
+      </c>
+      <c r="E62">
+        <v>48.888889</v>
       </c>
       <c r="F62">
-        <v>66.66666666666666</v>
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>100.3122645975698</v>
+      </c>
+      <c r="H62">
+        <v>2</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -2857,30 +2920,39 @@
         <v>0</v>
       </c>
       <c r="L62">
-        <v>171</v>
+        <v>143</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Icicle Creek Lower 03</t>
+          <t>Methow River Alta Coulee 03</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Lower Icicle Creek</t>
+          <t>Methow River-Alta Coulee</t>
         </is>
       </c>
       <c r="D63">
-        <v>100</v>
+        <v>68.37284735908258</v>
+      </c>
+      <c r="E63">
+        <v>53.333333</v>
       </c>
       <c r="F63">
-        <v>66.66666666666666</v>
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>121.7061803590826</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -2889,66 +2961,81 @@
         <v>0</v>
       </c>
       <c r="L63">
-        <v>172</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Icicle Creek Lower 04</t>
+          <t>Methow River Alta Coulee 04</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Lower Icicle Creek</t>
+          <t>Methow River-Alta Coulee</t>
         </is>
       </c>
       <c r="D64">
-        <v>53.5789863303935</v>
+        <v>68.32249906214474</v>
+      </c>
+      <c r="E64">
+        <v>53.333333</v>
       </c>
       <c r="F64">
-        <v>66.66666666666666</v>
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>121.6558320621448</v>
       </c>
       <c r="H64">
         <v>1</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64">
         <v>0</v>
       </c>
       <c r="L64">
-        <v>173</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Icicle Creek Lower 05</t>
+          <t>Methow River Alta Coulee 05</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Lower Icicle Creek</t>
+          <t>Methow River-Alta Coulee</t>
         </is>
       </c>
       <c r="D65">
-        <v>12.87359317513477</v>
+        <v>46.6078443788486</v>
+      </c>
+      <c r="E65">
+        <v>48.888889</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
+      <c r="G65">
+        <v>95.4967333788486</v>
+      </c>
+      <c r="H65">
+        <v>3</v>
+      </c>
       <c r="I65">
         <v>0</v>
       </c>
@@ -2956,31 +3043,40 @@
         <v>0</v>
       </c>
       <c r="L65">
-        <v>174</v>
+        <v>146</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Icicle Creek Lower 08</t>
+          <t>Methow River Fawn 01</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Lower Icicle Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D66">
-        <v>44.12519516715064</v>
+        <v>70.56835870344921</v>
+      </c>
+      <c r="E66">
+        <v>35.55556</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
+      <c r="G66">
+        <v>106.1239187034492</v>
+      </c>
+      <c r="H66">
+        <v>3</v>
+      </c>
       <c r="I66">
         <v>0</v>
       </c>
@@ -2988,57 +3084,54 @@
         <v>0</v>
       </c>
       <c r="L66">
-        <v>175</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Johnson 16-1</t>
+          <t>Methow River Fawn 02</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Johnson Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D67">
-        <v>11.88660691792071</v>
+        <v>95.183526325915</v>
       </c>
       <c r="E67">
-        <v>100</v>
+        <v>28.88889</v>
       </c>
       <c r="F67">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>161.8866069179207</v>
+        <v>124.072416325915</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67">
-        <v>1</v>
-      </c>
-      <c r="K67">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L67">
-        <v>57</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Lake Creek Methow 05</t>
+          <t>Methow River Fawn 03</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3048,12 +3141,24 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Lake Creek (Methow)</t>
-        </is>
+          <t>Methow River-Fawn Creek</t>
+        </is>
+      </c>
+      <c r="D68">
+        <v>95.44661671987824</v>
+      </c>
+      <c r="E68">
+        <v>37.77778000000001</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
+      <c r="G68">
+        <v>133.2243967198783</v>
+      </c>
+      <c r="H68">
+        <v>3</v>
+      </c>
       <c r="I68">
         <v>0</v>
       </c>
@@ -3061,36 +3166,36 @@
         <v>0</v>
       </c>
       <c r="L68">
-        <v>176</v>
+        <v>98</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Loup Loup 16-1</t>
+          <t>Methow River Fawn 05</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Loup Loup Creek-Lower DS</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D69">
-        <v>100</v>
+        <v>93.57917958769068</v>
       </c>
       <c r="E69">
-        <v>58.61783873901255</v>
+        <v>42.22222</v>
       </c>
       <c r="F69">
-        <v>57.14285714285714</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>215.7606958818697</v>
+        <v>135.8013995876907</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -3101,87 +3206,81 @@
       <c r="J69">
         <v>0</v>
       </c>
-      <c r="K69">
-        <v>1</v>
-      </c>
       <c r="L69">
-        <v>13</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Loup Loup 16-2</t>
+          <t>Methow River Fawn 06</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Loup Loup Creek-Lower DS</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D70">
-        <v>81.75055372087164</v>
+        <v>91.2106857360465</v>
       </c>
       <c r="E70">
-        <v>51.35954967170182</v>
+        <v>57.77778</v>
       </c>
       <c r="F70">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="G70">
-        <v>195.6101033925735</v>
+        <v>148.9884657360465</v>
       </c>
       <c r="H70">
         <v>1</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70">
         <v>0</v>
       </c>
-      <c r="K70">
-        <v>3</v>
-      </c>
       <c r="L70">
-        <v>23</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Loup Loup 16-3</t>
+          <t>Methow River Fawn 07</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Loup Loup Creek-Lower DS</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D71">
-        <v>42.15656814548602</v>
+        <v>97.8396234902043</v>
       </c>
       <c r="E71">
-        <v>59.81652986031797</v>
+        <v>48.88889</v>
       </c>
       <c r="F71">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>139.473098005804</v>
+        <v>146.7285134902043</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -3189,43 +3288,40 @@
       <c r="J71">
         <v>0</v>
       </c>
-      <c r="K71">
-        <v>2</v>
-      </c>
       <c r="L71">
-        <v>92</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Mad River Lower 01</t>
+          <t>Methow River Fawn 08</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Lower Mad River</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D72">
-        <v>63.6490481401099</v>
+        <v>93.17997790657877</v>
       </c>
       <c r="E72">
-        <v>62.22222222222222</v>
+        <v>53.33333</v>
       </c>
       <c r="F72">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>175.8712703623321</v>
+        <v>146.5133079065788</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -3234,65 +3330,80 @@
         <v>0</v>
       </c>
       <c r="L72">
-        <v>44</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Mad River Lower 02</t>
+          <t>Methow River Fawn 09</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Lower Mad River</t>
-        </is>
+          <t>Methow River-Fawn Creek</t>
+        </is>
+      </c>
+      <c r="D73">
+        <v>100</v>
       </c>
       <c r="E73">
-        <v>44.44444444444444</v>
+        <v>48.88889</v>
       </c>
       <c r="F73">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>148.88889</v>
       </c>
       <c r="H73">
         <v>1</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73">
         <v>0</v>
       </c>
       <c r="L73">
-        <v>177</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Mad River Lower 03</t>
+          <t>Methow River Fawn 10</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Lower Mad River</t>
-        </is>
+          <t>Methow River-Fawn Creek</t>
+        </is>
+      </c>
+      <c r="D74">
+        <v>100</v>
       </c>
       <c r="E74">
-        <v>35.55555555555555</v>
+        <v>55.55555999999999</v>
       </c>
       <c r="F74">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>155.55556</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -3301,30 +3412,39 @@
         <v>0</v>
       </c>
       <c r="L74">
-        <v>178</v>
+        <v>61</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Mad River Lower 04</t>
+          <t>Methow River Fawn 11</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Lower Mad River</t>
-        </is>
+          <t>Methow River-Fawn Creek</t>
+        </is>
+      </c>
+      <c r="D75">
+        <v>100</v>
       </c>
       <c r="E75">
-        <v>17.77777777777778</v>
+        <v>55.55555999999999</v>
       </c>
       <c r="F75">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>155.55556</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -3333,13 +3453,13 @@
         <v>0</v>
       </c>
       <c r="L75">
-        <v>179</v>
+        <v>61</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Methow River Alta Coulee 02</t>
+          <t>Methow River McFarland 01</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3349,23 +3469,23 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Methow River-Alta Coulee</t>
+          <t>Methow River-McFarland Creek</t>
         </is>
       </c>
       <c r="D76">
-        <v>51.42337559756977</v>
+        <v>23.68682320455459</v>
       </c>
       <c r="E76">
-        <v>57.77777777777777</v>
+        <v>48.888889</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76">
-        <v>109.2011533753475</v>
+        <v>72.57571220455458</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -3374,13 +3494,13 @@
         <v>0</v>
       </c>
       <c r="L76">
-        <v>138</v>
+        <v>155</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Methow River Alta Coulee 03</t>
+          <t>Methow River McFarland 02</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3390,20 +3510,20 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Methow River-Alta Coulee</t>
+          <t>Methow River-McFarland Creek</t>
         </is>
       </c>
       <c r="D77">
-        <v>68.37284735908258</v>
+        <v>72.29928252527816</v>
       </c>
       <c r="E77">
-        <v>62.22222222222222</v>
+        <v>48.888889</v>
       </c>
       <c r="F77">
         <v>0</v>
       </c>
       <c r="G77">
-        <v>130.5950695813048</v>
+        <v>121.1881715252782</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -3415,13 +3535,13 @@
         <v>0</v>
       </c>
       <c r="L77">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Methow River Alta Coulee 04</t>
+          <t>Methow River McFarland 03</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3431,23 +3551,23 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Methow River-Alta Coulee</t>
+          <t>Methow River-McFarland Creek</t>
         </is>
       </c>
       <c r="D78">
-        <v>68.32249906214474</v>
+        <v>48.42218067606668</v>
       </c>
       <c r="E78">
-        <v>62.22222222222222</v>
+        <v>48.888889</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
       <c r="G78">
-        <v>130.544721284367</v>
+        <v>97.31106967606668</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -3456,13 +3576,13 @@
         <v>0</v>
       </c>
       <c r="L78">
-        <v>111</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Methow River Alta Coulee 05</t>
+          <t>Methow River McFarland 04</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3472,20 +3592,20 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Methow River-Alta Coulee</t>
+          <t>Methow River-McFarland Creek</t>
         </is>
       </c>
       <c r="D79">
-        <v>46.6078443788486</v>
+        <v>34.16262903542418</v>
       </c>
       <c r="E79">
-        <v>57.77777777777777</v>
+        <v>48.888889</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="G79">
-        <v>104.3856221566264</v>
+        <v>83.05151803542418</v>
       </c>
       <c r="H79">
         <v>3</v>
@@ -3497,13 +3617,13 @@
         <v>0</v>
       </c>
       <c r="L79">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Methow River Fawn 01</t>
+          <t>Methow River McFarland 05</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3513,23 +3633,23 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Methow River-McFarland Creek</t>
         </is>
       </c>
       <c r="D80">
-        <v>70.56835870344921</v>
+        <v>45.51457291640889</v>
       </c>
       <c r="E80">
-        <v>35.55555555555555</v>
+        <v>48.888889</v>
       </c>
       <c r="F80">
         <v>0</v>
       </c>
       <c r="G80">
-        <v>106.1239142590048</v>
+        <v>94.40346191640889</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -3538,13 +3658,13 @@
         <v>0</v>
       </c>
       <c r="L80">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Methow River Fawn 02</t>
+          <t>Methow River McFarland 06</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3554,23 +3674,23 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Methow River-McFarland Creek</t>
         </is>
       </c>
       <c r="D81">
-        <v>95.183526325915</v>
+        <v>62.11337716074016</v>
       </c>
       <c r="E81">
-        <v>35.55555555555555</v>
+        <v>48.888889</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
       <c r="G81">
-        <v>130.7390818814706</v>
+        <v>111.0022661607402</v>
       </c>
       <c r="H81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -3579,13 +3699,13 @@
         <v>0</v>
       </c>
       <c r="L81">
-        <v>107</v>
+        <v>133</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Methow River Fawn 03</t>
+          <t>Methow River Rattlesnake 01</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3595,20 +3715,20 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="D82">
-        <v>95.44661671987824</v>
+        <v>82.38008539503814</v>
       </c>
       <c r="E82">
-        <v>40</v>
+        <v>28.88889</v>
       </c>
       <c r="F82">
         <v>0</v>
       </c>
       <c r="G82">
-        <v>135.4466167198783</v>
+        <v>111.2689753950381</v>
       </c>
       <c r="H82">
         <v>3</v>
@@ -3620,13 +3740,13 @@
         <v>0</v>
       </c>
       <c r="L82">
-        <v>101</v>
+        <v>132</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Methow River Fawn 05</t>
+          <t>Methow River Rattlesnake 02</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3636,20 +3756,20 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="D83">
-        <v>93.57917958769068</v>
+        <v>75.93111651357249</v>
       </c>
       <c r="E83">
-        <v>44.44444444444444</v>
+        <v>46.66667</v>
       </c>
       <c r="F83">
         <v>0</v>
       </c>
       <c r="G83">
-        <v>138.0236240321351</v>
+        <v>122.5977865135725</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -3661,13 +3781,13 @@
         <v>0</v>
       </c>
       <c r="L83">
-        <v>95</v>
+        <v>117</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Methow River Fawn 06</t>
+          <t>Methow River Rattlesnake 03</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3677,20 +3797,20 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="D84">
-        <v>91.2106857360465</v>
+        <v>82.02808721243393</v>
       </c>
       <c r="E84">
-        <v>60</v>
+        <v>48.88889</v>
       </c>
       <c r="F84">
         <v>0</v>
       </c>
       <c r="G84">
-        <v>151.2106857360465</v>
+        <v>130.9169772124339</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -3702,13 +3822,13 @@
         <v>0</v>
       </c>
       <c r="L84">
-        <v>74</v>
+        <v>103</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Methow River Fawn 07</t>
+          <t>Methow River Rattlesnake 04</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3718,23 +3838,23 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="D85">
-        <v>97.8396234902043</v>
+        <v>100</v>
       </c>
       <c r="E85">
-        <v>48.88888888888889</v>
+        <v>35.55556</v>
       </c>
       <c r="F85">
         <v>0</v>
       </c>
       <c r="G85">
-        <v>146.7285123790932</v>
+        <v>135.55556</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -3743,36 +3863,36 @@
         <v>0</v>
       </c>
       <c r="L85">
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Methow River Fawn 08</t>
+          <t>Nason Creek Lower 03</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D86">
-        <v>93.17997790657877</v>
+        <v>84.3515167253664</v>
       </c>
       <c r="E86">
-        <v>53.33333333333334</v>
+        <v>22.22222</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G86">
-        <v>146.5133112399121</v>
+        <v>146.5737367253664</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -3784,39 +3904,39 @@
         <v>0</v>
       </c>
       <c r="L86">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Methow River Fawn 09</t>
+          <t>Nason Creek Lower 04</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D87">
-        <v>100</v>
+        <v>81.64245837892949</v>
       </c>
       <c r="E87">
-        <v>48.88888888888889</v>
+        <v>40</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G87">
-        <v>148.8888888888889</v>
+        <v>171.6424583789295</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -3825,39 +3945,39 @@
         <v>0</v>
       </c>
       <c r="L87">
-        <v>76</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Methow River Fawn 10</t>
+          <t>Nason Creek Lower 05</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D88">
-        <v>100</v>
+        <v>70.58555725197336</v>
       </c>
       <c r="E88">
-        <v>55.55555555555556</v>
+        <v>46.66667</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G88">
-        <v>155.5555555555555</v>
+        <v>167.2522272519734</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88">
         <v>0</v>
@@ -3866,39 +3986,39 @@
         <v>0</v>
       </c>
       <c r="L88">
-        <v>67</v>
+        <v>49</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Methow River Fawn 11</t>
+          <t>Nason Creek Lower 06</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D89">
-        <v>100</v>
+        <v>41.40452926434025</v>
       </c>
       <c r="E89">
-        <v>55.55555555555556</v>
+        <v>44.44443999999999</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G89">
-        <v>155.5555555555555</v>
+        <v>135.8489692643402</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -3907,36 +4027,36 @@
         <v>0</v>
       </c>
       <c r="L89">
-        <v>67</v>
+        <v>89</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Methow River McFarland 01</t>
+          <t>Nason Creek Lower 07</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Methow River-McFarland Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D90">
-        <v>23.68682320455459</v>
+        <v>49.48033511287066</v>
       </c>
       <c r="E90">
-        <v>57.77777777777777</v>
+        <v>44.44443999999999</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G90">
-        <v>81.46460098233236</v>
+        <v>143.9247751128707</v>
       </c>
       <c r="H90">
         <v>3</v>
@@ -3948,36 +4068,36 @@
         <v>0</v>
       </c>
       <c r="L90">
-        <v>155</v>
+        <v>79</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Methow River McFarland 02</t>
+          <t>Nason Creek Lower 09</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Methow River-McFarland Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D91">
-        <v>72.29928252527816</v>
+        <v>94.4274257451607</v>
       </c>
       <c r="E91">
-        <v>57.77777777777777</v>
+        <v>57.77778</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G91">
-        <v>130.0770603030559</v>
+        <v>212.2052057451607</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -3989,39 +4109,39 @@
         <v>0</v>
       </c>
       <c r="L91">
-        <v>112</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Methow River McFarland 03</t>
+          <t>Nason Creek Lower 10</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Methow River-McFarland Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D92">
-        <v>48.42218067606668</v>
+        <v>100</v>
       </c>
       <c r="E92">
-        <v>57.77777777777777</v>
+        <v>57.77778</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G92">
-        <v>106.1999584538445</v>
+        <v>217.77778</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -4030,39 +4150,39 @@
         <v>0</v>
       </c>
       <c r="L92">
-        <v>139</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Methow River McFarland 04</t>
+          <t>Nason Creek Lower 11</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Methow River-McFarland Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D93">
-        <v>34.16262903542418</v>
+        <v>100</v>
       </c>
       <c r="E93">
-        <v>57.77777777777777</v>
+        <v>51.11111</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G93">
-        <v>91.94040681320195</v>
+        <v>201.11111</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I93">
         <v>0</v>
@@ -4071,39 +4191,39 @@
         <v>0</v>
       </c>
       <c r="L93">
-        <v>150</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Methow River McFarland 05</t>
+          <t>Nason Creek Lower 12</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Methow River-McFarland Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D94">
-        <v>45.51457291640889</v>
+        <v>100</v>
       </c>
       <c r="E94">
-        <v>57.77777777777777</v>
+        <v>53.33333</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G94">
-        <v>103.2923506941867</v>
+        <v>203.33333</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -4112,39 +4232,39 @@
         <v>0</v>
       </c>
       <c r="L94">
-        <v>145</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Methow River McFarland 06</t>
+          <t>Nason Creek Lower 13</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Methow River-McFarland Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D95">
-        <v>62.11337716074016</v>
+        <v>89.03681707418826</v>
       </c>
       <c r="E95">
-        <v>48.88888888888889</v>
+        <v>53.33333</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G95">
-        <v>111.002266049629</v>
+        <v>192.3701470741883</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -4153,39 +4273,30 @@
         <v>0</v>
       </c>
       <c r="L95">
-        <v>137</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 01</t>
+          <t>Nason Creek Lower 14</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D96">
-        <v>82.38008539503814</v>
-      </c>
-      <c r="E96">
-        <v>28.88888888888889</v>
+        <v>30.59710789120315</v>
       </c>
       <c r="F96">
-        <v>0</v>
-      </c>
-      <c r="G96">
-        <v>111.268974283927</v>
-      </c>
-      <c r="H96">
-        <v>3</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -4194,39 +4305,39 @@
         <v>0</v>
       </c>
       <c r="L96">
-        <v>136</v>
+        <v>164</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 02</t>
+          <t>Nason Creek Lower 15</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D97">
-        <v>75.93111651357249</v>
+        <v>47.10807995455942</v>
       </c>
       <c r="E97">
-        <v>46.66666666666666</v>
+        <v>40</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G97">
-        <v>122.5977831802392</v>
+        <v>127.1080799545594</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -4235,39 +4346,36 @@
         <v>0</v>
       </c>
       <c r="L97">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 03</t>
+          <t>Omak 16-1</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D98">
-        <v>82.02808721243393</v>
+        <v>94.17482327351821</v>
       </c>
       <c r="E98">
-        <v>48.88888888888889</v>
+        <v>86.854726</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="G98">
-        <v>130.9169761013228</v>
-      </c>
-      <c r="H98">
-        <v>1</v>
+        <v>223.8866921306611</v>
       </c>
       <c r="I98">
         <v>0</v>
@@ -4276,39 +4384,36 @@
         <v>0</v>
       </c>
       <c r="L98">
-        <v>106</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 04</t>
+          <t>Omak 16-2</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D99">
-        <v>100</v>
+        <v>13.43201477698263</v>
       </c>
       <c r="E99">
-        <v>35.55555555555555</v>
+        <v>80.704425</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G99">
-        <v>135.5555555555555</v>
-      </c>
-      <c r="H99">
-        <v>1</v>
+        <v>144.1364397769826</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -4317,39 +4422,36 @@
         <v>0</v>
       </c>
       <c r="L99">
-        <v>99</v>
+        <v>78</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 01</t>
+          <t>Omak 16-3</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D100">
-        <v>85.49378663891662</v>
+        <v>70.84015435609901</v>
       </c>
       <c r="E100">
-        <v>20</v>
+        <v>79.409075</v>
       </c>
       <c r="F100">
-        <v>33.33333333333333</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="G100">
-        <v>138.8271199722499</v>
-      </c>
-      <c r="H100">
-        <v>2</v>
+        <v>166.9158960227657</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -4358,39 +4460,36 @@
         <v>0</v>
       </c>
       <c r="L100">
-        <v>93</v>
+        <v>51</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 02</t>
+          <t>Omak 16-4</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D101">
-        <v>60</v>
+        <v>73.37991847600033</v>
       </c>
       <c r="E101">
-        <v>11.11111111111112</v>
+        <v>76.655699</v>
       </c>
       <c r="F101">
-        <v>33.33333333333333</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="G101">
-        <v>104.4444444444444</v>
-      </c>
-      <c r="H101">
-        <v>3</v>
+        <v>178.6070460474289</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -4399,39 +4498,39 @@
         <v>0</v>
       </c>
       <c r="L101">
-        <v>142</v>
+        <v>31</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 03</t>
+          <t>Omak 16-5</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D102">
-        <v>84.3515167253664</v>
+        <v>16.37848668882959</v>
       </c>
       <c r="E102">
-        <v>24.44444444444445</v>
+        <v>100</v>
       </c>
       <c r="F102">
-        <v>33.33333333333333</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="G102">
-        <v>142.1292945031442</v>
+        <v>144.9499152602582</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102">
         <v>0</v>
@@ -4439,78 +4538,84 @@
       <c r="J102">
         <v>0</v>
       </c>
+      <c r="K102">
+        <v>8</v>
+      </c>
       <c r="L102">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 04</t>
+          <t>Omak 16-6</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D103">
-        <v>81.64245837892949</v>
+        <v>5.200579157604852</v>
       </c>
       <c r="E103">
-        <v>44.44444444444444</v>
+        <v>100</v>
       </c>
       <c r="F103">
-        <v>41.66666666666667</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="G103">
-        <v>167.7535694900406</v>
+        <v>121.8672458242715</v>
       </c>
       <c r="H103">
+        <v>3</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
         <v>2</v>
       </c>
-      <c r="I103">
-        <v>0</v>
-      </c>
-      <c r="J103">
-        <v>0</v>
-      </c>
       <c r="L103">
-        <v>51</v>
+        <v>120</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 05</t>
+          <t>Omak 16-7</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D104">
-        <v>70.58555725197336</v>
+        <v>29.18204219003546</v>
       </c>
       <c r="E104">
-        <v>46.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="F104">
-        <v>41.66666666666667</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="G104">
-        <v>158.9188905853067</v>
+        <v>172.0391850471783</v>
       </c>
       <c r="H104">
         <v>2</v>
@@ -4521,40 +4626,43 @@
       <c r="J104">
         <v>0</v>
       </c>
+      <c r="K104">
+        <v>5</v>
+      </c>
       <c r="L104">
-        <v>63</v>
+        <v>40</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 06</t>
+          <t>Omak 16-8</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D105">
-        <v>41.40452926434025</v>
+        <v>57.39958642383489</v>
       </c>
       <c r="E105">
-        <v>44.44444444444444</v>
+        <v>100</v>
       </c>
       <c r="F105">
-        <v>41.66666666666667</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="G105">
-        <v>127.5156403754514</v>
+        <v>185.9710149952635</v>
       </c>
       <c r="H105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -4562,37 +4670,40 @@
       <c r="J105">
         <v>0</v>
       </c>
+      <c r="K105">
+        <v>6</v>
+      </c>
       <c r="L105">
-        <v>115</v>
+        <v>24</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 07</t>
+          <t>Omak 16-9</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="D106">
-        <v>49.48033511287066</v>
+        <v>18.59366890069403</v>
       </c>
       <c r="E106">
-        <v>44.44444444444444</v>
+        <v>100</v>
       </c>
       <c r="F106">
-        <v>41.66666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="G106">
-        <v>135.5914462239818</v>
+        <v>151.9270022340274</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -4603,81 +4714,87 @@
       <c r="J106">
         <v>0</v>
       </c>
+      <c r="K106">
+        <v>3</v>
+      </c>
       <c r="L106">
-        <v>98</v>
+        <v>65</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 08</t>
+          <t>Salmon 16-1</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D107">
-        <v>2.388434946574482</v>
+        <v>49.91330716910571</v>
       </c>
       <c r="E107">
-        <v>55.55555555555556</v>
+        <v>94.184302</v>
       </c>
       <c r="F107">
-        <v>58.33333333333334</v>
+        <v>37.5</v>
       </c>
       <c r="G107">
-        <v>116.2773238354634</v>
+        <v>181.5976091691057</v>
       </c>
       <c r="H107">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I107">
         <v>0</v>
       </c>
       <c r="J107">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
       </c>
       <c r="L107">
-        <v>130</v>
+        <v>28</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 09</t>
+          <t>Salmon 16-10</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D108">
-        <v>94.4274257451607</v>
+        <v>12.44070883508962</v>
       </c>
       <c r="E108">
-        <v>57.77777777777777</v>
+        <v>37.338208</v>
       </c>
       <c r="F108">
-        <v>66.66666666666666</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="G108">
-        <v>218.8718701896052</v>
+        <v>106.9217739779468</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108">
         <v>0</v>
@@ -4685,40 +4802,43 @@
       <c r="J108">
         <v>0</v>
       </c>
+      <c r="K108">
+        <v>9</v>
+      </c>
       <c r="L108">
-        <v>12</v>
+        <v>138</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 10</t>
+          <t>Salmon 16-11</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D109">
-        <v>100</v>
+        <v>39.11139432932308</v>
       </c>
       <c r="E109">
-        <v>60</v>
+        <v>12.769728</v>
       </c>
       <c r="F109">
-        <v>66.66666666666666</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="G109">
-        <v>226.6666666666667</v>
+        <v>94.73826518646594</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I109">
         <v>0</v>
@@ -4726,40 +4846,43 @@
       <c r="J109">
         <v>0</v>
       </c>
+      <c r="K109">
+        <v>7</v>
+      </c>
       <c r="L109">
-        <v>8</v>
+        <v>147</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 11</t>
+          <t>Salmon 16-12</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D110">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E110">
-        <v>55.55555555555556</v>
+        <v>56.34152800000001</v>
       </c>
       <c r="F110">
         <v>50</v>
       </c>
       <c r="G110">
-        <v>205.5555555555555</v>
+        <v>106.341528</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I110">
         <v>0</v>
@@ -4767,37 +4890,40 @@
       <c r="J110">
         <v>0</v>
       </c>
+      <c r="K110">
+        <v>4</v>
+      </c>
       <c r="L110">
-        <v>20</v>
+        <v>139</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 12</t>
+          <t>Salmon 16-13</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D111">
-        <v>100</v>
+        <v>50.19589933065281</v>
       </c>
       <c r="E111">
-        <v>53.33333333333334</v>
+        <v>34.571962</v>
       </c>
       <c r="F111">
-        <v>41.66666666666667</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="G111">
-        <v>195</v>
+        <v>127.6250041877957</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -4808,37 +4934,40 @@
       <c r="J111">
         <v>0</v>
       </c>
+      <c r="K111">
+        <v>13</v>
+      </c>
       <c r="L111">
-        <v>25</v>
+        <v>107</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 13</t>
+          <t>Salmon 16-2</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D112">
-        <v>89.03681707418826</v>
+        <v>0</v>
       </c>
       <c r="E112">
-        <v>53.33333333333334</v>
+        <v>95.79153099999999</v>
       </c>
       <c r="F112">
-        <v>41.66666666666667</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="G112">
-        <v>184.0368170741883</v>
+        <v>124.3629595714286</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -4847,98 +4976,107 @@
         <v>0</v>
       </c>
       <c r="J112">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K112">
+        <v>6</v>
       </c>
       <c r="L112">
-        <v>37</v>
+        <v>114</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 14</t>
+          <t>Salmon 16-3</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D113">
-        <v>30.59710789120315</v>
+        <v>42.29866038169604</v>
       </c>
       <c r="E113">
-        <v>53.33333333333334</v>
+        <v>95.400171</v>
       </c>
       <c r="F113">
-        <v>41.66666666666667</v>
+        <v>37.5</v>
       </c>
       <c r="G113">
-        <v>125.5971078912032</v>
+        <v>175.198831381696</v>
       </c>
       <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113">
         <v>3</v>
       </c>
-      <c r="I113">
-        <v>0</v>
-      </c>
-      <c r="J113">
-        <v>0</v>
-      </c>
       <c r="L113">
-        <v>119</v>
+        <v>36</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 15</t>
+          <t>Salmon 16-4</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D114">
-        <v>47.10807995455942</v>
+        <v>61.21972936706004</v>
       </c>
       <c r="E114">
-        <v>40</v>
+        <v>32.115916</v>
       </c>
       <c r="F114">
-        <v>33.33333333333333</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="G114">
-        <v>120.4414132878927</v>
+        <v>136.1927882242029</v>
       </c>
       <c r="H114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114">
         <v>0</v>
       </c>
+      <c r="K114">
+        <v>12</v>
+      </c>
       <c r="L114">
-        <v>127</v>
+        <v>88</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Omak 16-1</t>
+          <t>Salmon 16-5</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4948,23 +5086,23 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower DS</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D115">
-        <v>94.17482327351821</v>
+        <v>38.57403949197322</v>
       </c>
       <c r="E115">
-        <v>86.85472593467416</v>
+        <v>31.899142</v>
       </c>
       <c r="F115">
-        <v>50</v>
+        <v>37.5</v>
       </c>
       <c r="G115">
-        <v>231.0295492081924</v>
+        <v>107.9731814919732</v>
       </c>
       <c r="H115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I115">
         <v>0</v>
@@ -4973,16 +5111,16 @@
         <v>0</v>
       </c>
       <c r="K115">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L115">
-        <v>5</v>
+        <v>137</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Omak 16-2</t>
+          <t>Salmon 16-6</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4992,23 +5130,23 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower DS</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D116">
-        <v>13.43201477698263</v>
+        <v>86.71407722197918</v>
       </c>
       <c r="E116">
-        <v>80.70442515505053</v>
+        <v>21.698354</v>
       </c>
       <c r="F116">
-        <v>57.14285714285714</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="G116">
-        <v>151.2792970748903</v>
+        <v>136.9838597934078</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116">
         <v>0</v>
@@ -5017,16 +5155,16 @@
         <v>0</v>
       </c>
       <c r="K116">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L116">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Omak 16-3</t>
+          <t>Salmon 16-7</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -5036,20 +5174,20 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower DS</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D117">
-        <v>70.84015435609901</v>
+        <v>9.40098230509123</v>
       </c>
       <c r="E117">
-        <v>79.40907453322464</v>
+        <v>47.196706</v>
       </c>
       <c r="F117">
-        <v>28.57142857142857</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="G117">
-        <v>178.8206574607522</v>
+        <v>99.45483116223409</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -5061,16 +5199,16 @@
         <v>0</v>
       </c>
       <c r="K117">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="L117">
-        <v>38</v>
+        <v>144</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Omak 16-4</t>
+          <t>Salmon 16-8</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -5080,23 +5218,23 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower DS</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D118">
-        <v>73.37991847600033</v>
+        <v>17.98763439738011</v>
       </c>
       <c r="E118">
-        <v>76.65569924104071</v>
+        <v>30.117498</v>
       </c>
       <c r="F118">
         <v>42.85714285714285</v>
       </c>
       <c r="G118">
-        <v>192.8927605741839</v>
+        <v>90.96227525452296</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118">
         <v>0</v>
@@ -5105,16 +5243,16 @@
         <v>0</v>
       </c>
       <c r="K118">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L118">
-        <v>30</v>
+        <v>149</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Omak 16-5</t>
+          <t>Salmon 16-9</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -5124,23 +5262,23 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower US</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="D119">
-        <v>16.37848668882959</v>
+        <v>68.77662469825343</v>
       </c>
       <c r="E119">
-        <v>100</v>
+        <v>21.070821</v>
       </c>
       <c r="F119">
-        <v>37.5</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="G119">
-        <v>153.8784866888296</v>
+        <v>132.7045885553963</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I119">
         <v>0</v>
@@ -5149,16 +5287,16 @@
         <v>0</v>
       </c>
       <c r="K119">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L119">
-        <v>70</v>
+        <v>101</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Omak 16-6</t>
+          <t>Similkameen 16-1</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -5168,20 +5306,20 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower US</t>
+          <t>Similkameen River</t>
         </is>
       </c>
       <c r="D120">
-        <v>5.200579157604852</v>
+        <v>89.54765767840669</v>
       </c>
       <c r="E120">
-        <v>100</v>
+        <v>71.00621700000001</v>
       </c>
       <c r="F120">
-        <v>37.5</v>
+        <v>80</v>
       </c>
       <c r="G120">
-        <v>142.7005791576049</v>
+        <v>240.5538746784067</v>
       </c>
       <c r="H120">
         <v>3</v>
@@ -5196,13 +5334,13 @@
         <v>2</v>
       </c>
       <c r="L120">
-        <v>85</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Omak 16-7</t>
+          <t>Similkameen 16-2</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -5212,20 +5350,20 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower US</t>
+          <t>Similkameen River</t>
         </is>
       </c>
       <c r="D121">
-        <v>29.18204219003546</v>
+        <v>100</v>
       </c>
       <c r="E121">
-        <v>100</v>
+        <v>60.777328</v>
       </c>
       <c r="F121">
-        <v>57.14285714285714</v>
+        <v>80</v>
       </c>
       <c r="G121">
-        <v>186.3248993328926</v>
+        <v>240.777328</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -5237,16 +5375,16 @@
         <v>0</v>
       </c>
       <c r="K121">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L121">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Omak 16-8</t>
+          <t>Similkameen 16-3</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -5256,23 +5394,23 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower US</t>
+          <t>Similkameen River</t>
         </is>
       </c>
       <c r="D122">
-        <v>57.39958642383489</v>
+        <v>93.12987408131754</v>
       </c>
       <c r="E122">
-        <v>100</v>
+        <v>48.77088000000001</v>
       </c>
       <c r="F122">
-        <v>37.5</v>
+        <v>75</v>
       </c>
       <c r="G122">
-        <v>194.8995864238349</v>
+        <v>216.9007540813175</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122">
         <v>0</v>
@@ -5281,16 +5419,16 @@
         <v>0</v>
       </c>
       <c r="K122">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L122">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Omak 16-9</t>
+          <t>Similkameen 16-4</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -5300,23 +5438,23 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Omak Creek-Lower US</t>
+          <t>Similkameen River</t>
         </is>
       </c>
       <c r="D123">
-        <v>18.59366890069403</v>
+        <v>100</v>
       </c>
       <c r="E123">
-        <v>100</v>
+        <v>49.66488500000001</v>
       </c>
       <c r="F123">
-        <v>42.85714285714285</v>
+        <v>80</v>
       </c>
       <c r="G123">
-        <v>161.4508117578369</v>
+        <v>229.664885</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123">
         <v>0</v>
@@ -5325,16 +5463,16 @@
         <v>0</v>
       </c>
       <c r="K123">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L123">
-        <v>59</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Salmon 16-1</t>
+          <t>Similkameen 16-5</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -5344,20 +5482,20 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Similkameen River</t>
         </is>
       </c>
       <c r="D124">
-        <v>49.91330716910571</v>
+        <v>35.02680379350559</v>
       </c>
       <c r="E124">
-        <v>94.18430220496438</v>
+        <v>37.072594</v>
       </c>
       <c r="F124">
-        <v>33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="G124">
-        <v>177.4309427074034</v>
+        <v>122.0993977935056</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -5366,19 +5504,19 @@
         <v>0</v>
       </c>
       <c r="J124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K124">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L124">
-        <v>42</v>
+        <v>119</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Salmon 16-10</t>
+          <t>Similkameen 16-6</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -5388,23 +5526,23 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Similkameen River</t>
         </is>
       </c>
       <c r="D125">
-        <v>12.44070883508962</v>
+        <v>0</v>
       </c>
       <c r="E125">
-        <v>37.33820785794291</v>
+        <v>48.218338</v>
       </c>
       <c r="F125">
-        <v>44.44444444444444</v>
+        <v>75</v>
       </c>
       <c r="G125">
-        <v>94.22336113747697</v>
+        <v>123.218338</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -5413,42 +5551,42 @@
         <v>0</v>
       </c>
       <c r="K125">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="L125">
-        <v>149</v>
+        <v>116</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Salmon 16-11</t>
+          <t>Twisp River Lower 01</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D126">
-        <v>39.11139432932308</v>
+        <v>100</v>
       </c>
       <c r="E126">
-        <v>12.7697279929931</v>
+        <v>64.44444</v>
       </c>
       <c r="F126">
-        <v>44.44444444444444</v>
+        <v>50</v>
       </c>
       <c r="G126">
-        <v>96.32556676676062</v>
+        <v>214.44444</v>
       </c>
       <c r="H126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -5456,37 +5594,40 @@
       <c r="J126">
         <v>0</v>
       </c>
-      <c r="K126">
-        <v>7</v>
-      </c>
       <c r="L126">
-        <v>147</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Salmon 16-12</t>
+          <t>Twisp River Lower 02</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
-        </is>
+          <t>Lower Twisp River</t>
+        </is>
+      </c>
+      <c r="D127">
+        <v>85.21578438901136</v>
       </c>
       <c r="E127">
-        <v>56.34152777250969</v>
+        <v>53.33333</v>
       </c>
       <c r="F127">
-        <v>44.44444444444444</v>
+        <v>33.33333333333333</v>
+      </c>
+      <c r="G127">
+        <v>171.8824477223447</v>
       </c>
       <c r="H127">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I127">
         <v>0</v>
@@ -5494,40 +5635,37 @@
       <c r="J127">
         <v>0</v>
       </c>
-      <c r="K127">
-        <v>4</v>
-      </c>
       <c r="L127">
-        <v>180</v>
+        <v>41</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Salmon 16-13</t>
+          <t>Twisp River Lower 03</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D128">
-        <v>50.19589933065281</v>
+        <v>75.96049349447488</v>
       </c>
       <c r="E128">
-        <v>34.57196229431558</v>
+        <v>62.22221999999999</v>
       </c>
       <c r="F128">
-        <v>55.55555555555556</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="G128">
-        <v>140.323417180524</v>
+        <v>204.8493801611415</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -5538,34 +5676,37 @@
       <c r="J128">
         <v>0</v>
       </c>
-      <c r="K128">
-        <v>13</v>
-      </c>
       <c r="L128">
-        <v>90</v>
+        <v>14</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Salmon 16-2</t>
+          <t>Twisp River Lower 04</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
-        </is>
+          <t>Lower Twisp River</t>
+        </is>
+      </c>
+      <c r="D129">
+        <v>89.16036088849121</v>
       </c>
       <c r="E129">
-        <v>95.79153059480188</v>
+        <v>62.22221999999999</v>
       </c>
       <c r="F129">
-        <v>33.33333333333333</v>
+        <v>66.66666666666666</v>
+      </c>
+      <c r="G129">
+        <v>218.0492475551579</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -5574,42 +5715,39 @@
         <v>0</v>
       </c>
       <c r="J129">
-        <v>1</v>
-      </c>
-      <c r="K129">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L129">
-        <v>181</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Salmon 16-3</t>
+          <t>Twisp River Lower 05</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D130">
-        <v>42.29866038169604</v>
+        <v>69.81772809280523</v>
       </c>
       <c r="E130">
-        <v>95.40017120304125</v>
+        <v>62.22221999999999</v>
       </c>
       <c r="F130">
-        <v>33.33333333333333</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="G130">
-        <v>171.0321649180706</v>
+        <v>198.7066147594719</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -5618,89 +5756,83 @@
         <v>0</v>
       </c>
       <c r="J130">
-        <v>1</v>
-      </c>
-      <c r="K130">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L130">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Salmon 16-4</t>
+          <t>Twisp River Lower 06</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D131">
-        <v>61.21972936706004</v>
+        <v>61.75524760324507</v>
       </c>
       <c r="E131">
-        <v>32.11591577283121</v>
+        <v>66.66667</v>
       </c>
       <c r="F131">
         <v>33.33333333333333</v>
       </c>
       <c r="G131">
-        <v>126.6689784732246</v>
+        <v>161.7552509365784</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131">
         <v>0</v>
       </c>
-      <c r="K131">
-        <v>12</v>
-      </c>
       <c r="L131">
-        <v>116</v>
+        <v>53</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Salmon 16-5</t>
+          <t>Twisp River Lower 07</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D132">
-        <v>38.57403949197322</v>
+        <v>55.35278697152805</v>
       </c>
       <c r="E132">
-        <v>31.8991423793819</v>
+        <v>44.44443999999999</v>
       </c>
       <c r="F132">
         <v>33.33333333333333</v>
       </c>
       <c r="G132">
-        <v>103.8065152046885</v>
+        <v>133.1305603048614</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I132">
         <v>0</v>
@@ -5708,43 +5840,40 @@
       <c r="J132">
         <v>0</v>
       </c>
-      <c r="K132">
-        <v>10</v>
-      </c>
       <c r="L132">
-        <v>144</v>
+        <v>99</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Salmon 16-6</t>
+          <t>Twisp River Lower 08</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D133">
-        <v>86.71407722197918</v>
+        <v>39.88903924834695</v>
       </c>
       <c r="E133">
-        <v>21.69835359836432</v>
+        <v>48.88889</v>
       </c>
       <c r="F133">
-        <v>22.22222222222222</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="G133">
-        <v>130.6346530425657</v>
+        <v>122.1112625816803</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I133">
         <v>0</v>
@@ -5752,43 +5881,40 @@
       <c r="J133">
         <v>0</v>
       </c>
-      <c r="K133">
-        <v>11</v>
-      </c>
       <c r="L133">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Salmon 16-7</t>
+          <t>Twisp River Lower 09</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D134">
-        <v>9.40098230509123</v>
+        <v>38.91418617443922</v>
       </c>
       <c r="E134">
-        <v>47.19670622139288</v>
+        <v>51.11111</v>
       </c>
       <c r="F134">
-        <v>33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="G134">
-        <v>89.93102185981743</v>
+        <v>140.0252961744392</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I134">
         <v>0</v>
@@ -5796,40 +5922,37 @@
       <c r="J134">
         <v>0</v>
       </c>
-      <c r="K134">
-        <v>14</v>
-      </c>
       <c r="L134">
-        <v>152</v>
+        <v>82</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Salmon 16-8</t>
+          <t>Twisp River Lower 10</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D135">
-        <v>17.98763439738011</v>
+        <v>72.65933763461709</v>
       </c>
       <c r="E135">
-        <v>30.11749791566473</v>
+        <v>42.22222</v>
       </c>
       <c r="F135">
         <v>33.33333333333333</v>
       </c>
       <c r="G135">
-        <v>81.43846564637816</v>
+        <v>148.2148909679504</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -5840,43 +5963,40 @@
       <c r="J135">
         <v>0</v>
       </c>
-      <c r="K135">
-        <v>8</v>
-      </c>
       <c r="L135">
-        <v>156</v>
+        <v>69</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Salmon 16-9</t>
+          <t>Twisp River Lower 11</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D136">
-        <v>68.77662469825343</v>
+        <v>88.38500784340779</v>
       </c>
       <c r="E136">
-        <v>21.07082064919569</v>
+        <v>48.88889</v>
       </c>
       <c r="F136">
         <v>33.33333333333333</v>
       </c>
       <c r="G136">
-        <v>123.1807786807825</v>
+        <v>170.6072311767411</v>
       </c>
       <c r="H136">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I136">
         <v>0</v>
@@ -5884,43 +6004,40 @@
       <c r="J136">
         <v>0</v>
       </c>
-      <c r="K136">
-        <v>5</v>
-      </c>
       <c r="L136">
-        <v>124</v>
+        <v>44</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Similkameen 16-1</t>
+          <t>Twisp River Middle 01</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Similkameen River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D137">
-        <v>89.54765767840669</v>
+        <v>96.99902423868772</v>
       </c>
       <c r="E137">
-        <v>71.00621701555278</v>
+        <v>26.66667</v>
       </c>
       <c r="F137">
-        <v>80</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="G137">
-        <v>240.5538746939595</v>
+        <v>156.9990275720211</v>
       </c>
       <c r="H137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I137">
         <v>0</v>
@@ -5928,40 +6045,37 @@
       <c r="J137">
         <v>0</v>
       </c>
-      <c r="K137">
-        <v>2</v>
-      </c>
       <c r="L137">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Similkameen 16-2</t>
+          <t>Twisp River Middle 02</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Similkameen River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D138">
-        <v>100</v>
+        <v>94.14263946738888</v>
       </c>
       <c r="E138">
-        <v>60.77732822839733</v>
+        <v>22.22222</v>
       </c>
       <c r="F138">
-        <v>80</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="G138">
-        <v>240.7773282283973</v>
+        <v>133.0315261340556</v>
       </c>
       <c r="H138">
         <v>2</v>
@@ -5972,40 +6086,37 @@
       <c r="J138">
         <v>0</v>
       </c>
-      <c r="K138">
-        <v>4</v>
-      </c>
       <c r="L138">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Similkameen 16-3</t>
+          <t>Twisp River Middle 03</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Similkameen River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D139">
-        <v>93.12987408131754</v>
+        <v>49.09931794304519</v>
       </c>
       <c r="E139">
-        <v>48.7708799290832</v>
+        <v>37.77778000000001</v>
       </c>
       <c r="F139">
-        <v>66.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="G139">
-        <v>208.5674206770674</v>
+        <v>120.2104312763785</v>
       </c>
       <c r="H139">
         <v>2</v>
@@ -6016,40 +6127,37 @@
       <c r="J139">
         <v>0</v>
       </c>
-      <c r="K139">
-        <v>3</v>
-      </c>
       <c r="L139">
-        <v>18</v>
+        <v>124</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Similkameen 16-4</t>
+          <t>Twisp River Middle 04</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Similkameen River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D140">
-        <v>100</v>
+        <v>91.80999745138692</v>
       </c>
       <c r="E140">
-        <v>49.66488537430342</v>
+        <v>37.77778000000001</v>
       </c>
       <c r="F140">
-        <v>83.33333333333334</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="G140">
-        <v>232.9982187076368</v>
+        <v>162.9211107847203</v>
       </c>
       <c r="H140">
         <v>1</v>
@@ -6060,40 +6168,37 @@
       <c r="J140">
         <v>0</v>
       </c>
-      <c r="K140">
-        <v>6</v>
-      </c>
       <c r="L140">
-        <v>4</v>
+        <v>52</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Similkameen 16-5</t>
+          <t>Twisp River Middle 05</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Similkameen River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D141">
-        <v>35.02680379350559</v>
+        <v>100</v>
       </c>
       <c r="E141">
-        <v>37.07259441958828</v>
+        <v>37.77778000000001</v>
       </c>
       <c r="F141">
         <v>33.33333333333333</v>
       </c>
       <c r="G141">
-        <v>105.4327315464272</v>
+        <v>171.1111133333333</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -6104,34 +6209,37 @@
       <c r="J141">
         <v>0</v>
       </c>
-      <c r="K141">
-        <v>5</v>
-      </c>
       <c r="L141">
-        <v>141</v>
+        <v>43</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Similkameen 16-6</t>
+          <t>Twisp River Middle 07</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Similkameen River</t>
-        </is>
+          <t>Middle Twisp River</t>
+        </is>
+      </c>
+      <c r="D142">
+        <v>42.6890552310836</v>
       </c>
       <c r="E142">
-        <v>48.21833751207306</v>
+        <v>33.33333</v>
       </c>
       <c r="F142">
-        <v>50</v>
+        <v>33.33333333333333</v>
+      </c>
+      <c r="G142">
+        <v>109.3557185644169</v>
       </c>
       <c r="H142">
         <v>3</v>
@@ -6142,17 +6250,14 @@
       <c r="J142">
         <v>0</v>
       </c>
-      <c r="K142">
-        <v>1</v>
-      </c>
       <c r="L142">
-        <v>182</v>
+        <v>136</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Twisp River Lower 01</t>
+          <t>Twisp River Middle 08</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -6162,23 +6267,23 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D143">
-        <v>100</v>
+        <v>37.48068068716065</v>
       </c>
       <c r="E143">
-        <v>64.44444444444444</v>
+        <v>33.33333</v>
       </c>
       <c r="F143">
-        <v>62.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="G143">
-        <v>226.9444444444445</v>
+        <v>104.147344020494</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I143">
         <v>0</v>
@@ -6187,39 +6292,39 @@
         <v>0</v>
       </c>
       <c r="L143">
-        <v>7</v>
+        <v>142</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Twisp River Lower 02</t>
+          <t>Wenatchee River Beaver 03</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D144">
-        <v>85.21578438901136</v>
+        <v>97.03413539622783</v>
       </c>
       <c r="E144">
-        <v>53.33333333333334</v>
+        <v>35.55556</v>
       </c>
       <c r="F144">
-        <v>37.5</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="G144">
-        <v>176.0491177223447</v>
+        <v>154.8119176184501</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I144">
         <v>0</v>
@@ -6228,39 +6333,39 @@
         <v>0</v>
       </c>
       <c r="L144">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Twisp River Lower 03</t>
+          <t>Wenatchee River Beaver 04</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D145">
-        <v>75.96049349447488</v>
+        <v>98.90146404597175</v>
       </c>
       <c r="E145">
-        <v>62.22222222222222</v>
+        <v>35.55556</v>
       </c>
       <c r="F145">
-        <v>62.5</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="G145">
-        <v>200.6827157166971</v>
+        <v>156.679246268194</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I145">
         <v>0</v>
@@ -6269,36 +6374,36 @@
         <v>0</v>
       </c>
       <c r="L145">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Twisp River Lower 04</t>
+          <t>Wenatchee River Beaver 05</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D146">
-        <v>89.16036088849121</v>
+        <v>100</v>
       </c>
       <c r="E146">
-        <v>62.22222222222222</v>
+        <v>53.33333</v>
       </c>
       <c r="F146">
-        <v>62.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="G146">
-        <v>213.8825831107134</v>
+        <v>186.6666633333333</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -6310,39 +6415,39 @@
         <v>0</v>
       </c>
       <c r="L146">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Twisp River Lower 05</t>
+          <t>Wenatchee River Beaver 06</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D147">
-        <v>69.81772809280523</v>
+        <v>95.90200317285483</v>
       </c>
       <c r="E147">
-        <v>62.22222222222222</v>
+        <v>51.11111</v>
       </c>
       <c r="F147">
-        <v>62.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="G147">
-        <v>194.5399503150275</v>
+        <v>180.3464465061882</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147">
         <v>0</v>
@@ -6357,30 +6462,30 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Twisp River Lower 06</t>
+          <t>Wenatchee River Beaver 07</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D148">
-        <v>61.75524760324507</v>
+        <v>94.01528772681414</v>
       </c>
       <c r="E148">
-        <v>66.66666666666667</v>
+        <v>51.11111</v>
       </c>
       <c r="F148">
-        <v>50</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="G148">
-        <v>178.4219142699117</v>
+        <v>178.4597310601475</v>
       </c>
       <c r="H148">
         <v>2</v>
@@ -6392,39 +6497,39 @@
         <v>0</v>
       </c>
       <c r="L148">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Twisp River Lower 07</t>
+          <t>Wenatchee River Beaver 08</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D149">
-        <v>55.35278697152805</v>
+        <v>89.26498987566312</v>
       </c>
       <c r="E149">
-        <v>44.44444444444444</v>
+        <v>51.11111</v>
       </c>
       <c r="F149">
-        <v>25</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="G149">
-        <v>124.7972314159725</v>
+        <v>195.9316554312187</v>
       </c>
       <c r="H149">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -6433,39 +6538,39 @@
         <v>0</v>
       </c>
       <c r="L149">
-        <v>121</v>
+        <v>19</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Twisp River Lower 08</t>
+          <t>Wenatchee River Beaver 09</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D150">
-        <v>39.88903924834695</v>
+        <v>86.22831161270592</v>
       </c>
       <c r="E150">
-        <v>48.88888888888889</v>
+        <v>51.11111</v>
       </c>
       <c r="F150">
-        <v>25</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="G150">
-        <v>113.7779281372359</v>
+        <v>192.8949771682615</v>
       </c>
       <c r="H150">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -6474,39 +6579,39 @@
         <v>0</v>
       </c>
       <c r="L150">
-        <v>133</v>
+        <v>20</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Twisp River Lower 09</t>
+          <t>Wenatchee River Beaver 10</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D151">
-        <v>38.91418617443922</v>
+        <v>76.36710574327366</v>
       </c>
       <c r="E151">
-        <v>55.55555555555556</v>
+        <v>37.77778000000001</v>
       </c>
       <c r="F151">
-        <v>50</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="G151">
-        <v>144.4697417299948</v>
+        <v>147.478219076607</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -6515,77 +6620,77 @@
         <v>0</v>
       </c>
       <c r="L151">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Twisp River Lower 10</t>
+          <t>Wenatchee River Beaver 11</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D152">
-        <v>72.65933763461709</v>
+        <v>96.09095741063084</v>
       </c>
       <c r="E152">
-        <v>46.66666666666666</v>
+        <v>44.44443999999999</v>
       </c>
       <c r="F152">
+        <v>44.44444444444444</v>
+      </c>
+      <c r="G152">
+        <v>184.9798418550753</v>
+      </c>
+      <c r="H152">
+        <v>1</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="L152">
         <v>25</v>
-      </c>
-      <c r="G152">
-        <v>144.3260043012838</v>
-      </c>
-      <c r="H152">
-        <v>3</v>
-      </c>
-      <c r="I152">
-        <v>0</v>
-      </c>
-      <c r="J152">
-        <v>0</v>
-      </c>
-      <c r="L152">
-        <v>82</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Twisp River Lower 11</t>
+          <t>Wenatchee River Beaver 12</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D153">
-        <v>88.38500784340779</v>
+        <v>95.79059566981961</v>
       </c>
       <c r="E153">
-        <v>48.88888888888889</v>
+        <v>42.22222</v>
       </c>
       <c r="F153">
-        <v>25</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="G153">
-        <v>162.2738967322967</v>
+        <v>182.4572601142641</v>
       </c>
       <c r="H153">
         <v>2</v>
@@ -6597,36 +6702,36 @@
         <v>0</v>
       </c>
       <c r="L153">
-        <v>56</v>
+        <v>27</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Twisp River Middle 01</t>
+          <t>Wenatchee River Derby 01</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Wenatchee River-Derby Canyon</t>
         </is>
       </c>
       <c r="D154">
-        <v>96.99902423868772</v>
+        <v>95.20124891901783</v>
       </c>
       <c r="E154">
-        <v>26.66666666666667</v>
+        <v>48.888889</v>
       </c>
       <c r="F154">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="G154">
-        <v>148.6656909053544</v>
+        <v>177.4234712523512</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -6638,36 +6743,36 @@
         <v>0</v>
       </c>
       <c r="L154">
-        <v>77</v>
+        <v>34</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Twisp River Middle 02</t>
+          <t>Wenatchee River Derby 02</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Wenatchee River-Derby Canyon</t>
         </is>
       </c>
       <c r="D155">
-        <v>94.14263946738888</v>
+        <v>100</v>
       </c>
       <c r="E155">
-        <v>22.22222222222222</v>
+        <v>40</v>
       </c>
       <c r="F155">
-        <v>12.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="G155">
-        <v>128.8648616896111</v>
+        <v>173.3333333333333</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -6679,39 +6784,39 @@
         <v>0</v>
       </c>
       <c r="L155">
-        <v>114</v>
+        <v>38</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Twisp River Middle 03</t>
+          <t>Wenatchee River Derby 03</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Wenatchee River-Derby Canyon</t>
         </is>
       </c>
       <c r="D156">
-        <v>49.09931794304519</v>
+        <v>95.37960262639852</v>
       </c>
       <c r="E156">
-        <v>37.77777777777778</v>
+        <v>48.888889</v>
       </c>
       <c r="F156">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="G156">
-        <v>111.877095720823</v>
+        <v>177.6018249597319</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156">
         <v>0</v>
@@ -6720,39 +6825,39 @@
         <v>0</v>
       </c>
       <c r="L156">
-        <v>135</v>
+        <v>33</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Twisp River Middle 04</t>
+          <t>Wenatchee River Derby 04</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Wenatchee River-Derby Canyon</t>
         </is>
       </c>
       <c r="D157">
-        <v>91.80999745138692</v>
+        <v>94.1326291369481</v>
       </c>
       <c r="E157">
-        <v>37.77777777777778</v>
+        <v>42.222222</v>
       </c>
       <c r="F157">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="G157">
-        <v>154.5877752291647</v>
+        <v>169.6881844702814</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I157">
         <v>0</v>
@@ -6761,39 +6866,39 @@
         <v>0</v>
       </c>
       <c r="L157">
-        <v>69</v>
+        <v>45</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Twisp River Middle 05</t>
+          <t>Wenatchee River Derby 05</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Wenatchee River-Derby Canyon</t>
         </is>
       </c>
       <c r="D158">
-        <v>100</v>
+        <v>21.74096556851031</v>
       </c>
       <c r="E158">
-        <v>37.77777777777778</v>
+        <v>33.333333</v>
       </c>
       <c r="F158">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="G158">
-        <v>162.7777777777778</v>
+        <v>88.40763190184364</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I158">
         <v>0</v>
@@ -6802,39 +6907,39 @@
         <v>0</v>
       </c>
       <c r="L158">
-        <v>55</v>
+        <v>150</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Twisp River Middle 07</t>
+          <t>Wenatchee River Derby 06</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Wenatchee River-Tumwater Canyon</t>
         </is>
       </c>
       <c r="D159">
-        <v>42.6890552310836</v>
+        <v>100</v>
       </c>
       <c r="E159">
-        <v>33.33333333333334</v>
+        <v>40</v>
       </c>
       <c r="F159">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="G159">
-        <v>101.0223885644169</v>
+        <v>173.3333333333333</v>
       </c>
       <c r="H159">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I159">
         <v>0</v>
@@ -6843,39 +6948,39 @@
         <v>0</v>
       </c>
       <c r="L159">
-        <v>146</v>
+        <v>38</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Twisp River Middle 08</t>
+          <t>Wenatchee River Nahahum 07</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Wenatchee River-Ollala Canyon</t>
         </is>
       </c>
       <c r="D160">
-        <v>37.48068068716065</v>
+        <v>99.57086091932047</v>
       </c>
       <c r="E160">
-        <v>33.33333333333334</v>
+        <v>53.333333</v>
       </c>
       <c r="F160">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="G160">
-        <v>95.81401402049399</v>
+        <v>186.2375272526538</v>
       </c>
       <c r="H160">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I160">
         <v>0</v>
@@ -6884,13 +6989,13 @@
         <v>0</v>
       </c>
       <c r="L160">
-        <v>148</v>
+        <v>23</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 02</t>
+          <t>Wenatchee River Ollala 01</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -6900,20 +7005,20 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Wenatchee River-Ollala Canyon</t>
         </is>
       </c>
       <c r="D161">
-        <v>96.20175247696949</v>
+        <v>90.26590852326144</v>
       </c>
       <c r="E161">
-        <v>28.88888888888889</v>
+        <v>53.333333</v>
       </c>
       <c r="F161">
-        <v>36.36363636363637</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="G161">
-        <v>161.4542777294948</v>
+        <v>176.9325748565948</v>
       </c>
       <c r="H161">
         <v>3</v>
@@ -6925,13 +7030,13 @@
         <v>0</v>
       </c>
       <c r="L161">
-        <v>58</v>
+        <v>35</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 03</t>
+          <t>Wenatchee River Ollala 02</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -6941,23 +7046,23 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Wenatchee River-Ollala Canyon</t>
         </is>
       </c>
       <c r="D162">
-        <v>97.03413539622783</v>
+        <v>100</v>
       </c>
       <c r="E162">
-        <v>44.44444444444444</v>
+        <v>51.111111</v>
       </c>
       <c r="F162">
-        <v>27.27272727272727</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="G162">
-        <v>168.7513071133996</v>
+        <v>184.4444443333333</v>
       </c>
       <c r="H162">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I162">
         <v>0</v>
@@ -6966,13 +7071,13 @@
         <v>0</v>
       </c>
       <c r="L162">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 04</t>
+          <t>Wenatchee River Ollala 03</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -6982,20 +7087,20 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Wenatchee River-Ollala Canyon</t>
         </is>
       </c>
       <c r="D163">
-        <v>98.90146404597175</v>
+        <v>94.78947209060871</v>
       </c>
       <c r="E163">
-        <v>44.44444444444444</v>
+        <v>51.111111</v>
       </c>
       <c r="F163">
-        <v>27.27272727272727</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="G163">
-        <v>170.6186357631435</v>
+        <v>179.2339164239421</v>
       </c>
       <c r="H163">
         <v>2</v>
@@ -7007,13 +7112,13 @@
         <v>0</v>
       </c>
       <c r="L163">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 05</t>
+          <t>Wenatchee River Tumwater 01</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -7023,23 +7128,23 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Wenatchee River-Tumwater Canyon</t>
         </is>
       </c>
       <c r="D164">
-        <v>100</v>
+        <v>98.76523600127072</v>
       </c>
       <c r="E164">
-        <v>64.44444444444444</v>
+        <v>40</v>
       </c>
       <c r="F164">
-        <v>54.54545454545454</v>
+        <v>0</v>
       </c>
       <c r="G164">
-        <v>218.989898989899</v>
+        <v>138.7652360012707</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I164">
         <v>0</v>
@@ -7048,13 +7153,13 @@
         <v>0</v>
       </c>
       <c r="L164">
-        <v>10</v>
+        <v>83</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 06</t>
+          <t>Wenatchee River Tumwater 02</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -7064,23 +7169,23 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Wenatchee River-Tumwater Canyon</t>
         </is>
       </c>
       <c r="D165">
-        <v>95.90200317285483</v>
+        <v>18.77286529899376</v>
       </c>
       <c r="E165">
-        <v>60</v>
+        <v>37.777778</v>
       </c>
       <c r="F165">
-        <v>54.54545454545454</v>
+        <v>0</v>
       </c>
       <c r="G165">
-        <v>210.4474577183094</v>
+        <v>56.55064329899376</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I165">
         <v>0</v>
@@ -7089,54 +7194,42 @@
         <v>0</v>
       </c>
       <c r="L165">
-        <v>16</v>
+        <v>158</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 07</t>
+          <t>Mad River Lower 02</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
-        </is>
-      </c>
-      <c r="D166">
-        <v>94.01528772681414</v>
-      </c>
-      <c r="E166">
-        <v>60</v>
-      </c>
-      <c r="F166">
-        <v>54.54545454545454</v>
-      </c>
-      <c r="G166">
-        <v>208.5607422722687</v>
+          <t>Lower Mad River</t>
+        </is>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166">
         <v>0</v>
       </c>
       <c r="L166">
-        <v>19</v>
+        <v>165</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 08</t>
+          <t>Icicle Creek Lower 04</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -7146,38 +7239,26 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
-        </is>
-      </c>
-      <c r="D167">
-        <v>89.26498987566312</v>
-      </c>
-      <c r="E167">
-        <v>60</v>
-      </c>
-      <c r="F167">
-        <v>63.63636363636363</v>
-      </c>
-      <c r="G167">
-        <v>212.9013535120268</v>
+          <t>Lower Icicle Creek</t>
+        </is>
       </c>
       <c r="H167">
         <v>1</v>
       </c>
       <c r="I167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167">
         <v>0</v>
       </c>
       <c r="L167">
-        <v>15</v>
+        <v>166</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 09</t>
+          <t>Mission Creek 01</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -7187,38 +7268,26 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
-        </is>
-      </c>
-      <c r="D168">
-        <v>86.22831161270592</v>
-      </c>
-      <c r="E168">
-        <v>60</v>
-      </c>
-      <c r="F168">
-        <v>72.72727272727273</v>
-      </c>
-      <c r="G168">
-        <v>218.9555843399787</v>
+          <t>Mission Creek-Brender Creek</t>
+        </is>
       </c>
       <c r="H168">
         <v>1</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168">
         <v>0</v>
       </c>
       <c r="L168">
-        <v>11</v>
+        <v>167</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 10</t>
+          <t>Mission Creek 02</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -7228,946 +7297,142 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
-        </is>
-      </c>
-      <c r="D169">
-        <v>76.36710574327366</v>
-      </c>
-      <c r="E169">
-        <v>46.66666666666666</v>
-      </c>
-      <c r="F169">
-        <v>36.36363636363637</v>
-      </c>
-      <c r="G169">
-        <v>159.3974087735767</v>
+          <t>Mission Creek-Brender Creek</t>
+        </is>
       </c>
       <c r="H169">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169">
         <v>0</v>
       </c>
       <c r="L169">
-        <v>62</v>
+        <v>168</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 11</t>
+          <t>Aeneas 16-1</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
-        </is>
-      </c>
-      <c r="D170">
-        <v>96.09095741063084</v>
-      </c>
-      <c r="E170">
-        <v>53.33333333333334</v>
-      </c>
-      <c r="F170">
-        <v>45.45454545454545</v>
-      </c>
-      <c r="G170">
-        <v>194.8788361985096</v>
+          <t>Aeneas Creek-DS</t>
+        </is>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J170">
         <v>0</v>
       </c>
+      <c r="K170">
+        <v>3</v>
+      </c>
       <c r="L170">
-        <v>27</v>
+        <v>169</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 12</t>
+          <t>Johnson 16-3</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
-        </is>
-      </c>
-      <c r="D171">
-        <v>95.79059566981961</v>
-      </c>
-      <c r="E171">
-        <v>51.11111111111111</v>
-      </c>
-      <c r="F171">
-        <v>45.45454545454545</v>
-      </c>
-      <c r="G171">
-        <v>192.3562522354762</v>
+          <t>Johnson Creek</t>
+        </is>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K171">
+        <v>30</v>
       </c>
       <c r="L171">
-        <v>31</v>
+        <v>170</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 01</t>
+          <t>Johnson 16-2</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Wenatchee River-Derby Canyon</t>
-        </is>
-      </c>
-      <c r="D172">
-        <v>95.20124891901783</v>
-      </c>
-      <c r="E172">
-        <v>51.11111111111111</v>
-      </c>
-      <c r="F172">
-        <v>40</v>
-      </c>
-      <c r="G172">
-        <v>186.3123600301289</v>
+          <t>Johnson Creek</t>
+        </is>
       </c>
       <c r="H172">
-        <v>2</v>
-      </c>
-      <c r="I172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J172">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K172">
+        <v>5</v>
       </c>
       <c r="L172">
-        <v>36</v>
+        <v>171</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Wenatchee River Derby 02</t>
+          <t>Johnson 16-4</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Wenatchee River-Derby Canyon</t>
-        </is>
-      </c>
-      <c r="D173">
-        <v>100</v>
-      </c>
-      <c r="E173">
-        <v>46.66666666666666</v>
-      </c>
-      <c r="F173">
-        <v>40</v>
-      </c>
-      <c r="G173">
-        <v>186.6666666666667</v>
+          <t>Johnson Creek</t>
+        </is>
       </c>
       <c r="H173">
         <v>1</v>
       </c>
-      <c r="I173">
-        <v>0</v>
-      </c>
       <c r="J173">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K173">
+        <v>9</v>
       </c>
       <c r="L173">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>Wenatchee River Derby 03</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Derby Canyon</t>
-        </is>
-      </c>
-      <c r="D174">
-        <v>95.37960262639852</v>
-      </c>
-      <c r="E174">
-        <v>51.11111111111111</v>
-      </c>
-      <c r="F174">
-        <v>40</v>
-      </c>
-      <c r="G174">
-        <v>186.4907137375096</v>
-      </c>
-      <c r="H174">
-        <v>1</v>
-      </c>
-      <c r="I174">
-        <v>0</v>
-      </c>
-      <c r="J174">
-        <v>0</v>
-      </c>
-      <c r="L174">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>Wenatchee River Derby 04</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Derby Canyon</t>
-        </is>
-      </c>
-      <c r="D175">
-        <v>94.1326291369481</v>
-      </c>
-      <c r="E175">
-        <v>44.44444444444444</v>
-      </c>
-      <c r="F175">
-        <v>20</v>
-      </c>
-      <c r="G175">
-        <v>158.5770735813925</v>
-      </c>
-      <c r="H175">
-        <v>2</v>
-      </c>
-      <c r="I175">
-        <v>0</v>
-      </c>
-      <c r="J175">
-        <v>0</v>
-      </c>
-      <c r="L175">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>Wenatchee River Derby 05</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Derby Canyon</t>
-        </is>
-      </c>
-      <c r="D176">
-        <v>21.74096556851031</v>
-      </c>
-      <c r="E176">
-        <v>40</v>
-      </c>
-      <c r="F176">
-        <v>20</v>
-      </c>
-      <c r="G176">
-        <v>81.74096556851032</v>
-      </c>
-      <c r="H176">
-        <v>3</v>
-      </c>
-      <c r="I176">
-        <v>0</v>
-      </c>
-      <c r="J176">
-        <v>0</v>
-      </c>
-      <c r="L176">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>Wenatchee River Derby 06</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
-        </is>
-      </c>
-      <c r="D177">
-        <v>100</v>
-      </c>
-      <c r="E177">
-        <v>44.44444444444444</v>
-      </c>
-      <c r="F177">
-        <v>20</v>
-      </c>
-      <c r="G177">
-        <v>164.4444444444445</v>
-      </c>
-      <c r="H177">
-        <v>3</v>
-      </c>
-      <c r="I177">
-        <v>0</v>
-      </c>
-      <c r="J177">
-        <v>0</v>
-      </c>
-      <c r="L177">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>Wenatchee River Nahahum 07</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Ollala Canyon</t>
-        </is>
-      </c>
-      <c r="D178">
-        <v>99.57086091932047</v>
-      </c>
-      <c r="E178">
-        <v>57.77777777777777</v>
-      </c>
-      <c r="F178">
-        <v>40</v>
-      </c>
-      <c r="G178">
-        <v>197.3486386970982</v>
-      </c>
-      <c r="H178">
-        <v>1</v>
-      </c>
-      <c r="I178">
-        <v>0</v>
-      </c>
-      <c r="J178">
-        <v>0</v>
-      </c>
-      <c r="L178">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>Wenatchee River Ollala 01</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Ollala Canyon</t>
-        </is>
-      </c>
-      <c r="D179">
-        <v>90.26590852326144</v>
-      </c>
-      <c r="E179">
-        <v>57.77777777777777</v>
-      </c>
-      <c r="F179">
-        <v>40</v>
-      </c>
-      <c r="G179">
-        <v>188.0436863010392</v>
-      </c>
-      <c r="H179">
-        <v>3</v>
-      </c>
-      <c r="I179">
-        <v>0</v>
-      </c>
-      <c r="J179">
-        <v>0</v>
-      </c>
-      <c r="L179">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>Wenatchee River Ollala 02</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Ollala Canyon</t>
-        </is>
-      </c>
-      <c r="D180">
-        <v>100</v>
-      </c>
-      <c r="E180">
-        <v>55.55555555555556</v>
-      </c>
-      <c r="F180">
-        <v>40</v>
-      </c>
-      <c r="G180">
-        <v>195.5555555555555</v>
-      </c>
-      <c r="H180">
-        <v>1</v>
-      </c>
-      <c r="I180">
-        <v>0</v>
-      </c>
-      <c r="J180">
-        <v>0</v>
-      </c>
-      <c r="L180">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>Wenatchee River Ollala 03</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Ollala Canyon</t>
-        </is>
-      </c>
-      <c r="D181">
-        <v>94.78947209060871</v>
-      </c>
-      <c r="E181">
-        <v>60</v>
-      </c>
-      <c r="F181">
-        <v>40</v>
-      </c>
-      <c r="G181">
-        <v>194.7894720906087</v>
-      </c>
-      <c r="H181">
-        <v>2</v>
-      </c>
-      <c r="I181">
-        <v>0</v>
-      </c>
-      <c r="J181">
-        <v>0</v>
-      </c>
-      <c r="L181">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>Wenatchee River Tumwater 01</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
-        </is>
-      </c>
-      <c r="D182">
-        <v>98.76523600127072</v>
-      </c>
-      <c r="E182">
-        <v>51.11111111111111</v>
-      </c>
-      <c r="F182">
-        <v>100</v>
-      </c>
-      <c r="G182">
-        <v>249.8763471123818</v>
-      </c>
-      <c r="H182">
-        <v>1</v>
-      </c>
-      <c r="I182">
-        <v>0</v>
-      </c>
-      <c r="J182">
-        <v>0</v>
-      </c>
-      <c r="L182">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>Wenatchee River Tumwater 02</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
-        </is>
-      </c>
-      <c r="D183">
-        <v>18.77286529899376</v>
-      </c>
-      <c r="E183">
-        <v>48.88888888888889</v>
-      </c>
-      <c r="F183">
-        <v>100</v>
-      </c>
-      <c r="G183">
-        <v>167.6617541878827</v>
-      </c>
-      <c r="H183">
-        <v>2</v>
-      </c>
-      <c r="I183">
-        <v>0</v>
-      </c>
-      <c r="J183">
-        <v>0</v>
-      </c>
-      <c r="L183">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>Wenatchee River Tumwater 03</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
-        </is>
-      </c>
-      <c r="D184">
-        <v>54.41917355579435</v>
-      </c>
-      <c r="F184">
-        <v>100</v>
-      </c>
-      <c r="I184">
-        <v>0</v>
-      </c>
-      <c r="J184">
-        <v>0</v>
-      </c>
-      <c r="L184">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>Wenatchee River Tumwater 04</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
-        </is>
-      </c>
-      <c r="D185">
-        <v>65.49117618115952</v>
-      </c>
-      <c r="F185">
-        <v>100</v>
-      </c>
-      <c r="I185">
-        <v>0</v>
-      </c>
-      <c r="J185">
-        <v>0</v>
-      </c>
-      <c r="L185">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>Wenatchee River Tumwater 05</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
-        </is>
-      </c>
-      <c r="D186">
-        <v>15</v>
-      </c>
-      <c r="F186">
-        <v>100</v>
-      </c>
-      <c r="I186">
-        <v>0</v>
-      </c>
-      <c r="J186">
-        <v>0</v>
-      </c>
-      <c r="L186">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>Wenatchee River Tumwater 06</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
-        </is>
-      </c>
-      <c r="D187">
-        <v>13.33508090201708</v>
-      </c>
-      <c r="F187">
-        <v>100</v>
-      </c>
-      <c r="I187">
-        <v>0</v>
-      </c>
-      <c r="J187">
-        <v>0</v>
-      </c>
-      <c r="L187">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>Wenatchee River Tumwater 07</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>Wenatchee River-Tumwater Canyon</t>
-        </is>
-      </c>
-      <c r="D188">
-        <v>22.85497649978766</v>
-      </c>
-      <c r="F188">
-        <v>100</v>
-      </c>
-      <c r="I188">
-        <v>0</v>
-      </c>
-      <c r="J188">
-        <v>0</v>
-      </c>
-      <c r="L188">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>Mission Creek 01</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>Mission Creek-Brender Creek</t>
-        </is>
-      </c>
-      <c r="H189">
-        <v>1</v>
-      </c>
-      <c r="I189">
-        <v>1</v>
-      </c>
-      <c r="J189">
-        <v>0</v>
-      </c>
-      <c r="L189">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>Mission Creek 02</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>Mission Creek-Brender Creek</t>
-        </is>
-      </c>
-      <c r="H190">
-        <v>1</v>
-      </c>
-      <c r="I190">
-        <v>1</v>
-      </c>
-      <c r="J190">
-        <v>0</v>
-      </c>
-      <c r="L190">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>Aeneas 16-1</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>Aeneas Creek-DS</t>
-        </is>
-      </c>
-      <c r="H191">
-        <v>1</v>
-      </c>
-      <c r="I191">
-        <v>1</v>
-      </c>
-      <c r="J191">
-        <v>0</v>
-      </c>
-      <c r="K191">
-        <v>3</v>
-      </c>
-      <c r="L191">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>Johnson 16-3</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>Johnson Creek</t>
-        </is>
-      </c>
-      <c r="H192">
-        <v>1</v>
-      </c>
-      <c r="I192">
-        <v>1</v>
-      </c>
-      <c r="J192">
-        <v>1</v>
-      </c>
-      <c r="K192">
-        <v>30</v>
-      </c>
-      <c r="L192">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>Johnson 16-2</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>Johnson Creek</t>
-        </is>
-      </c>
-      <c r="H193">
-        <v>1</v>
-      </c>
-      <c r="J193">
-        <v>1</v>
-      </c>
-      <c r="K193">
-        <v>5</v>
-      </c>
-      <c r="L193">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>Johnson 16-4</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>Johnson Creek</t>
-        </is>
-      </c>
-      <c r="H194">
-        <v>1</v>
-      </c>
-      <c r="J194">
-        <v>1</v>
-      </c>
-      <c r="K194">
-        <v>9</v>
-      </c>
-      <c r="L194">
-        <v>193</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
